--- a/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -839,12 +839,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1070,6 +1077,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1378,617 +1391,619 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="18" xfId="253" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2242,6 +2257,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="253" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3099,9 +3115,7 @@
   </sheetPr>
   <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3125,28 +3139,28 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="168"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="193"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="174"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
@@ -3217,14 +3231,14 @@
       <c r="D10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="196">
-        <f>'Research data'!G7</f>
-        <v>42</v>
+      <c r="E10" s="200">
+        <f>'Research data'!G7/100</f>
+        <v>0.42</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="199" t="s">
+      <c r="I10" s="190" t="s">
         <v>197</v>
       </c>
       <c r="J10" s="42"/>
@@ -3237,14 +3251,14 @@
       <c r="D11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="196">
-        <f>'Research data'!G8</f>
-        <v>40</v>
+      <c r="E11" s="187">
+        <f>'Research data'!G8/100</f>
+        <v>0.4</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="199" t="s">
+      <c r="I11" s="190" t="s">
         <v>197</v>
       </c>
       <c r="J11" s="42"/>
@@ -3257,7 +3271,7 @@
       <c r="D12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="196">
+      <c r="E12" s="187">
         <v>0.9</v>
       </c>
       <c r="F12" s="33"/>
@@ -3277,7 +3291,7 @@
       <c r="D13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="197">
+      <c r="E13" s="188">
         <v>0</v>
       </c>
       <c r="F13" s="33"/>
@@ -3297,7 +3311,7 @@
       <c r="D14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="198">
+      <c r="E14" s="189">
         <v>0.1</v>
       </c>
       <c r="F14" s="33"/>
@@ -3317,7 +3331,7 @@
       <c r="D15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="198">
+      <c r="E15" s="189">
         <v>0.7</v>
       </c>
       <c r="F15" s="33"/>
@@ -3337,7 +3351,7 @@
       <c r="D16" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="197">
+      <c r="E16" s="188">
         <f>'Research data'!G6</f>
         <v>100</v>
       </c>
@@ -3346,7 +3360,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="33"/>
-      <c r="I16" s="199" t="s">
+      <c r="I16" s="190" t="s">
         <v>197</v>
       </c>
       <c r="J16" s="131"/>
@@ -3359,7 +3373,7 @@
       <c r="D17" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="196">
+      <c r="E17" s="187">
         <f>E16*E11/E10</f>
         <v>95.238095238095241</v>
       </c>
@@ -3368,7 +3382,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="33"/>
-      <c r="I17" s="199" t="s">
+      <c r="I17" s="190" t="s">
         <v>197</v>
       </c>
       <c r="J17" s="131"/>
@@ -3381,7 +3395,7 @@
       <c r="D18" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="196">
+      <c r="E18" s="187">
         <v>-0.75</v>
       </c>
       <c r="F18" s="33"/>
@@ -3402,7 +3416,7 @@
       <c r="D19" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="196">
+      <c r="E19" s="187">
         <v>-0.75</v>
       </c>
       <c r="F19" s="33"/>
@@ -3604,7 +3618,7 @@
         <v>57</v>
       </c>
       <c r="H29" s="33"/>
-      <c r="I29" s="199" t="s">
+      <c r="I29" s="190" t="s">
         <v>197</v>
       </c>
       <c r="J29" s="131"/>
@@ -3626,7 +3640,7 @@
         <v>58</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="199" t="s">
+      <c r="I30" s="190" t="s">
         <v>197</v>
       </c>
       <c r="J30" s="131"/>
@@ -3951,7 +3965,7 @@
   <dimension ref="B1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4093,67 +4107,67 @@
       <c r="N6" s="82"/>
       <c r="Q6" s="72"/>
     </row>
-    <row r="7" spans="2:17" s="175" customFormat="1" ht="16" thickBot="1">
-      <c r="B7" s="179"/>
-      <c r="C7" s="183" t="s">
+    <row r="7" spans="2:17" s="166" customFormat="1" ht="16" thickBot="1">
+      <c r="B7" s="170"/>
+      <c r="C7" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="184" t="s">
+      <c r="D7" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="185" t="s">
+      <c r="E7" s="167"/>
+      <c r="F7" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="186">
+      <c r="G7" s="177">
         <f>I7</f>
         <v>42</v>
       </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="186">
+      <c r="H7" s="178"/>
+      <c r="I7" s="177">
         <f>Notes!E18</f>
         <v>42</v>
       </c>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="190" t="s">
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="181" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="175" customFormat="1" ht="16" thickBot="1">
-      <c r="B8" s="179"/>
-      <c r="C8" s="183" t="s">
+    <row r="8" spans="2:17" s="166" customFormat="1" ht="16" thickBot="1">
+      <c r="B8" s="170"/>
+      <c r="C8" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="176"/>
-      <c r="F8" s="185" t="s">
+      <c r="E8" s="167"/>
+      <c r="F8" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="186">
+      <c r="G8" s="177">
         <f>I8</f>
         <v>40</v>
       </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="186">
+      <c r="H8" s="178"/>
+      <c r="I8" s="177">
         <f>Notes!E19</f>
         <v>40</v>
       </c>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="190" t="s">
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="181" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4378,7 +4392,7 @@
     </row>
     <row r="18" spans="2:17" ht="16" thickBot="1">
       <c r="B18" s="80"/>
-      <c r="C18" s="176" t="s">
+      <c r="C18" s="167" t="s">
         <v>164</v>
       </c>
       <c r="D18" s="29"/>
@@ -4432,7 +4446,7 @@
       <c r="N19" s="89"/>
       <c r="O19" s="96"/>
       <c r="P19" s="89"/>
-      <c r="Q19" s="177" t="s">
+      <c r="Q19" s="168" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4456,7 +4470,7 @@
       <c r="N20" s="89"/>
       <c r="O20" s="96"/>
       <c r="P20" s="89"/>
-      <c r="Q20" s="178" t="s">
+      <c r="Q20" s="169" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4486,7 +4500,7 @@
       <c r="N21" s="89"/>
       <c r="O21" s="96"/>
       <c r="P21" s="89"/>
-      <c r="Q21" s="178" t="s">
+      <c r="Q21" s="169" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4513,7 +4527,7 @@
       <c r="N22" s="89"/>
       <c r="O22" s="96"/>
       <c r="P22" s="89"/>
-      <c r="Q22" s="178" t="s">
+      <c r="Q22" s="169" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4571,7 +4585,7 @@
       <c r="N24" s="87"/>
       <c r="O24" s="87"/>
       <c r="P24" s="87"/>
-      <c r="Q24" s="178" t="s">
+      <c r="Q24" s="169" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5020,7 +5034,7 @@
   <dimension ref="B1:Q117"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="S68" sqref="S68"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5322,7 +5336,7 @@
     <row r="18" spans="2:16">
       <c r="B18" s="156"/>
       <c r="C18" s="157"/>
-      <c r="D18" s="175" t="s">
+      <c r="D18" s="166" t="s">
         <v>181</v>
       </c>
       <c r="E18" s="157">
@@ -5346,14 +5360,14 @@
     <row r="19" spans="2:16">
       <c r="B19" s="156"/>
       <c r="C19" s="157"/>
-      <c r="D19" s="175" t="s">
+      <c r="D19" s="166" t="s">
         <v>180</v>
       </c>
       <c r="E19" s="157">
         <f>E35</f>
         <v>40</v>
       </c>
-      <c r="F19" s="180" t="s">
+      <c r="F19" s="171" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="157"/>
@@ -5370,13 +5384,13 @@
     <row r="20" spans="2:16">
       <c r="B20" s="156"/>
       <c r="C20" s="157"/>
-      <c r="D20" s="175" t="s">
+      <c r="D20" s="166" t="s">
         <v>196</v>
       </c>
       <c r="E20" s="157">
         <v>6000</v>
       </c>
-      <c r="F20" s="180" t="s">
+      <c r="F20" s="171" t="s">
         <v>195</v>
       </c>
       <c r="G20" s="157"/>
@@ -5486,245 +5500,245 @@
       <c r="O26" s="157"/>
       <c r="P26" s="158"/>
     </row>
-    <row r="27" spans="2:16" s="175" customFormat="1">
-      <c r="B27" s="179"/>
-      <c r="C27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="181"/>
-    </row>
-    <row r="28" spans="2:16" s="175" customFormat="1">
-      <c r="B28" s="179"/>
-      <c r="C28" s="180" t="s">
+    <row r="27" spans="2:16" s="166" customFormat="1">
+      <c r="B27" s="170"/>
+      <c r="C27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="171"/>
+      <c r="P27" s="172"/>
+    </row>
+    <row r="28" spans="2:16" s="166" customFormat="1">
+      <c r="B28" s="170"/>
+      <c r="C28" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="181"/>
-    </row>
-    <row r="29" spans="2:16" s="175" customFormat="1">
-      <c r="B29" s="179"/>
-      <c r="C29" s="180" t="s">
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="172"/>
+    </row>
+    <row r="29" spans="2:16" s="166" customFormat="1">
+      <c r="B29" s="170"/>
+      <c r="C29" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180" t="s">
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="181"/>
-    </row>
-    <row r="30" spans="2:16" s="175" customFormat="1">
-      <c r="B30" s="179"/>
-      <c r="C30" s="180"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180" t="s">
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
+      <c r="P29" s="172"/>
+    </row>
+    <row r="30" spans="2:16" s="166" customFormat="1">
+      <c r="B30" s="170"/>
+      <c r="C30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171" t="s">
         <v>169</v>
       </c>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="181"/>
-    </row>
-    <row r="31" spans="2:16" s="175" customFormat="1">
-      <c r="B31" s="179"/>
-      <c r="C31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180" t="s">
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="171"/>
+      <c r="P30" s="172"/>
+    </row>
+    <row r="31" spans="2:16" s="166" customFormat="1">
+      <c r="B31" s="170"/>
+      <c r="C31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="181"/>
-    </row>
-    <row r="32" spans="2:16" s="175" customFormat="1">
-      <c r="B32" s="179"/>
-      <c r="C32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="181"/>
-    </row>
-    <row r="33" spans="2:16" s="175" customFormat="1">
-      <c r="B33" s="179"/>
-      <c r="C33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180" t="s">
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="172"/>
+    </row>
+    <row r="32" spans="2:16" s="166" customFormat="1">
+      <c r="B32" s="170"/>
+      <c r="C32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="171"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="171"/>
+      <c r="P32" s="172"/>
+    </row>
+    <row r="33" spans="2:16" s="166" customFormat="1">
+      <c r="B33" s="170"/>
+      <c r="C33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171" t="s">
         <v>171</v>
       </c>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="181"/>
-    </row>
-    <row r="34" spans="2:16" s="175" customFormat="1">
-      <c r="B34" s="179"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180" t="s">
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="172"/>
+    </row>
+    <row r="34" spans="2:16" s="166" customFormat="1">
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="180">
+      <c r="E34" s="171">
         <v>42</v>
       </c>
-      <c r="F34" s="180" t="s">
+      <c r="F34" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="182" t="s">
+      <c r="G34" s="173" t="s">
         <v>173</v>
       </c>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="180"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="180"/>
-      <c r="P34" s="181"/>
-    </row>
-    <row r="35" spans="2:16" s="175" customFormat="1">
-      <c r="B35" s="179"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180" t="s">
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="171"/>
+      <c r="L34" s="171"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="171"/>
+      <c r="O34" s="171"/>
+      <c r="P34" s="172"/>
+    </row>
+    <row r="35" spans="2:16" s="166" customFormat="1">
+      <c r="B35" s="170"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="180">
+      <c r="E35" s="171">
         <v>40</v>
       </c>
-      <c r="F35" s="180" t="s">
+      <c r="F35" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="182" t="s">
+      <c r="G35" s="173" t="s">
         <v>175</v>
       </c>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="181"/>
-    </row>
-    <row r="36" spans="2:16" s="175" customFormat="1">
-      <c r="B36" s="179"/>
-      <c r="C36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="G36" s="182" t="s">
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="171"/>
+      <c r="N35" s="171"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="172"/>
+    </row>
+    <row r="36" spans="2:16" s="166" customFormat="1">
+      <c r="B36" s="170"/>
+      <c r="C36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="G36" s="173" t="s">
         <v>176</v>
       </c>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="180"/>
-      <c r="K36" s="180"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="180"/>
-      <c r="N36" s="180"/>
-      <c r="O36" s="180"/>
-      <c r="P36" s="181"/>
-    </row>
-    <row r="37" spans="2:16" s="175" customFormat="1">
-      <c r="B37" s="179"/>
-      <c r="C37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="182" t="s">
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
+      <c r="K36" s="171"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="171"/>
+      <c r="O36" s="171"/>
+      <c r="P36" s="172"/>
+    </row>
+    <row r="37" spans="2:16" s="166" customFormat="1">
+      <c r="B37" s="170"/>
+      <c r="C37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="173" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="181"/>
-    </row>
-    <row r="38" spans="2:16" s="175" customFormat="1">
-      <c r="B38" s="179"/>
-      <c r="C38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="180"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="180"/>
-      <c r="O38" s="180"/>
-      <c r="P38" s="181"/>
-    </row>
-    <row r="39" spans="2:16" s="175" customFormat="1">
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="181"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="171"/>
+      <c r="P37" s="172"/>
+    </row>
+    <row r="38" spans="2:16" s="166" customFormat="1">
+      <c r="B38" s="170"/>
+      <c r="C38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="171"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="171"/>
+      <c r="O38" s="171"/>
+      <c r="P38" s="172"/>
+    </row>
+    <row r="39" spans="2:16" s="166" customFormat="1">
+      <c r="B39" s="170"/>
+      <c r="C39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="171"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="171"/>
+      <c r="P39" s="172"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="156"/>
@@ -5930,10 +5944,10 @@
     <row r="52" spans="2:17">
       <c r="B52" s="156"/>
       <c r="C52" s="165"/>
-      <c r="D52" s="180" t="s">
+      <c r="D52" s="171" t="s">
         <v>193</v>
       </c>
-      <c r="E52" s="195">
+      <c r="E52" s="186">
         <f>E51*E66</f>
         <v>933333.33333333326</v>
       </c>
@@ -5954,10 +5968,10 @@
     <row r="53" spans="2:17">
       <c r="B53" s="156"/>
       <c r="C53" s="157"/>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="166" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="195">
+      <c r="E53" s="186">
         <f>E51*E67</f>
         <v>1866666.6666666665</v>
       </c>
@@ -6103,207 +6117,207 @@
       <c r="O61" s="157"/>
       <c r="P61" s="158"/>
     </row>
-    <row r="62" spans="2:17" s="175" customFormat="1">
-      <c r="B62" s="179"/>
-      <c r="C62" s="180" t="s">
+    <row r="62" spans="2:17" s="166" customFormat="1">
+      <c r="B62" s="170"/>
+      <c r="C62" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="180"/>
-      <c r="I62" s="180"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="180"/>
-      <c r="L62" s="180"/>
-      <c r="M62" s="180"/>
-      <c r="N62" s="180"/>
-      <c r="O62" s="180"/>
-      <c r="P62" s="181"/>
+      <c r="E62" s="171"/>
+      <c r="F62" s="171"/>
+      <c r="G62" s="171"/>
+      <c r="H62" s="171"/>
+      <c r="I62" s="171"/>
+      <c r="J62" s="171"/>
+      <c r="K62" s="171"/>
+      <c r="L62" s="171"/>
+      <c r="M62" s="171"/>
+      <c r="N62" s="171"/>
+      <c r="O62" s="171"/>
+      <c r="P62" s="172"/>
       <c r="Q62" s="150"/>
     </row>
-    <row r="63" spans="2:17" s="175" customFormat="1">
-      <c r="B63" s="179"/>
-      <c r="C63" s="180" t="s">
+    <row r="63" spans="2:17" s="166" customFormat="1">
+      <c r="B63" s="170"/>
+      <c r="C63" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
-      <c r="G63" s="180" t="s">
+      <c r="E63" s="171"/>
+      <c r="F63" s="171"/>
+      <c r="G63" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="H63" s="180"/>
-      <c r="I63" s="180"/>
-      <c r="J63" s="180"/>
-      <c r="K63" s="180"/>
-      <c r="L63" s="180"/>
-      <c r="M63" s="180"/>
-      <c r="N63" s="180"/>
-      <c r="O63" s="180"/>
-      <c r="P63" s="181"/>
+      <c r="H63" s="171"/>
+      <c r="I63" s="171"/>
+      <c r="J63" s="171"/>
+      <c r="K63" s="171"/>
+      <c r="L63" s="171"/>
+      <c r="M63" s="171"/>
+      <c r="N63" s="171"/>
+      <c r="O63" s="171"/>
+      <c r="P63" s="172"/>
       <c r="Q63" s="150"/>
     </row>
-    <row r="64" spans="2:17" s="175" customFormat="1">
-      <c r="B64" s="179"/>
-      <c r="C64" s="180"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="180"/>
-      <c r="G64" s="180" t="s">
+    <row r="64" spans="2:17" s="166" customFormat="1">
+      <c r="B64" s="170"/>
+      <c r="C64" s="171"/>
+      <c r="E64" s="171"/>
+      <c r="F64" s="171"/>
+      <c r="G64" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="H64" s="180"/>
-      <c r="I64" s="180"/>
-      <c r="J64" s="180"/>
-      <c r="K64" s="180"/>
-      <c r="L64" s="180"/>
-      <c r="M64" s="180"/>
-      <c r="N64" s="180"/>
-      <c r="O64" s="180"/>
-      <c r="P64" s="181"/>
+      <c r="H64" s="171"/>
+      <c r="I64" s="171"/>
+      <c r="J64" s="171"/>
+      <c r="K64" s="171"/>
+      <c r="L64" s="171"/>
+      <c r="M64" s="171"/>
+      <c r="N64" s="171"/>
+      <c r="O64" s="171"/>
+      <c r="P64" s="172"/>
       <c r="Q64" s="150"/>
     </row>
-    <row r="65" spans="2:17" s="175" customFormat="1">
-      <c r="B65" s="179"/>
-      <c r="C65" s="180"/>
-      <c r="E65" s="180"/>
-      <c r="F65" s="180"/>
-      <c r="G65" s="180"/>
-      <c r="H65" s="180"/>
-      <c r="I65" s="180"/>
-      <c r="J65" s="180"/>
-      <c r="K65" s="180"/>
-      <c r="L65" s="180"/>
-      <c r="M65" s="180"/>
-      <c r="N65" s="180"/>
-      <c r="O65" s="180"/>
-      <c r="P65" s="181"/>
+    <row r="65" spans="2:17" s="166" customFormat="1">
+      <c r="B65" s="170"/>
+      <c r="C65" s="171"/>
+      <c r="E65" s="171"/>
+      <c r="F65" s="171"/>
+      <c r="G65" s="171"/>
+      <c r="H65" s="171"/>
+      <c r="I65" s="171"/>
+      <c r="J65" s="171"/>
+      <c r="K65" s="171"/>
+      <c r="L65" s="171"/>
+      <c r="M65" s="171"/>
+      <c r="N65" s="171"/>
+      <c r="O65" s="171"/>
+      <c r="P65" s="172"/>
       <c r="Q65" s="150"/>
     </row>
-    <row r="66" spans="2:17" s="175" customFormat="1">
-      <c r="B66" s="179"/>
-      <c r="C66" s="180"/>
-      <c r="D66" s="175" t="s">
+    <row r="66" spans="2:17" s="166" customFormat="1">
+      <c r="B66" s="170"/>
+      <c r="C66" s="171"/>
+      <c r="D66" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="E66" s="194">
+      <c r="E66" s="185">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F66" s="180"/>
-      <c r="G66" s="175" t="s">
+      <c r="F66" s="171"/>
+      <c r="G66" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="H66" s="180"/>
-      <c r="I66" s="180"/>
-      <c r="J66" s="180"/>
-      <c r="K66" s="180"/>
-      <c r="L66" s="180"/>
-      <c r="M66" s="180"/>
-      <c r="N66" s="180"/>
-      <c r="O66" s="180"/>
-      <c r="P66" s="181"/>
+      <c r="H66" s="171"/>
+      <c r="I66" s="171"/>
+      <c r="J66" s="171"/>
+      <c r="K66" s="171"/>
+      <c r="L66" s="171"/>
+      <c r="M66" s="171"/>
+      <c r="N66" s="171"/>
+      <c r="O66" s="171"/>
+      <c r="P66" s="172"/>
       <c r="Q66" s="150"/>
     </row>
-    <row r="67" spans="2:17" s="175" customFormat="1">
-      <c r="B67" s="179"/>
-      <c r="C67" s="180"/>
-      <c r="D67" s="175" t="s">
+    <row r="67" spans="2:17" s="166" customFormat="1">
+      <c r="B67" s="170"/>
+      <c r="C67" s="171"/>
+      <c r="D67" s="166" t="s">
         <v>192</v>
       </c>
-      <c r="E67" s="194">
+      <c r="E67" s="185">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F67" s="180"/>
-      <c r="G67" s="175" t="s">
+      <c r="F67" s="171"/>
+      <c r="G67" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="H67" s="180"/>
-      <c r="I67" s="180"/>
-      <c r="J67" s="180"/>
-      <c r="K67" s="180"/>
-      <c r="L67" s="180"/>
-      <c r="M67" s="180"/>
-      <c r="N67" s="180"/>
-      <c r="O67" s="180"/>
-      <c r="P67" s="181"/>
+      <c r="H67" s="171"/>
+      <c r="I67" s="171"/>
+      <c r="J67" s="171"/>
+      <c r="K67" s="171"/>
+      <c r="L67" s="171"/>
+      <c r="M67" s="171"/>
+      <c r="N67" s="171"/>
+      <c r="O67" s="171"/>
+      <c r="P67" s="172"/>
       <c r="Q67" s="150"/>
     </row>
-    <row r="68" spans="2:17" s="175" customFormat="1">
-      <c r="B68" s="179"/>
-      <c r="C68" s="180"/>
-      <c r="E68" s="180"/>
-      <c r="F68" s="180"/>
-      <c r="G68" s="191" t="s">
+    <row r="68" spans="2:17" s="166" customFormat="1">
+      <c r="B68" s="170"/>
+      <c r="C68" s="171"/>
+      <c r="E68" s="171"/>
+      <c r="F68" s="171"/>
+      <c r="G68" s="182" t="s">
         <v>187</v>
       </c>
-      <c r="H68" s="180"/>
-      <c r="I68" s="180"/>
-      <c r="J68" s="180"/>
-      <c r="K68" s="180"/>
-      <c r="L68" s="180"/>
-      <c r="M68" s="180"/>
-      <c r="N68" s="180"/>
-      <c r="O68" s="180"/>
-      <c r="P68" s="181"/>
-      <c r="Q68" s="180"/>
-    </row>
-    <row r="69" spans="2:17" s="175" customFormat="1">
-      <c r="B69" s="179"/>
-      <c r="C69" s="180"/>
-      <c r="E69" s="180"/>
-      <c r="F69" s="180"/>
-      <c r="G69" s="193" t="s">
+      <c r="H68" s="171"/>
+      <c r="I68" s="171"/>
+      <c r="J68" s="171"/>
+      <c r="K68" s="171"/>
+      <c r="L68" s="171"/>
+      <c r="M68" s="171"/>
+      <c r="N68" s="171"/>
+      <c r="O68" s="171"/>
+      <c r="P68" s="172"/>
+      <c r="Q68" s="171"/>
+    </row>
+    <row r="69" spans="2:17" s="166" customFormat="1">
+      <c r="B69" s="170"/>
+      <c r="C69" s="171"/>
+      <c r="E69" s="171"/>
+      <c r="F69" s="171"/>
+      <c r="G69" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="H69" s="180"/>
-      <c r="I69" s="180"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="180"/>
-      <c r="L69" s="180"/>
-      <c r="M69" s="180"/>
-      <c r="N69" s="180"/>
-      <c r="O69" s="180"/>
-      <c r="P69" s="181"/>
-      <c r="Q69" s="180"/>
-    </row>
-    <row r="70" spans="2:17" s="175" customFormat="1">
-      <c r="B70" s="179"/>
-      <c r="C70" s="180"/>
-      <c r="E70" s="180"/>
-      <c r="F70" s="180"/>
-      <c r="G70" s="192" t="s">
+      <c r="H69" s="171"/>
+      <c r="I69" s="171"/>
+      <c r="J69" s="171"/>
+      <c r="K69" s="171"/>
+      <c r="L69" s="171"/>
+      <c r="M69" s="171"/>
+      <c r="N69" s="171"/>
+      <c r="O69" s="171"/>
+      <c r="P69" s="172"/>
+      <c r="Q69" s="171"/>
+    </row>
+    <row r="70" spans="2:17" s="166" customFormat="1">
+      <c r="B70" s="170"/>
+      <c r="C70" s="171"/>
+      <c r="E70" s="171"/>
+      <c r="F70" s="171"/>
+      <c r="G70" s="183" t="s">
         <v>189</v>
       </c>
-      <c r="H70" s="180"/>
-      <c r="I70" s="180"/>
-      <c r="J70" s="180"/>
-      <c r="K70" s="180"/>
-      <c r="L70" s="180"/>
-      <c r="M70" s="180"/>
-      <c r="N70" s="180"/>
-      <c r="O70" s="180"/>
-      <c r="P70" s="181"/>
-      <c r="Q70" s="180"/>
-    </row>
-    <row r="71" spans="2:17" s="175" customFormat="1">
-      <c r="B71" s="179"/>
-      <c r="C71" s="180"/>
-      <c r="E71" s="180"/>
-      <c r="F71" s="180"/>
-      <c r="G71" s="192" t="s">
+      <c r="H70" s="171"/>
+      <c r="I70" s="171"/>
+      <c r="J70" s="171"/>
+      <c r="K70" s="171"/>
+      <c r="L70" s="171"/>
+      <c r="M70" s="171"/>
+      <c r="N70" s="171"/>
+      <c r="O70" s="171"/>
+      <c r="P70" s="172"/>
+      <c r="Q70" s="171"/>
+    </row>
+    <row r="71" spans="2:17" s="166" customFormat="1">
+      <c r="B71" s="170"/>
+      <c r="C71" s="171"/>
+      <c r="E71" s="171"/>
+      <c r="F71" s="171"/>
+      <c r="G71" s="183" t="s">
         <v>190</v>
       </c>
-      <c r="H71" s="180"/>
-      <c r="I71" s="180"/>
-      <c r="J71" s="180"/>
-      <c r="K71" s="180"/>
-      <c r="L71" s="180"/>
-      <c r="M71" s="180"/>
-      <c r="N71" s="180"/>
-      <c r="O71" s="180"/>
-      <c r="P71" s="181"/>
-      <c r="Q71" s="180"/>
+      <c r="H71" s="171"/>
+      <c r="I71" s="171"/>
+      <c r="J71" s="171"/>
+      <c r="K71" s="171"/>
+      <c r="L71" s="171"/>
+      <c r="M71" s="171"/>
+      <c r="N71" s="171"/>
+      <c r="O71" s="171"/>
+      <c r="P71" s="172"/>
+      <c r="Q71" s="171"/>
     </row>
     <row r="72" spans="2:17">
       <c r="B72" s="156"/>
@@ -6440,7 +6454,7 @@
     <row r="80" spans="2:17">
       <c r="B80" s="156"/>
       <c r="C80" s="157"/>
-      <c r="D80" s="175" t="s">
+      <c r="D80" s="166" t="s">
         <v>1</v>
       </c>
       <c r="E80" s="157">

--- a/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -353,9 +361,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -830,6 +835,10 @@
   <si>
     <t>EnergyMatters</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -839,7 +848,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1034,11 +1043,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1648,7 +1652,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1699,7 +1703,7 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1710,63 +1714,63 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1849,7 +1853,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1867,7 +1871,7 @@
     <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1923,14 +1927,14 @@
     <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1939,10 +1943,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1974,34 +1978,34 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="18" xfId="253" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="18" xfId="253" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2261,80 +2265,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2490,7 +2429,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2931,50 +2870,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -2983,29 +2922,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="108" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="109"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="110"/>
       <c r="C10" s="111"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="110" t="s">
         <v>90</v>
@@ -3014,33 +2953,33 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="110"/>
       <c r="C12" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="110"/>
       <c r="C13" s="113" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="110"/>
       <c r="C14" s="111" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="110"/>
       <c r="C15" s="111"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="110" t="s">
         <v>95</v>
@@ -3049,49 +2988,49 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="110"/>
       <c r="C17" s="115" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="110"/>
       <c r="C18" s="116" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="110"/>
       <c r="C19" s="117" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="118"/>
       <c r="C20" s="119" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="118"/>
       <c r="C21" s="120" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="118"/>
       <c r="C22" s="121" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="118"/>
       <c r="C23" s="122" t="s">
         <v>103</v>
@@ -3100,74 +3039,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="191" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="193"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="194"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="194"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="196"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="195"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="197"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="197"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="199"/>
+    <row r="4" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="200"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3178,7 +3114,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="123"/>
       <c r="C7" s="15" t="s">
         <v>32</v>
@@ -3199,7 +3135,7 @@
       </c>
       <c r="J7" s="130"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -3210,10 +3146,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -3223,15 +3159,15 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="191">
         <f>'Research data'!G7/100</f>
         <v>0.42</v>
       </c>
@@ -3239,11 +3175,11 @@
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
       <c r="I10" s="190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
         <v>63</v>
@@ -3259,11 +3195,11 @@
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
       <c r="I11" s="190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>34</v>
@@ -3283,7 +3219,7 @@
       <c r="J12" s="131"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>36</v>
@@ -3303,7 +3239,7 @@
       <c r="J13" s="131"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>39</v>
@@ -3323,7 +3259,7 @@
       <c r="J14" s="131"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>40</v>
@@ -3343,7 +3279,7 @@
       <c r="J15" s="131"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>41</v>
@@ -3361,11 +3297,11 @@
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J16" s="131"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -3383,11 +3319,11 @@
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J17" s="131"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="72" t="s">
         <v>75</v>
@@ -3408,7 +3344,7 @@
       </c>
       <c r="J18" s="131"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="72" t="s">
         <v>76</v>
@@ -3429,7 +3365,7 @@
       </c>
       <c r="J19" s="131"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="72" t="s">
         <v>77</v>
@@ -3450,7 +3386,7 @@
       </c>
       <c r="J20" s="131"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="72" t="s">
         <v>78</v>
@@ -3471,7 +3407,7 @@
       </c>
       <c r="J21" s="131"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="72" t="s">
         <v>79</v>
@@ -3492,7 +3428,7 @@
       </c>
       <c r="J22" s="131"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="37"/>
       <c r="C23" s="93"/>
       <c r="D23" s="126"/>
@@ -3503,10 +3439,10 @@
       <c r="I23" s="32"/>
       <c r="J23" s="131"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="126"/>
       <c r="E24" s="127"/>
@@ -3516,7 +3452,7 @@
       <c r="I24" s="32"/>
       <c r="J24" s="131"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>43</v>
@@ -3534,11 +3470,11 @@
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J25" s="131"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>44</v>
@@ -3559,7 +3495,7 @@
       </c>
       <c r="J26" s="131"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>12</v>
@@ -3580,7 +3516,7 @@
       </c>
       <c r="J27" s="131"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>45</v>
@@ -3601,7 +3537,7 @@
       </c>
       <c r="J28" s="131"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>46</v>
@@ -3619,11 +3555,11 @@
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J29" s="131"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>47</v>
@@ -3641,11 +3577,11 @@
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J30" s="131"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>48</v>
@@ -3666,7 +3602,7 @@
       </c>
       <c r="J31" s="131"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>51</v>
@@ -3687,7 +3623,7 @@
       </c>
       <c r="J32" s="131"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>38</v>
@@ -3706,7 +3642,7 @@
       </c>
       <c r="J33" s="131"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="37"/>
       <c r="C34" s="33"/>
       <c r="D34" s="19"/>
@@ -3717,7 +3653,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="131"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="14" t="s">
         <v>8</v>
@@ -3730,7 +3666,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="131"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
         <v>37</v>
@@ -3752,7 +3688,7 @@
       </c>
       <c r="J36" s="131"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
         <v>49</v>
@@ -3770,11 +3706,11 @@
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J37" s="131"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="33" t="s">
         <v>50</v>
@@ -3792,11 +3728,11 @@
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J38" s="131"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="33" t="s">
         <v>35</v>
@@ -3815,7 +3751,7 @@
       </c>
       <c r="J39" s="131"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="45" t="s">
         <v>64</v>
@@ -3832,7 +3768,7 @@
       </c>
       <c r="J40" s="131"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="45" t="s">
         <v>65</v>
@@ -3849,7 +3785,7 @@
       </c>
       <c r="J41" s="131"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="45" t="s">
         <v>67</v>
@@ -3866,7 +3802,7 @@
       </c>
       <c r="J42" s="131"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="45" t="s">
         <v>68</v>
@@ -3883,7 +3819,7 @@
       </c>
       <c r="J43" s="131"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
       <c r="C44" s="45" t="s">
         <v>66</v>
@@ -3900,7 +3836,7 @@
       </c>
       <c r="J44" s="131"/>
     </row>
-    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="38"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
@@ -3917,43 +3853,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3968,30 +3867,29 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="75" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="75" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="75" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="75" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="75" customWidth="1"/>
-    <col min="8" max="8" width="2.75" style="76" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="76" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="75" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="75" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="75" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="75" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="76" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="76" customWidth="1"/>
     <col min="10" max="10" width="3" style="76" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="76" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="76" customWidth="1"/>
     <col min="12" max="12" width="3" style="76" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="76" customWidth="1"/>
-    <col min="14" max="14" width="3.25" style="76" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="76" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="76" customWidth="1"/>
-    <col min="17" max="17" width="110.5" style="75" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="75"/>
+    <col min="13" max="13" width="8.7109375" style="76" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="76" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="76" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="76" customWidth="1"/>
+    <col min="17" max="17" width="110.42578125" style="75" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="77"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -4009,10 +3907,10 @@
       <c r="P2" s="79"/>
       <c r="Q2" s="78"/>
     </row>
-    <row r="3" spans="2:17" s="21" customFormat="1">
+    <row r="3" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4024,15 +3922,15 @@
       </c>
       <c r="H3" s="67"/>
       <c r="I3" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J3" s="67"/>
       <c r="K3" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L3" s="67"/>
       <c r="M3" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N3" s="67"/>
       <c r="O3" s="67" t="s">
@@ -4040,10 +3938,10 @@
       </c>
       <c r="P3" s="67"/>
       <c r="Q3" s="140" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="80"/>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
@@ -4061,10 +3959,10 @@
       <c r="P4" s="137"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="80"/>
       <c r="C5" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -4081,7 +3979,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="72"/>
     </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="80"/>
       <c r="C6" s="83" t="s">
         <v>29</v>
@@ -4107,10 +4005,10 @@
       <c r="N6" s="82"/>
       <c r="Q6" s="72"/>
     </row>
-    <row r="7" spans="2:17" s="166" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:17" s="166" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="170"/>
       <c r="C7" s="174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="175" t="s">
         <v>3</v>
@@ -4136,13 +4034,13 @@
       <c r="O7" s="180"/>
       <c r="P7" s="180"/>
       <c r="Q7" s="181" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="166" customFormat="1" ht="16" thickBot="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="166" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="170"/>
       <c r="C8" s="174" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="175" t="s">
         <v>3</v>
@@ -4168,10 +4066,10 @@
       <c r="O8" s="180"/>
       <c r="P8" s="180"/>
       <c r="Q8" s="181" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="80"/>
       <c r="C9" s="92"/>
       <c r="D9" s="92"/>
@@ -4188,7 +4086,7 @@
       <c r="O9" s="87"/>
       <c r="Q9" s="141"/>
     </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
+    <row r="10" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="80"/>
       <c r="C10" s="29" t="s">
         <v>8</v>
@@ -4208,10 +4106,10 @@
       <c r="P10" s="87"/>
       <c r="Q10" s="30"/>
     </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
+    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="80"/>
       <c r="C11" s="142" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="88"/>
       <c r="E11" s="88"/>
@@ -4233,10 +4131,10 @@
         <v>0.12968399999999999</v>
       </c>
       <c r="Q11" s="139" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="16" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="80"/>
       <c r="C12" s="94" t="s">
         <v>1</v>
@@ -4266,7 +4164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="16" thickBot="1">
+    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="80"/>
       <c r="C13" s="97" t="s">
         <v>6</v>
@@ -4294,7 +4192,7 @@
       <c r="P13" s="82"/>
       <c r="Q13" s="146"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="80"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -4312,10 +4210,10 @@
       <c r="P14" s="87"/>
       <c r="Q14" s="72"/>
     </row>
-    <row r="15" spans="2:17" ht="16" thickBot="1">
+    <row r="15" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="80"/>
       <c r="C15" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4332,10 +4230,10 @@
       <c r="P15" s="87"/>
       <c r="Q15" s="72"/>
     </row>
-    <row r="16" spans="2:17" ht="16" thickBot="1">
+    <row r="16" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="80"/>
       <c r="C16" s="132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -4356,10 +4254,10 @@
       <c r="O16" s="87"/>
       <c r="P16" s="87"/>
       <c r="Q16" s="149" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="16" thickBot="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="80"/>
       <c r="C17" s="99" t="s">
         <v>9</v>
@@ -4367,7 +4265,7 @@
       <c r="D17" s="99"/>
       <c r="E17" s="99"/>
       <c r="F17" s="133" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="95">
         <f>I17</f>
@@ -4390,10 +4288,10 @@
       <c r="P17" s="87"/>
       <c r="Q17" s="148"/>
     </row>
-    <row r="18" spans="2:17" ht="16" thickBot="1">
+    <row r="18" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="80"/>
       <c r="C18" s="167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -4417,13 +4315,13 @@
       <c r="O18" s="87"/>
       <c r="P18" s="87"/>
       <c r="Q18" s="149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="16" thickBot="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="80"/>
       <c r="C19" s="145" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -4447,18 +4345,18 @@
       <c r="O19" s="96"/>
       <c r="P19" s="89"/>
       <c r="Q19" s="168" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="16" thickBot="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="80"/>
       <c r="C20" s="132" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" s="161"/>
       <c r="H20" s="89"/>
@@ -4471,13 +4369,13 @@
       <c r="O20" s="96"/>
       <c r="P20" s="89"/>
       <c r="Q20" s="169" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="16" thickBot="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="80"/>
       <c r="C21" s="132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -4501,13 +4399,13 @@
       <c r="O21" s="96"/>
       <c r="P21" s="89"/>
       <c r="Q21" s="169" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="16" thickBot="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="80"/>
       <c r="C22" s="145" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="102"/>
       <c r="E22" s="102"/>
@@ -4528,18 +4426,18 @@
       <c r="O22" s="96"/>
       <c r="P22" s="89"/>
       <c r="Q22" s="169" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="16" thickBot="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="80"/>
       <c r="C23" s="132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
       <c r="F23" s="133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="103">
         <f>G22/G6</f>
@@ -4559,10 +4457,10 @@
       <c r="P23" s="89"/>
       <c r="Q23" s="164"/>
     </row>
-    <row r="24" spans="2:17" ht="16" thickBot="1">
+    <row r="24" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="80"/>
       <c r="C24" s="138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
@@ -4586,18 +4484,18 @@
       <c r="O24" s="87"/>
       <c r="P24" s="87"/>
       <c r="Q24" s="169" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="16" thickBot="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="80"/>
       <c r="C25" s="147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
       <c r="F25" s="138" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="104">
         <f>G24*G6</f>
@@ -4620,11 +4518,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4639,22 +4532,22 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="35.125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="130.25" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="130.28515625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4666,7 +4559,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>22</v>
@@ -4680,7 +4573,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4692,7 +4585,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>30</v>
@@ -4708,19 +4601,19 @@
         <v>31</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>62</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4732,12 +4625,12 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="65"/>
       <c r="D7" s="59"/>
       <c r="E7" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="54" t="s">
         <v>70</v>
@@ -4746,17 +4639,17 @@
         <v>85</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
         <v>1</v>
@@ -4770,7 +4663,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="71"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="59" t="s">
         <v>74</v>
@@ -4784,7 +4677,7 @@
       <c r="J9" s="55"/>
       <c r="K9" s="71"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -4796,32 +4689,32 @@
       <c r="J10" s="55"/>
       <c r="K10" s="71"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="59"/>
       <c r="D11" s="64"/>
       <c r="E11" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K11" s="59"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="59"/>
@@ -4832,7 +4725,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="59" t="s">
         <v>87</v>
@@ -4846,7 +4739,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -4858,12 +4751,12 @@
       <c r="J14" s="55"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>70</v>
@@ -4876,16 +4769,16 @@
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -4896,7 +4789,7 @@
       <c r="J16" s="55"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="C17" s="64" t="s">
         <v>58</v>
@@ -4910,7 +4803,7 @@
       <c r="J17" s="55"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="51"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -4921,12 +4814,12 @@
       <c r="J18" s="66"/>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="69">
@@ -4936,13 +4829,13 @@
       <c r="I19" s="59"/>
       <c r="J19" s="66"/>
       <c r="K19" s="63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
       <c r="C20" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="59"/>
       <c r="F20" s="59"/>
@@ -4952,7 +4845,7 @@
       <c r="J20" s="66"/>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="51"/>
       <c r="C21" s="64" t="s">
         <v>58</v>
@@ -4965,7 +4858,7 @@
       <c r="J21" s="66"/>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -4976,7 +4869,7 @@
       <c r="J22" s="66"/>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="51"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -4996,7 +4889,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="51"/>
       <c r="C24" s="59" t="s">
         <v>86</v>
@@ -5021,11 +4914,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7 G11:H11" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5037,17 +4925,17 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="150" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="150" customWidth="1"/>
     <col min="2" max="2" width="4" style="150" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="150" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="150" customWidth="1"/>
-    <col min="6" max="16384" width="10.625" style="150"/>
+    <col min="3" max="3" width="13.5703125" style="150" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" style="150" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="150"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16" thickBot="1"/>
-    <row r="2" spans="2:16">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="153"/>
       <c r="C2" s="154"/>
       <c r="D2" s="154"/>
@@ -5064,13 +4952,13 @@
       <c r="O2" s="154"/>
       <c r="P2" s="155"/>
     </row>
-    <row r="3" spans="2:16" s="21" customFormat="1">
+    <row r="3" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="123"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -5085,7 +4973,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="160"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="156"/>
       <c r="C4" s="157"/>
       <c r="D4" s="157"/>
@@ -5102,7 +4990,7 @@
       <c r="O4" s="157"/>
       <c r="P4" s="158"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="156"/>
       <c r="C5" s="157"/>
       <c r="D5" s="157"/>
@@ -5119,10 +5007,10 @@
       <c r="O5" s="157"/>
       <c r="P5" s="158"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="156"/>
       <c r="C6" s="159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="157"/>
       <c r="E6" s="157"/>
@@ -5138,10 +5026,10 @@
       <c r="O6" s="157"/>
       <c r="P6" s="158"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="156"/>
       <c r="C7" s="159" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="157"/>
       <c r="E7" s="157"/>
@@ -5157,7 +5045,7 @@
       <c r="O7" s="157"/>
       <c r="P7" s="158"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="156"/>
       <c r="C8" s="157"/>
       <c r="D8" s="157"/>
@@ -5174,7 +5062,7 @@
       <c r="O8" s="157"/>
       <c r="P8" s="158"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="156"/>
       <c r="C9" s="157"/>
       <c r="D9" s="157"/>
@@ -5191,7 +5079,7 @@
       <c r="O9" s="157"/>
       <c r="P9" s="158"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="156"/>
       <c r="C10" s="157"/>
       <c r="D10" s="157"/>
@@ -5208,7 +5096,7 @@
       <c r="O10" s="157"/>
       <c r="P10" s="158"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="156"/>
       <c r="C11" s="157"/>
       <c r="D11" s="157"/>
@@ -5225,7 +5113,7 @@
       <c r="O11" s="157"/>
       <c r="P11" s="158"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="156"/>
       <c r="C12" s="157"/>
       <c r="D12" s="157"/>
@@ -5242,7 +5130,7 @@
       <c r="O12" s="157"/>
       <c r="P12" s="158"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="156"/>
       <c r="C13" s="157"/>
       <c r="D13" s="157"/>
@@ -5259,7 +5147,7 @@
       <c r="O13" s="157"/>
       <c r="P13" s="158"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="156"/>
       <c r="C14" s="157"/>
       <c r="D14" s="157"/>
@@ -5276,7 +5164,7 @@
       <c r="O14" s="157"/>
       <c r="P14" s="158"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="156"/>
       <c r="C15" s="157"/>
       <c r="D15" s="157"/>
@@ -5293,14 +5181,14 @@
       <c r="O15" s="157"/>
       <c r="P15" s="158"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="156"/>
       <c r="C16" s="157"/>
       <c r="E16" s="157">
         <v>100000</v>
       </c>
       <c r="F16" s="157" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="157"/>
       <c r="H16" s="157"/>
@@ -5313,14 +5201,14 @@
       <c r="O16" s="157"/>
       <c r="P16" s="158"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="156"/>
       <c r="C17" s="157"/>
       <c r="E17" s="157">
         <v>1050</v>
       </c>
       <c r="F17" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="157"/>
       <c r="H17" s="157"/>
@@ -5333,11 +5221,11 @@
       <c r="O17" s="157"/>
       <c r="P17" s="158"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="156"/>
       <c r="C18" s="157"/>
       <c r="D18" s="166" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="157">
         <f>E34</f>
@@ -5357,11 +5245,11 @@
       <c r="O18" s="157"/>
       <c r="P18" s="158"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="156"/>
       <c r="C19" s="157"/>
       <c r="D19" s="166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="157">
         <f>E35</f>
@@ -5381,17 +5269,17 @@
       <c r="O19" s="157"/>
       <c r="P19" s="158"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="156"/>
       <c r="C20" s="157"/>
       <c r="D20" s="166" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="157">
         <v>6000</v>
       </c>
       <c r="F20" s="171" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G20" s="157"/>
       <c r="H20" s="157"/>
@@ -5404,7 +5292,7 @@
       <c r="O20" s="157"/>
       <c r="P20" s="158"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="156"/>
       <c r="C21" s="157"/>
       <c r="E21" s="157"/>
@@ -5420,7 +5308,7 @@
       <c r="O21" s="157"/>
       <c r="P21" s="158"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="156"/>
       <c r="C22" s="157"/>
       <c r="E22" s="157"/>
@@ -5436,7 +5324,7 @@
       <c r="O22" s="157"/>
       <c r="P22" s="158"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="156"/>
       <c r="C23" s="157"/>
       <c r="E23" s="157"/>
@@ -5452,7 +5340,7 @@
       <c r="O23" s="157"/>
       <c r="P23" s="158"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="156"/>
       <c r="C24" s="157"/>
       <c r="E24" s="157"/>
@@ -5468,7 +5356,7 @@
       <c r="O24" s="157"/>
       <c r="P24" s="158"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="156"/>
       <c r="C25" s="157"/>
       <c r="E25" s="157"/>
@@ -5484,7 +5372,7 @@
       <c r="O25" s="157"/>
       <c r="P25" s="158"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="156"/>
       <c r="C26" s="157"/>
       <c r="E26" s="157"/>
@@ -5500,7 +5388,7 @@
       <c r="O26" s="157"/>
       <c r="P26" s="158"/>
     </row>
-    <row r="27" spans="2:16" s="166" customFormat="1">
+    <row r="27" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="170"/>
       <c r="C27" s="171"/>
       <c r="F27" s="171"/>
@@ -5515,10 +5403,10 @@
       <c r="O27" s="171"/>
       <c r="P27" s="172"/>
     </row>
-    <row r="28" spans="2:16" s="166" customFormat="1">
+    <row r="28" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="170"/>
       <c r="C28" s="171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E28" s="171"/>
       <c r="F28" s="171"/>
@@ -5533,15 +5421,15 @@
       <c r="O28" s="171"/>
       <c r="P28" s="172"/>
     </row>
-    <row r="29" spans="2:16" s="166" customFormat="1">
+    <row r="29" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="170"/>
       <c r="C29" s="171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="171"/>
       <c r="F29" s="171"/>
       <c r="G29" s="171" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H29" s="171"/>
       <c r="I29" s="171"/>
@@ -5553,13 +5441,13 @@
       <c r="O29" s="171"/>
       <c r="P29" s="172"/>
     </row>
-    <row r="30" spans="2:16" s="166" customFormat="1">
+    <row r="30" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="170"/>
       <c r="C30" s="171"/>
       <c r="E30" s="171"/>
       <c r="F30" s="171"/>
       <c r="G30" s="171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H30" s="171"/>
       <c r="I30" s="171"/>
@@ -5571,13 +5459,13 @@
       <c r="O30" s="171"/>
       <c r="P30" s="172"/>
     </row>
-    <row r="31" spans="2:16" s="166" customFormat="1">
+    <row r="31" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="170"/>
       <c r="C31" s="171"/>
       <c r="E31" s="171"/>
       <c r="F31" s="171"/>
       <c r="G31" s="171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H31" s="171"/>
       <c r="I31" s="171"/>
@@ -5589,7 +5477,7 @@
       <c r="O31" s="171"/>
       <c r="P31" s="172"/>
     </row>
-    <row r="32" spans="2:16" s="166" customFormat="1">
+    <row r="32" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="170"/>
       <c r="C32" s="171"/>
       <c r="E32" s="171"/>
@@ -5605,13 +5493,13 @@
       <c r="O32" s="171"/>
       <c r="P32" s="172"/>
     </row>
-    <row r="33" spans="2:16" s="166" customFormat="1">
+    <row r="33" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="170"/>
       <c r="C33" s="171"/>
       <c r="E33" s="171"/>
       <c r="F33" s="171"/>
       <c r="G33" s="171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H33" s="171"/>
       <c r="I33" s="171"/>
@@ -5623,11 +5511,11 @@
       <c r="O33" s="171"/>
       <c r="P33" s="172"/>
     </row>
-    <row r="34" spans="2:16" s="166" customFormat="1">
+    <row r="34" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="170"/>
       <c r="C34" s="171"/>
       <c r="D34" s="171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E34" s="171">
         <v>42</v>
@@ -5636,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H34" s="171"/>
       <c r="I34" s="171"/>
@@ -5648,11 +5536,11 @@
       <c r="O34" s="171"/>
       <c r="P34" s="172"/>
     </row>
-    <row r="35" spans="2:16" s="166" customFormat="1">
+    <row r="35" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="170"/>
       <c r="C35" s="171"/>
       <c r="D35" s="171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35" s="171">
         <v>40</v>
@@ -5661,7 +5549,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" s="171"/>
       <c r="I35" s="171"/>
@@ -5673,12 +5561,12 @@
       <c r="O35" s="171"/>
       <c r="P35" s="172"/>
     </row>
-    <row r="36" spans="2:16" s="166" customFormat="1">
+    <row r="36" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="170"/>
       <c r="C36" s="171"/>
       <c r="E36" s="171"/>
       <c r="G36" s="173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H36" s="171"/>
       <c r="I36" s="171"/>
@@ -5690,13 +5578,13 @@
       <c r="O36" s="171"/>
       <c r="P36" s="172"/>
     </row>
-    <row r="37" spans="2:16" s="166" customFormat="1">
+    <row r="37" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="170"/>
       <c r="C37" s="171"/>
       <c r="E37" s="171"/>
       <c r="F37" s="171"/>
       <c r="G37" s="173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H37" s="171"/>
       <c r="I37" s="171"/>
@@ -5708,7 +5596,7 @@
       <c r="O37" s="171"/>
       <c r="P37" s="172"/>
     </row>
-    <row r="38" spans="2:16" s="166" customFormat="1">
+    <row r="38" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="170"/>
       <c r="C38" s="171"/>
       <c r="E38" s="171"/>
@@ -5724,7 +5612,7 @@
       <c r="O38" s="171"/>
       <c r="P38" s="172"/>
     </row>
-    <row r="39" spans="2:16" s="166" customFormat="1">
+    <row r="39" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="170"/>
       <c r="C39" s="171"/>
       <c r="E39" s="171"/>
@@ -5740,7 +5628,7 @@
       <c r="O39" s="171"/>
       <c r="P39" s="172"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="156"/>
       <c r="C40" s="157"/>
       <c r="E40" s="157"/>
@@ -5756,7 +5644,7 @@
       <c r="O40" s="157"/>
       <c r="P40" s="158"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="156"/>
       <c r="C41" s="157"/>
       <c r="E41" s="157"/>
@@ -5772,7 +5660,7 @@
       <c r="O41" s="157"/>
       <c r="P41" s="158"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="156"/>
       <c r="C42" s="157"/>
       <c r="E42" s="157"/>
@@ -5788,10 +5676,10 @@
       <c r="O42" s="157"/>
       <c r="P42" s="158"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="156"/>
       <c r="C43" s="159" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" s="157"/>
       <c r="F43" s="157"/>
@@ -5806,7 +5694,7 @@
       <c r="O43" s="157"/>
       <c r="P43" s="158"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="156"/>
       <c r="C44" s="157"/>
       <c r="E44" s="157"/>
@@ -5822,7 +5710,7 @@
       <c r="O44" s="157"/>
       <c r="P44" s="158"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="156"/>
       <c r="C45" s="157"/>
       <c r="E45" s="157"/>
@@ -5838,7 +5726,7 @@
       <c r="O45" s="157"/>
       <c r="P45" s="158"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="156"/>
       <c r="C46" s="157"/>
       <c r="E46" s="157"/>
@@ -5854,7 +5742,7 @@
       <c r="O46" s="157"/>
       <c r="P46" s="158"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="156"/>
       <c r="C47" s="157"/>
       <c r="E47" s="157"/>
@@ -5870,7 +5758,7 @@
       <c r="O47" s="157"/>
       <c r="P47" s="158"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="156"/>
       <c r="C48" s="157"/>
       <c r="E48" s="157"/>
@@ -5886,7 +5774,7 @@
       <c r="O48" s="157"/>
       <c r="P48" s="158"/>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="156"/>
       <c r="C49" s="157"/>
       <c r="E49" s="157"/>
@@ -5902,7 +5790,7 @@
       <c r="O49" s="157"/>
       <c r="P49" s="158"/>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="156"/>
       <c r="C50" s="157"/>
       <c r="E50" s="157"/>
@@ -5918,17 +5806,17 @@
       <c r="O50" s="157"/>
       <c r="P50" s="158"/>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="156"/>
       <c r="C51" s="157"/>
       <c r="D51" s="157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="157">
         <v>2800000</v>
       </c>
       <c r="F51" s="157" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G51" s="157"/>
       <c r="H51" s="157"/>
@@ -5941,18 +5829,18 @@
       <c r="O51" s="157"/>
       <c r="P51" s="158"/>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="156"/>
       <c r="C52" s="165"/>
       <c r="D52" s="171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E52" s="186">
         <f>E51*E66</f>
         <v>933333.33333333326</v>
       </c>
       <c r="F52" s="157" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G52" s="157"/>
       <c r="H52" s="157"/>
@@ -5965,18 +5853,18 @@
       <c r="O52" s="157"/>
       <c r="P52" s="158"/>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="156"/>
       <c r="C53" s="157"/>
       <c r="D53" s="166" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E53" s="186">
         <f>E51*E67</f>
         <v>1866666.6666666665</v>
       </c>
       <c r="F53" s="157" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G53" s="157"/>
       <c r="H53" s="157"/>
@@ -5989,7 +5877,7 @@
       <c r="O53" s="157"/>
       <c r="P53" s="158"/>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="156"/>
       <c r="C54" s="157"/>
       <c r="E54" s="157"/>
@@ -6005,7 +5893,7 @@
       <c r="O54" s="157"/>
       <c r="P54" s="158"/>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="156"/>
       <c r="C55" s="157"/>
       <c r="E55" s="157"/>
@@ -6021,7 +5909,7 @@
       <c r="O55" s="157"/>
       <c r="P55" s="158"/>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="156"/>
       <c r="C56" s="157"/>
       <c r="E56" s="157"/>
@@ -6037,7 +5925,7 @@
       <c r="O56" s="157"/>
       <c r="P56" s="158"/>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="156"/>
       <c r="C57" s="157"/>
       <c r="E57" s="157"/>
@@ -6053,7 +5941,7 @@
       <c r="O57" s="157"/>
       <c r="P57" s="158"/>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="156"/>
       <c r="C58" s="157"/>
       <c r="E58" s="157"/>
@@ -6069,7 +5957,7 @@
       <c r="O58" s="157"/>
       <c r="P58" s="158"/>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="156"/>
       <c r="C59" s="157"/>
       <c r="E59" s="157"/>
@@ -6085,7 +5973,7 @@
       <c r="O59" s="157"/>
       <c r="P59" s="158"/>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="156"/>
       <c r="C60" s="157"/>
       <c r="E60" s="157"/>
@@ -6101,7 +5989,7 @@
       <c r="O60" s="157"/>
       <c r="P60" s="158"/>
     </row>
-    <row r="61" spans="2:17">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="156"/>
       <c r="C61" s="157"/>
       <c r="E61" s="157"/>
@@ -6117,10 +6005,10 @@
       <c r="O61" s="157"/>
       <c r="P61" s="158"/>
     </row>
-    <row r="62" spans="2:17" s="166" customFormat="1">
+    <row r="62" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="170"/>
       <c r="C62" s="171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E62" s="171"/>
       <c r="F62" s="171"/>
@@ -6136,15 +6024,15 @@
       <c r="P62" s="172"/>
       <c r="Q62" s="150"/>
     </row>
-    <row r="63" spans="2:17" s="166" customFormat="1">
+    <row r="63" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="170"/>
       <c r="C63" s="171" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E63" s="171"/>
       <c r="F63" s="171"/>
       <c r="G63" s="171" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H63" s="171"/>
       <c r="I63" s="171"/>
@@ -6157,13 +6045,13 @@
       <c r="P63" s="172"/>
       <c r="Q63" s="150"/>
     </row>
-    <row r="64" spans="2:17" s="166" customFormat="1">
+    <row r="64" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="170"/>
       <c r="C64" s="171"/>
       <c r="E64" s="171"/>
       <c r="F64" s="171"/>
       <c r="G64" s="171" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H64" s="171"/>
       <c r="I64" s="171"/>
@@ -6176,7 +6064,7 @@
       <c r="P64" s="172"/>
       <c r="Q64" s="150"/>
     </row>
-    <row r="65" spans="2:17" s="166" customFormat="1">
+    <row r="65" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="170"/>
       <c r="C65" s="171"/>
       <c r="E65" s="171"/>
@@ -6193,11 +6081,11 @@
       <c r="P65" s="172"/>
       <c r="Q65" s="150"/>
     </row>
-    <row r="66" spans="2:17" s="166" customFormat="1">
+    <row r="66" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="170"/>
       <c r="C66" s="171"/>
       <c r="D66" s="166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E66" s="185">
         <f>1/3</f>
@@ -6205,7 +6093,7 @@
       </c>
       <c r="F66" s="171"/>
       <c r="G66" s="166" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H66" s="171"/>
       <c r="I66" s="171"/>
@@ -6218,11 +6106,11 @@
       <c r="P66" s="172"/>
       <c r="Q66" s="150"/>
     </row>
-    <row r="67" spans="2:17" s="166" customFormat="1">
+    <row r="67" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="170"/>
       <c r="C67" s="171"/>
       <c r="D67" s="166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E67" s="185">
         <f>2/3</f>
@@ -6230,7 +6118,7 @@
       </c>
       <c r="F67" s="171"/>
       <c r="G67" s="166" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H67" s="171"/>
       <c r="I67" s="171"/>
@@ -6243,13 +6131,13 @@
       <c r="P67" s="172"/>
       <c r="Q67" s="150"/>
     </row>
-    <row r="68" spans="2:17" s="166" customFormat="1">
+    <row r="68" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="170"/>
       <c r="C68" s="171"/>
       <c r="E68" s="171"/>
       <c r="F68" s="171"/>
       <c r="G68" s="182" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H68" s="171"/>
       <c r="I68" s="171"/>
@@ -6262,13 +6150,13 @@
       <c r="P68" s="172"/>
       <c r="Q68" s="171"/>
     </row>
-    <row r="69" spans="2:17" s="166" customFormat="1">
+    <row r="69" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="170"/>
       <c r="C69" s="171"/>
       <c r="E69" s="171"/>
       <c r="F69" s="171"/>
       <c r="G69" s="184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H69" s="171"/>
       <c r="I69" s="171"/>
@@ -6281,13 +6169,13 @@
       <c r="P69" s="172"/>
       <c r="Q69" s="171"/>
     </row>
-    <row r="70" spans="2:17" s="166" customFormat="1">
+    <row r="70" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="170"/>
       <c r="C70" s="171"/>
       <c r="E70" s="171"/>
       <c r="F70" s="171"/>
       <c r="G70" s="183" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H70" s="171"/>
       <c r="I70" s="171"/>
@@ -6300,13 +6188,13 @@
       <c r="P70" s="172"/>
       <c r="Q70" s="171"/>
     </row>
-    <row r="71" spans="2:17" s="166" customFormat="1">
+    <row r="71" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="170"/>
       <c r="C71" s="171"/>
       <c r="E71" s="171"/>
       <c r="F71" s="171"/>
       <c r="G71" s="183" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H71" s="171"/>
       <c r="I71" s="171"/>
@@ -6319,7 +6207,7 @@
       <c r="P71" s="172"/>
       <c r="Q71" s="171"/>
     </row>
-    <row r="72" spans="2:17">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="156"/>
       <c r="C72" s="157"/>
       <c r="E72" s="157"/>
@@ -6335,10 +6223,10 @@
       <c r="O72" s="157"/>
       <c r="P72" s="158"/>
     </row>
-    <row r="73" spans="2:17">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="156"/>
       <c r="C73" s="159" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E73" s="157"/>
       <c r="F73" s="157"/>
@@ -6353,10 +6241,10 @@
       <c r="O73" s="157"/>
       <c r="P73" s="158"/>
     </row>
-    <row r="74" spans="2:17">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" s="156"/>
       <c r="C74" s="159" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E74" s="157"/>
       <c r="F74" s="157"/>
@@ -6371,7 +6259,7 @@
       <c r="O74" s="157"/>
       <c r="P74" s="158"/>
     </row>
-    <row r="75" spans="2:17">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" s="156"/>
       <c r="C75" s="157"/>
       <c r="E75" s="157"/>
@@ -6387,7 +6275,7 @@
       <c r="O75" s="157"/>
       <c r="P75" s="158"/>
     </row>
-    <row r="76" spans="2:17">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="156"/>
       <c r="C76" s="157"/>
       <c r="E76" s="157"/>
@@ -6403,7 +6291,7 @@
       <c r="O76" s="157"/>
       <c r="P76" s="158"/>
     </row>
-    <row r="77" spans="2:17">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="156"/>
       <c r="C77" s="157"/>
       <c r="E77" s="157"/>
@@ -6419,7 +6307,7 @@
       <c r="O77" s="157"/>
       <c r="P77" s="158"/>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="156"/>
       <c r="C78" s="157"/>
       <c r="E78" s="157"/>
@@ -6435,7 +6323,7 @@
       <c r="O78" s="157"/>
       <c r="P78" s="158"/>
     </row>
-    <row r="79" spans="2:17">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="156"/>
       <c r="C79" s="157"/>
       <c r="E79" s="157"/>
@@ -6451,7 +6339,7 @@
       <c r="O79" s="157"/>
       <c r="P79" s="158"/>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="156"/>
       <c r="C80" s="157"/>
       <c r="D80" s="166" t="s">
@@ -6461,7 +6349,7 @@
         <v>24</v>
       </c>
       <c r="F80" s="159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G80" s="157"/>
       <c r="H80" s="157"/>
@@ -6474,14 +6362,14 @@
       <c r="O80" s="157"/>
       <c r="P80" s="158"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81" s="156"/>
       <c r="C81" s="157"/>
       <c r="E81" s="157">
         <v>25</v>
       </c>
       <c r="F81" s="159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G81" s="157"/>
       <c r="H81" s="157"/>
@@ -6494,7 +6382,7 @@
       <c r="O81" s="157"/>
       <c r="P81" s="158"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="156"/>
       <c r="C82" s="157"/>
       <c r="E82" s="157"/>
@@ -6510,7 +6398,7 @@
       <c r="O82" s="157"/>
       <c r="P82" s="158"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83" s="156"/>
       <c r="C83" s="157"/>
       <c r="E83" s="157"/>
@@ -6526,7 +6414,7 @@
       <c r="O83" s="157"/>
       <c r="P83" s="158"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="156"/>
       <c r="C84" s="157"/>
       <c r="E84" s="157"/>
@@ -6542,7 +6430,7 @@
       <c r="O84" s="157"/>
       <c r="P84" s="158"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85" s="156"/>
       <c r="C85" s="157"/>
       <c r="E85" s="157"/>
@@ -6558,7 +6446,7 @@
       <c r="O85" s="157"/>
       <c r="P85" s="158"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="156"/>
       <c r="C86" s="157"/>
       <c r="E86" s="157"/>
@@ -6574,10 +6462,10 @@
       <c r="O86" s="157"/>
       <c r="P86" s="158"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="156"/>
       <c r="C87" s="162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E87" s="157"/>
       <c r="F87" s="157"/>
@@ -6592,10 +6480,10 @@
       <c r="O87" s="157"/>
       <c r="P87" s="158"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88" s="156"/>
       <c r="C88" s="162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E88" s="157"/>
       <c r="F88" s="157"/>
@@ -6610,7 +6498,7 @@
       <c r="O88" s="157"/>
       <c r="P88" s="158"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" s="156"/>
       <c r="C89" s="157"/>
       <c r="E89" s="157"/>
@@ -6626,7 +6514,7 @@
       <c r="O89" s="157"/>
       <c r="P89" s="158"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="156"/>
       <c r="C90" s="157"/>
       <c r="E90" s="157"/>
@@ -6642,7 +6530,7 @@
       <c r="O90" s="157"/>
       <c r="P90" s="158"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91" s="156"/>
       <c r="C91" s="157"/>
       <c r="E91" s="157"/>
@@ -6658,7 +6546,7 @@
       <c r="O91" s="157"/>
       <c r="P91" s="158"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92" s="156"/>
       <c r="C92" s="157"/>
       <c r="E92" s="157"/>
@@ -6674,7 +6562,7 @@
       <c r="O92" s="157"/>
       <c r="P92" s="158"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B93" s="156"/>
       <c r="C93" s="157"/>
       <c r="E93" s="157"/>
@@ -6690,7 +6578,7 @@
       <c r="O93" s="157"/>
       <c r="P93" s="158"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="156"/>
       <c r="C94" s="157"/>
       <c r="E94" s="157"/>
@@ -6706,7 +6594,7 @@
       <c r="O94" s="157"/>
       <c r="P94" s="158"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B95" s="156"/>
       <c r="C95" s="157"/>
       <c r="E95" s="157"/>
@@ -6722,7 +6610,7 @@
       <c r="O95" s="157"/>
       <c r="P95" s="158"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B96" s="156"/>
       <c r="C96" s="157"/>
       <c r="E96" s="157"/>
@@ -6738,7 +6626,7 @@
       <c r="O96" s="157"/>
       <c r="P96" s="158"/>
     </row>
-    <row r="97" spans="2:16">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97" s="156"/>
       <c r="C97" s="157"/>
       <c r="E97" s="157"/>
@@ -6754,7 +6642,7 @@
       <c r="O97" s="157"/>
       <c r="P97" s="158"/>
     </row>
-    <row r="98" spans="2:16">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B98" s="156"/>
       <c r="C98" s="157"/>
       <c r="E98" s="157"/>
@@ -6770,7 +6658,7 @@
       <c r="O98" s="157"/>
       <c r="P98" s="158"/>
     </row>
-    <row r="99" spans="2:16">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B99" s="156"/>
       <c r="C99" s="157"/>
       <c r="E99" s="157"/>
@@ -6786,7 +6674,7 @@
       <c r="O99" s="157"/>
       <c r="P99" s="158"/>
     </row>
-    <row r="100" spans="2:16">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100" s="156"/>
       <c r="C100" s="157"/>
       <c r="E100" s="157"/>
@@ -6802,7 +6690,7 @@
       <c r="O100" s="157"/>
       <c r="P100" s="158"/>
     </row>
-    <row r="101" spans="2:16">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101" s="156"/>
       <c r="C101" s="157"/>
       <c r="E101" s="157"/>
@@ -6818,7 +6706,7 @@
       <c r="O101" s="157"/>
       <c r="P101" s="158"/>
     </row>
-    <row r="102" spans="2:16">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B102" s="156"/>
       <c r="C102" s="157"/>
       <c r="E102" s="157"/>
@@ -6834,7 +6722,7 @@
       <c r="O102" s="157"/>
       <c r="P102" s="158"/>
     </row>
-    <row r="103" spans="2:16">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103" s="156"/>
       <c r="C103" s="157"/>
       <c r="E103" s="157"/>
@@ -6850,7 +6738,7 @@
       <c r="O103" s="157"/>
       <c r="P103" s="158"/>
     </row>
-    <row r="104" spans="2:16">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B104" s="156"/>
       <c r="C104" s="157"/>
       <c r="E104" s="157"/>
@@ -6866,7 +6754,7 @@
       <c r="O104" s="157"/>
       <c r="P104" s="158"/>
     </row>
-    <row r="105" spans="2:16">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B105" s="156"/>
       <c r="C105" s="157"/>
       <c r="E105" s="157"/>
@@ -6882,16 +6770,16 @@
       <c r="O105" s="157"/>
       <c r="P105" s="158"/>
     </row>
-    <row r="106" spans="2:16">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B106" s="156"/>
       <c r="C106" s="162" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E106" s="157">
         <v>1000</v>
       </c>
       <c r="F106" s="162" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G106" s="162"/>
       <c r="H106" s="157"/>
@@ -6904,16 +6792,16 @@
       <c r="O106" s="157"/>
       <c r="P106" s="158"/>
     </row>
-    <row r="107" spans="2:16">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107" s="156"/>
       <c r="C107" s="162" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E107" s="157">
         <v>3</v>
       </c>
       <c r="F107" s="162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G107" s="157"/>
       <c r="H107" s="157"/>
@@ -6926,7 +6814,7 @@
       <c r="O107" s="157"/>
       <c r="P107" s="158"/>
     </row>
-    <row r="108" spans="2:16">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B108" s="156"/>
       <c r="C108" s="157"/>
       <c r="D108" s="157"/>
@@ -6943,7 +6831,7 @@
       <c r="O108" s="157"/>
       <c r="P108" s="158"/>
     </row>
-    <row r="109" spans="2:16">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B109" s="156"/>
       <c r="C109" s="157"/>
       <c r="D109" s="157"/>
@@ -6960,7 +6848,7 @@
       <c r="O109" s="157"/>
       <c r="P109" s="158"/>
     </row>
-    <row r="110" spans="2:16">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B110" s="156"/>
       <c r="C110" s="157"/>
       <c r="D110" s="157"/>
@@ -6977,7 +6865,7 @@
       <c r="O110" s="157"/>
       <c r="P110" s="158"/>
     </row>
-    <row r="111" spans="2:16">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B111" s="156"/>
       <c r="C111" s="157"/>
       <c r="D111" s="157"/>
@@ -6994,7 +6882,7 @@
       <c r="O111" s="157"/>
       <c r="P111" s="158"/>
     </row>
-    <row r="112" spans="2:16">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B112" s="156"/>
       <c r="C112" s="157"/>
       <c r="D112" s="157"/>
@@ -7011,7 +6899,7 @@
       <c r="O112" s="157"/>
       <c r="P112" s="158"/>
     </row>
-    <row r="113" spans="2:16">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B113" s="156"/>
       <c r="C113" s="157"/>
       <c r="D113" s="157"/>
@@ -7028,7 +6916,7 @@
       <c r="O113" s="157"/>
       <c r="P113" s="158"/>
     </row>
-    <row r="114" spans="2:16">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B114" s="156"/>
       <c r="C114" s="157"/>
       <c r="D114" s="157"/>
@@ -7045,7 +6933,7 @@
       <c r="O114" s="157"/>
       <c r="P114" s="158"/>
     </row>
-    <row r="115" spans="2:16">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B115" s="156"/>
       <c r="C115" s="157"/>
       <c r="D115" s="157"/>
@@ -7062,7 +6950,7 @@
       <c r="O115" s="157"/>
       <c r="P115" s="158"/>
     </row>
-    <row r="116" spans="2:16">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B116" s="156"/>
       <c r="C116" s="157"/>
       <c r="D116" s="157"/>
@@ -7079,7 +6967,7 @@
       <c r="O116" s="157"/>
       <c r="P116" s="158"/>
     </row>
-    <row r="117" spans="2:16">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B117" s="156"/>
       <c r="C117" s="157"/>
       <c r="D117" s="157"/>
@@ -7100,10 +6988,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE7BD2-2B0E-C746-815A-9F1BAB1923BA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="188">
   <si>
     <t>Source</t>
   </si>
@@ -274,36 +275,6 @@
   </si>
   <si>
     <t xml:space="preserve">         Technical lifetime</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>2010</t>
@@ -843,12 +814,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1021,6 +992,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1028,6 +1000,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1035,6 +1008,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1042,6 +1016,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1049,6 +1024,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1056,17 +1032,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1080,6 +1059,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1654,7 +1634,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1770,8 +1750,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2269,6 +2247,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2290,7 +2271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2327,7 +2314,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2365,7 +2358,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2403,7 +2402,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2862,58 +2867,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -2922,118 +2927,118 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="107"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="113" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="114" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="109"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="110" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="112" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="118" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="119" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="113" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="116"/>
+      <c r="C23" s="120" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="111" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="111"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="114" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="115" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="116" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="117" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="119" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="120" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="121" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="118"/>
-      <c r="C23" s="122" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3043,67 +3048,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K45"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="192" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="194"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="190" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="192"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="195"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="197"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="198"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="200"/>
+    <row r="4" spans="2:11" ht="36" customHeight="1">
+      <c r="B4" s="196"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="198"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3114,12 +3119,12 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="123"/>
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
+      <c r="B7" s="121"/>
       <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="122" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -3133,9 +3138,9 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="130"/>
-    </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -3146,10 +3151,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -3159,27 +3164,27 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="143" t="s">
-        <v>119</v>
+      <c r="C10" s="141" t="s">
+        <v>109</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="191">
+      <c r="E10" s="189">
         <f>'Research data'!G7/100</f>
         <v>0.42</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="190" t="s">
-        <v>196</v>
+      <c r="I10" s="188" t="s">
+        <v>186</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
         <v>63</v>
@@ -3187,19 +3192,19 @@
       <c r="D11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="187">
+      <c r="E11" s="185">
         <f>'Research data'!G8/100</f>
         <v>0.4</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="190" t="s">
-        <v>196</v>
+      <c r="I11" s="188" t="s">
+        <v>186</v>
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>34</v>
@@ -3207,7 +3212,7 @@
       <c r="D12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="187">
+      <c r="E12" s="185">
         <v>0.9</v>
       </c>
       <c r="F12" s="33"/>
@@ -3216,10 +3221,10 @@
       <c r="I12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="131"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>36</v>
@@ -3227,7 +3232,7 @@
       <c r="D13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="188">
+      <c r="E13" s="186">
         <v>0</v>
       </c>
       <c r="F13" s="33"/>
@@ -3236,10 +3241,10 @@
       <c r="I13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="131"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>39</v>
@@ -3247,7 +3252,7 @@
       <c r="D14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="189">
+      <c r="E14" s="187">
         <v>0.1</v>
       </c>
       <c r="F14" s="33"/>
@@ -3256,10 +3261,10 @@
       <c r="I14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="131"/>
+      <c r="J14" s="129"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>40</v>
@@ -3267,7 +3272,7 @@
       <c r="D15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="189">
+      <c r="E15" s="187">
         <v>0.7</v>
       </c>
       <c r="F15" s="33"/>
@@ -3276,10 +3281,10 @@
       <c r="I15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="131"/>
+      <c r="J15" s="129"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>41</v>
@@ -3287,7 +3292,7 @@
       <c r="D16" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="188">
+      <c r="E16" s="186">
         <f>'Research data'!G6</f>
         <v>100</v>
       </c>
@@ -3296,12 +3301,12 @@
         <v>28</v>
       </c>
       <c r="H16" s="33"/>
-      <c r="I16" s="190" t="s">
-        <v>196</v>
-      </c>
-      <c r="J16" s="131"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" s="129"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -3309,7 +3314,7 @@
       <c r="D17" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="187">
+      <c r="E17" s="185">
         <f>E16*E11/E10</f>
         <v>95.238095238095241</v>
       </c>
@@ -3318,430 +3323,410 @@
         <v>55</v>
       </c>
       <c r="H17" s="33"/>
-      <c r="I17" s="190" t="s">
-        <v>196</v>
-      </c>
-      <c r="J17" s="131"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="129"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="37"/>
-      <c r="C18" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="187">
-        <v>-0.75</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="131"/>
-    </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="91"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="129"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="37"/>
-      <c r="C19" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="187">
-        <v>-0.75</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="131"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="129"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="37"/>
-      <c r="C20" s="72" t="s">
-        <v>77</v>
+      <c r="C20" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="43">
-        <v>-0.75</v>
+        <v>33</v>
+      </c>
+      <c r="E20" s="44">
+        <f>'Research data'!G16</f>
+        <v>105000000</v>
       </c>
       <c r="F20" s="33"/>
-      <c r="G20" s="73" t="s">
-        <v>82</v>
+      <c r="G20" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="H20" s="33"/>
-      <c r="I20" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="131"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="129"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="37"/>
-      <c r="C21" s="72" t="s">
-        <v>78</v>
+      <c r="C21" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="43">
-        <v>-0.75</v>
+        <v>33</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="73" t="s">
-        <v>83</v>
+      <c r="G21" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="131"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="129"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="37"/>
-      <c r="C22" s="72" t="s">
-        <v>79</v>
+      <c r="C22" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="43">
-        <v>73.683005766519202</v>
+        <v>33</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="74" t="s">
-        <v>84</v>
+      <c r="G22" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="131"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="129"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="37"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="131"/>
-    </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="129"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="37"/>
-      <c r="C24" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="131"/>
-    </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="123">
+        <f>'Research data'!G19</f>
+        <v>933333.33333333326</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="129"/>
+    </row>
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="44">
-        <f>'Research data'!G16</f>
-        <v>105000000</v>
+        <v>52</v>
+      </c>
+      <c r="E25" s="43">
+        <f>'Research data'!G22</f>
+        <v>311.11111111111109</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="131"/>
-    </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="129"/>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="44">
+        <v>52</v>
+      </c>
+      <c r="E26" s="126">
         <v>0</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H26" s="33"/>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="131"/>
-    </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="129"/>
+    </row>
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E27" s="44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="131"/>
-    </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="129"/>
+    </row>
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E28" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
-        <v>27</v>
-      </c>
+      <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="131"/>
-    </row>
-    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="129"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="37"/>
-      <c r="C29" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="125">
-        <f>'Research data'!G19</f>
-        <v>933333.33333333326</v>
-      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="127"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>57</v>
-      </c>
+      <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="190" t="s">
-        <v>196</v>
-      </c>
-      <c r="J29" s="131"/>
-    </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="32"/>
+      <c r="J29" s="129"/>
+    </row>
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="37"/>
-      <c r="C30" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="43">
-        <f>'Research data'!G22</f>
-        <v>311.11111111111109</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="190" t="s">
-        <v>196</v>
-      </c>
-      <c r="J30" s="131"/>
-    </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="124"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="129"/>
+    </row>
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="128">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E31" s="44">
+        <f>'Research data'!G11</f>
+        <v>0.1</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="J31" s="131"/>
-    </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="129"/>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="44">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E32" s="123">
+        <f>'Research data'!G12</f>
+        <v>2</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H32" s="33"/>
-      <c r="I32" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32" s="131"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="149" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="129"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E33" s="44">
-        <v>1</v>
+        <f>'Research data'!G13</f>
+        <v>25</v>
       </c>
       <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="G33" s="33" t="s">
+        <v>25</v>
+      </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="131"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I33" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="129"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="129"/>
+      <c r="C34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="44">
+        <v>0</v>
+      </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="131"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="129"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
-      <c r="C35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="131"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="44">
+        <v>26820</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="129"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
-      <c r="C36" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>4</v>
-      </c>
+      <c r="C36" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="19"/>
       <c r="E36" s="44">
-        <f>'Research data'!G11</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="33" t="s">
-        <v>15</v>
-      </c>
+      <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J36" s="131"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J36" s="129"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
-      <c r="C37" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="125">
-        <f>'Research data'!G12</f>
-        <v>2</v>
+      <c r="C37" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="44">
+        <v>193680</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="G37" s="33"/>
       <c r="H37" s="33"/>
-      <c r="I37" s="151" t="s">
-        <v>124</v>
-      </c>
-      <c r="J37" s="131"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="129"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
-      <c r="C38" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="C38" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="19"/>
       <c r="E38" s="44">
-        <f>'Research data'!G13</f>
-        <v>25</v>
+        <v>32040</v>
       </c>
       <c r="F38" s="33"/>
-      <c r="G38" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="G38" s="33"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="152" t="s">
-        <v>146</v>
-      </c>
-      <c r="J38" s="131"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="129"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
-      <c r="C39" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="C39" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="19"/>
       <c r="E39" s="44">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -3749,103 +3734,18 @@
       <c r="I39" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="131"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="37"/>
-      <c r="C40" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="44">
-        <v>26820</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40" s="131"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="37"/>
-      <c r="C41" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="44">
-        <v>0</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="131"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="44">
-        <v>193680</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="131"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="37"/>
-      <c r="C43" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="44">
-        <v>32040</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="131"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="44">
-        <v>21600</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44" s="131"/>
-    </row>
-    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
+      <c r="J39" s="129"/>
+    </row>
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3857,112 +3757,112 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="75" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="75" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="75" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="75" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="75" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="76" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="76" customWidth="1"/>
-    <col min="10" max="10" width="3" style="76" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="76" customWidth="1"/>
-    <col min="12" max="12" width="3" style="76" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="76" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" style="76" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="76" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="76" customWidth="1"/>
-    <col min="17" max="17" width="110.42578125" style="75" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="75"/>
+    <col min="1" max="2" width="3.5" style="73" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="73" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="73" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="73" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="74" customWidth="1"/>
+    <col min="10" max="10" width="3" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="74" customWidth="1"/>
+    <col min="12" max="12" width="3" style="74" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="74" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="74" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="74" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="74" customWidth="1"/>
+    <col min="17" max="17" width="110.5" style="73" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="78"/>
-    </row>
-    <row r="3" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="17" thickBot="1"/>
+    <row r="2" spans="2:17">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="76"/>
+    </row>
+    <row r="3" spans="2:17" s="21" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="140" t="s">
-        <v>106</v>
+      <c r="C3" s="138" t="s">
+        <v>96</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="140" t="s">
-        <v>100</v>
+      <c r="G3" s="138" t="s">
+        <v>90</v>
       </c>
       <c r="H3" s="67"/>
       <c r="I3" s="67" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J3" s="67"/>
       <c r="K3" s="67" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L3" s="67"/>
       <c r="M3" s="67" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="N3" s="67"/>
       <c r="O3" s="67" t="s">
         <v>72</v>
       </c>
       <c r="P3" s="67"/>
-      <c r="Q3" s="140" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="137"/>
+      <c r="Q3" s="138" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="135"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
+    <row r="5" spans="2:17" ht="17" thickBot="1">
+      <c r="B5" s="78"/>
       <c r="C5" s="29" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3979,115 +3879,115 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="72"/>
     </row>
-    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="83" t="s">
+    <row r="6" spans="2:17" ht="17" thickBot="1">
+      <c r="B6" s="78"/>
+      <c r="C6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="84">
         <f>ROUND(100,0)</f>
         <v>100</v>
       </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="86">
+      <c r="H6" s="80"/>
+      <c r="I6" s="84">
         <f>Notes!E16/1000</f>
         <v>100</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
       <c r="Q6" s="72"/>
     </row>
-    <row r="7" spans="2:17" s="166" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="170"/>
-      <c r="C7" s="174" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="175" t="s">
+    <row r="7" spans="2:17" s="164" customFormat="1" ht="17" thickBot="1">
+      <c r="B7" s="168"/>
+      <c r="C7" s="172" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="176" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="177">
+      <c r="G7" s="175">
         <f>I7</f>
         <v>42</v>
       </c>
-      <c r="H7" s="178"/>
-      <c r="I7" s="177">
+      <c r="H7" s="176"/>
+      <c r="I7" s="175">
         <f>Notes!E18</f>
         <v>42</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="181" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="166" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
-      <c r="C8" s="174" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="175" t="s">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="179" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="164" customFormat="1" ht="17" thickBot="1">
+      <c r="B8" s="168"/>
+      <c r="C8" s="172" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="176" t="s">
+      <c r="E8" s="165"/>
+      <c r="F8" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="177">
+      <c r="G8" s="175">
         <f>I8</f>
         <v>40</v>
       </c>
-      <c r="H8" s="178"/>
-      <c r="I8" s="177">
+      <c r="H8" s="176"/>
+      <c r="I8" s="175">
         <f>Notes!E19</f>
         <v>40</v>
       </c>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="181" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="80"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="87"/>
-      <c r="Q9" s="141"/>
-    </row>
-    <row r="10" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="80"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="179" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="78"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="85"/>
+      <c r="Q9" s="139"/>
+    </row>
+    <row r="10" spans="2:17" ht="17" thickBot="1">
+      <c r="B10" s="78"/>
       <c r="C10" s="29" t="s">
         <v>8</v>
       </c>
@@ -4102,118 +4002,118 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
       <c r="Q10" s="30"/>
     </row>
-    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="80"/>
-      <c r="C11" s="142" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="84" t="s">
+    <row r="11" spans="2:17" ht="17" thickBot="1">
+      <c r="B11" s="78"/>
+      <c r="C11" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="93">
         <v>0.1</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="91">
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="89">
         <f>428*303/1000000</f>
         <v>0.12968399999999999</v>
       </c>
-      <c r="Q11" s="139" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
-      <c r="C12" s="94" t="s">
+      <c r="Q11" s="137" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="17" thickBot="1">
+      <c r="B12" s="78"/>
+      <c r="C12" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="84" t="s">
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="93">
         <f>ROUND(2,0)</f>
         <v>2</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="85">
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="83">
         <f>Notes!E80/12</f>
         <v>2</v>
       </c>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="82"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
-      <c r="C13" s="97" t="s">
+    <row r="13" spans="2:17" ht="17" thickBot="1">
+      <c r="B13" s="78"/>
+      <c r="C13" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="84" t="s">
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="96">
         <f>ROUND(25,0)</f>
         <v>25</v>
       </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="86">
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="84">
         <f>Notes!E81</f>
         <v>25</v>
       </c>
-      <c r="N13" s="90"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="146"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="80"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="144"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="78"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
       <c r="Q14" s="72"/>
     </row>
-    <row r="15" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="80"/>
+    <row r="15" spans="2:17" ht="17" thickBot="1">
+      <c r="B15" s="78"/>
       <c r="C15" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4226,295 +4126,295 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
       <c r="Q15" s="72"/>
     </row>
-    <row r="16" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="80"/>
-      <c r="C16" s="132" t="s">
-        <v>111</v>
+    <row r="16" spans="2:17" ht="17" thickBot="1">
+      <c r="B16" s="78"/>
+      <c r="C16" s="130" t="s">
+        <v>101</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="132" t="s">
+      <c r="F16" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="95">
+      <c r="G16" s="93">
         <f>ROUND(G17*G6*1000,2)</f>
         <v>105000000</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="99" t="s">
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="147" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="17" thickBot="1">
+      <c r="B17" s="78"/>
+      <c r="C17" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="133" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="95">
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="93">
         <f>I17</f>
         <v>1050</v>
       </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="103">
+      <c r="H17" s="87"/>
+      <c r="I17" s="101">
         <f>Notes!E17</f>
         <v>1050</v>
       </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="163">
+      <c r="J17" s="87"/>
+      <c r="K17" s="161">
         <f>Notes!E106</f>
         <v>1000</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="148"/>
-    </row>
-    <row r="18" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
-      <c r="C18" s="167" t="s">
-        <v>163</v>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="146"/>
+    </row>
+    <row r="18" spans="2:17" ht="17" thickBot="1">
+      <c r="B18" s="78"/>
+      <c r="C18" s="165" t="s">
+        <v>153</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="106">
+      <c r="G18" s="104">
         <f>G19+G21</f>
         <v>2800000</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="103">
+      <c r="H18" s="87"/>
+      <c r="I18" s="101">
         <f>Notes!E51</f>
         <v>2800000</v>
       </c>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="149" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="80"/>
-      <c r="C19" s="145" t="s">
-        <v>112</v>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="147" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17" thickBot="1">
+      <c r="B19" s="78"/>
+      <c r="C19" s="143" t="s">
+        <v>102</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="100">
+      <c r="G19" s="98">
         <f>I19</f>
         <v>933333.33333333326</v>
       </c>
-      <c r="H19" s="89"/>
-      <c r="I19" s="103">
+      <c r="H19" s="87"/>
+      <c r="I19" s="101">
         <f>Notes!E52</f>
         <v>933333.33333333326</v>
       </c>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="168" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="80"/>
-      <c r="C20" s="132" t="s">
-        <v>113</v>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="166" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17" thickBot="1">
+      <c r="B20" s="78"/>
+      <c r="C20" s="130" t="s">
+        <v>103</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="134" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="161"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="169" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="80"/>
-      <c r="C21" s="132" t="s">
-        <v>114</v>
+      <c r="F20" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="159"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="167" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17" thickBot="1">
+      <c r="B21" s="78"/>
+      <c r="C21" s="130" t="s">
+        <v>104</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="100">
+      <c r="G21" s="98">
         <f>I21</f>
         <v>1866666.6666666665</v>
       </c>
-      <c r="H21" s="89"/>
-      <c r="I21" s="103">
+      <c r="H21" s="87"/>
+      <c r="I21" s="101">
         <f>Notes!E53</f>
         <v>1866666.6666666665</v>
       </c>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="169" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="80"/>
-      <c r="C22" s="145" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="84" t="s">
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="167" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17" thickBot="1">
+      <c r="B22" s="78"/>
+      <c r="C22" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="95">
+      <c r="G22" s="93">
         <f>G21/G24</f>
         <v>311.11111111111109</v>
       </c>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="169" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="80"/>
-      <c r="C23" s="132" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="133" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="103">
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="167" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="17" thickBot="1">
+      <c r="B23" s="78"/>
+      <c r="C23" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="101">
         <f>G22/G6</f>
         <v>3.1111111111111107</v>
       </c>
-      <c r="H23" s="89"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="103">
+      <c r="H23" s="87"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="101">
         <f>Notes!E107</f>
         <v>3</v>
       </c>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="164"/>
-    </row>
-    <row r="24" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="80"/>
-      <c r="C24" s="138" t="s">
-        <v>115</v>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="162"/>
+    </row>
+    <row r="24" spans="2:17" ht="17" thickBot="1">
+      <c r="B24" s="78"/>
+      <c r="C24" s="136" t="s">
+        <v>105</v>
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="104">
+      <c r="G24" s="102">
         <f>I24</f>
         <v>6000</v>
       </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="104">
+      <c r="H24" s="85"/>
+      <c r="I24" s="102">
         <f>Notes!E20</f>
         <v>6000</v>
       </c>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="169" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="80"/>
-      <c r="C25" s="147" t="s">
-        <v>126</v>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="167" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="17" thickBot="1">
+      <c r="B25" s="78"/>
+      <c r="C25" s="145" t="s">
+        <v>116</v>
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
-      <c r="F25" s="138" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="104">
+      <c r="F25" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="102">
         <f>G24*G6</f>
         <v>600000</v>
       </c>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="141"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="139"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q12" r:id="rId1"/>
+    <hyperlink ref="Q12" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4522,8 +4422,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K24"/>
@@ -4532,22 +4432,22 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="130.28515625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="46"/>
+    <col min="1" max="1" width="3.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="35.1640625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="130.33203125" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4559,7 +4459,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>22</v>
@@ -4573,7 +4473,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4585,7 +4485,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>30</v>
@@ -4601,19 +4501,19 @@
         <v>31</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>62</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4625,31 +4525,31 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="51"/>
       <c r="C7" s="65"/>
       <c r="D7" s="59"/>
       <c r="E7" s="54" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F7" s="54" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
         <v>1</v>
@@ -4663,7 +4563,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="71"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="51"/>
       <c r="C9" s="59" t="s">
         <v>74</v>
@@ -4677,7 +4577,7 @@
       <c r="J9" s="55"/>
       <c r="K9" s="71"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -4689,32 +4589,32 @@
       <c r="J10" s="55"/>
       <c r="K10" s="71"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="32">
       <c r="B11" s="51"/>
       <c r="C11" s="59"/>
       <c r="D11" s="64"/>
       <c r="E11" s="59" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K11" s="59"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="51"/>
       <c r="C12" s="64" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="59"/>
@@ -4725,10 +4625,10 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="51"/>
       <c r="C13" s="59" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D13" s="64"/>
       <c r="E13" s="59"/>
@@ -4739,7 +4639,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="51"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -4751,12 +4651,12 @@
       <c r="J14" s="55"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="51"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>70</v>
@@ -4769,16 +4669,16 @@
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="55" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="51"/>
       <c r="C16" s="64" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -4789,7 +4689,7 @@
       <c r="J16" s="55"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="51"/>
       <c r="C17" s="64" t="s">
         <v>58</v>
@@ -4803,7 +4703,7 @@
       <c r="J17" s="55"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="51"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -4814,12 +4714,12 @@
       <c r="J18" s="66"/>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="51"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="46" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="69">
@@ -4829,13 +4729,13 @@
       <c r="I19" s="59"/>
       <c r="J19" s="66"/>
       <c r="K19" s="63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="51"/>
       <c r="C20" s="59" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D20" s="59"/>
       <c r="F20" s="59"/>
@@ -4845,7 +4745,7 @@
       <c r="J20" s="66"/>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="51"/>
       <c r="C21" s="64" t="s">
         <v>58</v>
@@ -4858,7 +4758,7 @@
       <c r="J21" s="66"/>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="51"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -4869,7 +4769,7 @@
       <c r="J22" s="66"/>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="51"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -4889,10 +4789,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="51"/>
       <c r="C24" s="59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="54" t="s">
@@ -4907,7 +4807,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K23" r:id="rId1"/>
+    <hyperlink ref="K23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4918,47 +4818,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Q117"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="150" customWidth="1"/>
-    <col min="2" max="2" width="4" style="150" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="150" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" style="150" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="150"/>
+    <col min="1" max="1" width="4.6640625" style="148" customWidth="1"/>
+    <col min="2" max="2" width="4" style="148" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="148" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" style="148" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-    </row>
-    <row r="3" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="123"/>
+    <row r="1" spans="2:16" ht="17" thickBot="1"/>
+    <row r="2" spans="2:16">
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="153"/>
+    </row>
+    <row r="3" spans="2:16" s="21" customFormat="1">
+      <c r="B3" s="121"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4971,2018 +4871,2018 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
-      <c r="P3" s="160"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="158"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="158"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="156"/>
-      <c r="C6" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="158"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="156"/>
-      <c r="C7" s="159" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="158"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="158"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="156"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="158"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="156"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="158"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="158"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="156"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="158"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="158"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="158"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="158"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
-      <c r="E16" s="157">
+      <c r="P3" s="158"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="156"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="154"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="156"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="154"/>
+      <c r="C6" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="156"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="154"/>
+      <c r="C7" s="157" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="156"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="156"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="156"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="156"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="156"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="156"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="156"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="156"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="156"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="E16" s="155">
         <v>100000</v>
       </c>
-      <c r="F16" s="157" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="158"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
-      <c r="E17" s="157">
+      <c r="F16" s="155" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="156"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="E17" s="155">
         <v>1050</v>
       </c>
-      <c r="F17" s="157" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="158"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="166" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="157">
+      <c r="F17" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="155"/>
+      <c r="P17" s="156"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="164" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="155">
         <f>E34</f>
         <v>42</v>
       </c>
-      <c r="F18" s="157" t="s">
+      <c r="F18" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="158"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="166" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="157">
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="156"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="155">
         <f>E35</f>
         <v>40</v>
       </c>
-      <c r="F19" s="171" t="s">
+      <c r="F19" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="158"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="166" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20" s="157">
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="156"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="164" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="155">
         <v>6000</v>
       </c>
-      <c r="F20" s="171" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="158"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="158"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="158"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="156"/>
-      <c r="C23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="158"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="158"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="158"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="158"/>
-    </row>
-    <row r="27" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="170"/>
-      <c r="C27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="171"/>
-      <c r="P27" s="172"/>
-    </row>
-    <row r="28" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="170"/>
-      <c r="C28" s="171" t="s">
+      <c r="F20" s="169" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="156"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="156"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="156"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="156"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="156"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="156"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="156"/>
+    </row>
+    <row r="27" spans="2:16" s="164" customFormat="1">
+      <c r="B27" s="168"/>
+      <c r="C27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="170"/>
+    </row>
+    <row r="28" spans="2:16" s="164" customFormat="1">
+      <c r="B28" s="168"/>
+      <c r="C28" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="170"/>
+    </row>
+    <row r="29" spans="2:16" s="164" customFormat="1">
+      <c r="B29" s="168"/>
+      <c r="C29" s="169" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="170"/>
+    </row>
+    <row r="30" spans="2:16" s="164" customFormat="1">
+      <c r="B30" s="168"/>
+      <c r="C30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="170"/>
+    </row>
+    <row r="31" spans="2:16" s="164" customFormat="1">
+      <c r="B31" s="168"/>
+      <c r="C31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="169" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="170"/>
+    </row>
+    <row r="32" spans="2:16" s="164" customFormat="1">
+      <c r="B32" s="168"/>
+      <c r="C32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="170"/>
+    </row>
+    <row r="33" spans="2:16" s="164" customFormat="1">
+      <c r="B33" s="168"/>
+      <c r="C33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="169"/>
+      <c r="N33" s="169"/>
+      <c r="O33" s="169"/>
+      <c r="P33" s="170"/>
+    </row>
+    <row r="34" spans="2:16" s="164" customFormat="1">
+      <c r="B34" s="168"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="169">
+        <v>42</v>
+      </c>
+      <c r="F34" s="169" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="171" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="169"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="169"/>
+      <c r="K34" s="169"/>
+      <c r="L34" s="169"/>
+      <c r="M34" s="169"/>
+      <c r="N34" s="169"/>
+      <c r="O34" s="169"/>
+      <c r="P34" s="170"/>
+    </row>
+    <row r="35" spans="2:16" s="164" customFormat="1">
+      <c r="B35" s="168"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="169">
+        <v>40</v>
+      </c>
+      <c r="F35" s="169" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="171" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="169"/>
+      <c r="K35" s="169"/>
+      <c r="L35" s="169"/>
+      <c r="M35" s="169"/>
+      <c r="N35" s="169"/>
+      <c r="O35" s="169"/>
+      <c r="P35" s="170"/>
+    </row>
+    <row r="36" spans="2:16" s="164" customFormat="1">
+      <c r="B36" s="168"/>
+      <c r="C36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="G36" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="172"/>
-    </row>
-    <row r="29" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="170"/>
-      <c r="C29" s="171" t="s">
+      <c r="H36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="169"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="169"/>
+      <c r="M36" s="169"/>
+      <c r="N36" s="169"/>
+      <c r="O36" s="169"/>
+      <c r="P36" s="170"/>
+    </row>
+    <row r="37" spans="2:16" s="164" customFormat="1">
+      <c r="B37" s="168"/>
+      <c r="C37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="172"/>
-    </row>
-    <row r="30" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="170"/>
-      <c r="C30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171" t="s">
-        <v>168</v>
-      </c>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="172"/>
-    </row>
-    <row r="31" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="170"/>
-      <c r="C31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="172"/>
-    </row>
-    <row r="32" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="170"/>
-      <c r="C32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="171"/>
-      <c r="L32" s="171"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="172"/>
-    </row>
-    <row r="33" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="170"/>
-      <c r="C33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="172"/>
-    </row>
-    <row r="34" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="171">
-        <v>42</v>
-      </c>
-      <c r="F34" s="171" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="173" t="s">
-        <v>172</v>
-      </c>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="171"/>
-      <c r="L34" s="171"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="171"/>
-      <c r="O34" s="171"/>
-      <c r="P34" s="172"/>
-    </row>
-    <row r="35" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="170"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="171" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="171">
-        <v>40</v>
-      </c>
-      <c r="F35" s="171" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="173" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="171"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="171"/>
-      <c r="O35" s="171"/>
-      <c r="P35" s="172"/>
-    </row>
-    <row r="36" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="170"/>
-      <c r="C36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="G36" s="173" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="171"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="171"/>
-      <c r="O36" s="171"/>
-      <c r="P36" s="172"/>
-    </row>
-    <row r="37" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="170"/>
-      <c r="C37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="173" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="171"/>
-      <c r="O37" s="171"/>
-      <c r="P37" s="172"/>
-    </row>
-    <row r="38" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="170"/>
-      <c r="C38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="171"/>
-      <c r="O38" s="171"/>
-      <c r="P38" s="172"/>
-    </row>
-    <row r="39" spans="2:16" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="170"/>
-      <c r="C39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="171"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="171"/>
-      <c r="O39" s="171"/>
-      <c r="P39" s="172"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="156"/>
-      <c r="C40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="157"/>
-      <c r="O40" s="157"/>
-      <c r="P40" s="158"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="156"/>
-      <c r="C41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="157"/>
-      <c r="L41" s="157"/>
-      <c r="M41" s="157"/>
-      <c r="N41" s="157"/>
-      <c r="O41" s="157"/>
-      <c r="P41" s="158"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="156"/>
-      <c r="C42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157"/>
-      <c r="L42" s="157"/>
-      <c r="M42" s="157"/>
-      <c r="N42" s="157"/>
-      <c r="O42" s="157"/>
-      <c r="P42" s="158"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="156"/>
-      <c r="C43" s="159" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="157"/>
-      <c r="L43" s="157"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="157"/>
-      <c r="O43" s="157"/>
-      <c r="P43" s="158"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="156"/>
-      <c r="C44" s="157"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="157"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
-      <c r="N44" s="157"/>
-      <c r="O44" s="157"/>
-      <c r="P44" s="158"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="156"/>
-      <c r="C45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="157"/>
-      <c r="L45" s="157"/>
-      <c r="M45" s="157"/>
-      <c r="N45" s="157"/>
-      <c r="O45" s="157"/>
-      <c r="P45" s="158"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="156"/>
-      <c r="C46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="157"/>
-      <c r="K46" s="157"/>
-      <c r="L46" s="157"/>
-      <c r="M46" s="157"/>
-      <c r="N46" s="157"/>
-      <c r="O46" s="157"/>
-      <c r="P46" s="158"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="156"/>
-      <c r="C47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="157"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="157"/>
-      <c r="N47" s="157"/>
-      <c r="O47" s="157"/>
-      <c r="P47" s="158"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="156"/>
-      <c r="C48" s="157"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="157"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="157"/>
-      <c r="N48" s="157"/>
-      <c r="O48" s="157"/>
-      <c r="P48" s="158"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="156"/>
-      <c r="C49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="157"/>
-      <c r="K49" s="157"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="157"/>
-      <c r="N49" s="157"/>
-      <c r="O49" s="157"/>
-      <c r="P49" s="158"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="156"/>
-      <c r="C50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="157"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="157"/>
-      <c r="O50" s="157"/>
-      <c r="P50" s="158"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B51" s="156"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="157" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="157">
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="169"/>
+      <c r="P37" s="170"/>
+    </row>
+    <row r="38" spans="2:16" s="164" customFormat="1">
+      <c r="B38" s="168"/>
+      <c r="C38" s="169"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="169"/>
+      <c r="N38" s="169"/>
+      <c r="O38" s="169"/>
+      <c r="P38" s="170"/>
+    </row>
+    <row r="39" spans="2:16" s="164" customFormat="1">
+      <c r="B39" s="168"/>
+      <c r="C39" s="169"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="169"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="169"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="169"/>
+      <c r="M39" s="169"/>
+      <c r="N39" s="169"/>
+      <c r="O39" s="169"/>
+      <c r="P39" s="170"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="154"/>
+      <c r="C40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
+      <c r="O40" s="155"/>
+      <c r="P40" s="156"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="154"/>
+      <c r="C41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="155"/>
+      <c r="P41" s="156"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="155"/>
+      <c r="P42" s="156"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="154"/>
+      <c r="C43" s="157" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
+      <c r="O43" s="155"/>
+      <c r="P43" s="156"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="154"/>
+      <c r="C44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="155"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
+      <c r="N44" s="155"/>
+      <c r="O44" s="155"/>
+      <c r="P44" s="156"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="154"/>
+      <c r="C45" s="155"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
+      <c r="N45" s="155"/>
+      <c r="O45" s="155"/>
+      <c r="P45" s="156"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="154"/>
+      <c r="C46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
+      <c r="N46" s="155"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="156"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="154"/>
+      <c r="C47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="155"/>
+      <c r="M47" s="155"/>
+      <c r="N47" s="155"/>
+      <c r="O47" s="155"/>
+      <c r="P47" s="156"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="154"/>
+      <c r="C48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="156"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
+      <c r="N49" s="155"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="156"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="154"/>
+      <c r="C50" s="155"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
+      <c r="O50" s="155"/>
+      <c r="P50" s="156"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="154"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="155">
         <v>2800000</v>
       </c>
-      <c r="F51" s="157" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="157"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="157"/>
-      <c r="N51" s="157"/>
-      <c r="O51" s="157"/>
-      <c r="P51" s="158"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="156"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="171" t="s">
-        <v>192</v>
-      </c>
-      <c r="E52" s="186">
+      <c r="F51" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
+      <c r="N51" s="155"/>
+      <c r="O51" s="155"/>
+      <c r="P51" s="156"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="154"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="169" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="184">
         <f>E51*E66</f>
         <v>933333.33333333326</v>
       </c>
-      <c r="F52" s="157" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="157"/>
-      <c r="L52" s="157"/>
-      <c r="M52" s="157"/>
-      <c r="N52" s="157"/>
-      <c r="O52" s="157"/>
-      <c r="P52" s="158"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="156"/>
-      <c r="C53" s="157"/>
-      <c r="D53" s="166" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="186">
+      <c r="F52" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="156"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="164" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="184">
         <f>E51*E67</f>
         <v>1866666.6666666665</v>
       </c>
-      <c r="F53" s="157" t="s">
-        <v>136</v>
-      </c>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="157"/>
-      <c r="N53" s="157"/>
-      <c r="O53" s="157"/>
-      <c r="P53" s="158"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B54" s="156"/>
-      <c r="C54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="157"/>
-      <c r="P54" s="158"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="156"/>
-      <c r="C55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="157"/>
-      <c r="L55" s="157"/>
-      <c r="M55" s="157"/>
-      <c r="N55" s="157"/>
-      <c r="O55" s="157"/>
-      <c r="P55" s="158"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="156"/>
-      <c r="C56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="157"/>
-      <c r="L56" s="157"/>
-      <c r="M56" s="157"/>
-      <c r="N56" s="157"/>
-      <c r="O56" s="157"/>
-      <c r="P56" s="158"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="156"/>
-      <c r="C57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
-      <c r="P57" s="158"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="156"/>
-      <c r="C58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="157"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
-      <c r="N58" s="157"/>
-      <c r="O58" s="157"/>
-      <c r="P58" s="158"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B59" s="156"/>
-      <c r="C59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="157"/>
-      <c r="L59" s="157"/>
-      <c r="M59" s="157"/>
-      <c r="N59" s="157"/>
-      <c r="O59" s="157"/>
-      <c r="P59" s="158"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B60" s="156"/>
-      <c r="C60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="157"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
-      <c r="P60" s="158"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="156"/>
-      <c r="C61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="157"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="157"/>
-      <c r="P61" s="158"/>
-    </row>
-    <row r="62" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="170"/>
-      <c r="C62" s="171" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="171"/>
-      <c r="F62" s="171"/>
-      <c r="G62" s="171"/>
-      <c r="H62" s="171"/>
-      <c r="I62" s="171"/>
-      <c r="J62" s="171"/>
-      <c r="K62" s="171"/>
-      <c r="L62" s="171"/>
-      <c r="M62" s="171"/>
-      <c r="N62" s="171"/>
-      <c r="O62" s="171"/>
-      <c r="P62" s="172"/>
-      <c r="Q62" s="150"/>
-    </row>
-    <row r="63" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="170"/>
-      <c r="C63" s="171" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" s="171"/>
-      <c r="F63" s="171"/>
-      <c r="G63" s="171" t="s">
-        <v>183</v>
-      </c>
-      <c r="H63" s="171"/>
-      <c r="I63" s="171"/>
-      <c r="J63" s="171"/>
-      <c r="K63" s="171"/>
-      <c r="L63" s="171"/>
-      <c r="M63" s="171"/>
-      <c r="N63" s="171"/>
-      <c r="O63" s="171"/>
-      <c r="P63" s="172"/>
-      <c r="Q63" s="150"/>
-    </row>
-    <row r="64" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="170"/>
-      <c r="C64" s="171"/>
-      <c r="E64" s="171"/>
-      <c r="F64" s="171"/>
-      <c r="G64" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="H64" s="171"/>
-      <c r="I64" s="171"/>
-      <c r="J64" s="171"/>
-      <c r="K64" s="171"/>
-      <c r="L64" s="171"/>
-      <c r="M64" s="171"/>
-      <c r="N64" s="171"/>
-      <c r="O64" s="171"/>
-      <c r="P64" s="172"/>
-      <c r="Q64" s="150"/>
-    </row>
-    <row r="65" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="170"/>
-      <c r="C65" s="171"/>
-      <c r="E65" s="171"/>
-      <c r="F65" s="171"/>
-      <c r="G65" s="171"/>
-      <c r="H65" s="171"/>
-      <c r="I65" s="171"/>
-      <c r="J65" s="171"/>
-      <c r="K65" s="171"/>
-      <c r="L65" s="171"/>
-      <c r="M65" s="171"/>
-      <c r="N65" s="171"/>
-      <c r="O65" s="171"/>
-      <c r="P65" s="172"/>
-      <c r="Q65" s="150"/>
-    </row>
-    <row r="66" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="170"/>
-      <c r="C66" s="171"/>
-      <c r="D66" s="166" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="185">
+      <c r="F53" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="155"/>
+      <c r="O53" s="155"/>
+      <c r="P53" s="156"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="154"/>
+      <c r="C54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="155"/>
+      <c r="P54" s="156"/>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="154"/>
+      <c r="C55" s="155"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="155"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="155"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="155"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
+      <c r="N55" s="155"/>
+      <c r="O55" s="155"/>
+      <c r="P55" s="156"/>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="154"/>
+      <c r="C56" s="155"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="156"/>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="154"/>
+      <c r="C57" s="155"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
+      <c r="N57" s="155"/>
+      <c r="O57" s="155"/>
+      <c r="P57" s="156"/>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="154"/>
+      <c r="C58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+      <c r="N58" s="155"/>
+      <c r="O58" s="155"/>
+      <c r="P58" s="156"/>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="154"/>
+      <c r="C59" s="155"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="156"/>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="154"/>
+      <c r="C60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="156"/>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="154"/>
+      <c r="C61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="155"/>
+      <c r="P61" s="156"/>
+    </row>
+    <row r="62" spans="2:17" s="164" customFormat="1">
+      <c r="B62" s="168"/>
+      <c r="C62" s="169" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="170"/>
+      <c r="Q62" s="148"/>
+    </row>
+    <row r="63" spans="2:17" s="164" customFormat="1">
+      <c r="B63" s="168"/>
+      <c r="C63" s="169" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169" t="s">
+        <v>173</v>
+      </c>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
+      <c r="K63" s="169"/>
+      <c r="L63" s="169"/>
+      <c r="M63" s="169"/>
+      <c r="N63" s="169"/>
+      <c r="O63" s="169"/>
+      <c r="P63" s="170"/>
+      <c r="Q63" s="148"/>
+    </row>
+    <row r="64" spans="2:17" s="164" customFormat="1">
+      <c r="B64" s="168"/>
+      <c r="C64" s="169"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="169" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="169"/>
+      <c r="I64" s="169"/>
+      <c r="J64" s="169"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="169"/>
+      <c r="M64" s="169"/>
+      <c r="N64" s="169"/>
+      <c r="O64" s="169"/>
+      <c r="P64" s="170"/>
+      <c r="Q64" s="148"/>
+    </row>
+    <row r="65" spans="2:17" s="164" customFormat="1">
+      <c r="B65" s="168"/>
+      <c r="C65" s="169"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="169"/>
+      <c r="G65" s="169"/>
+      <c r="H65" s="169"/>
+      <c r="I65" s="169"/>
+      <c r="J65" s="169"/>
+      <c r="K65" s="169"/>
+      <c r="L65" s="169"/>
+      <c r="M65" s="169"/>
+      <c r="N65" s="169"/>
+      <c r="O65" s="169"/>
+      <c r="P65" s="170"/>
+      <c r="Q65" s="148"/>
+    </row>
+    <row r="66" spans="2:17" s="164" customFormat="1">
+      <c r="B66" s="168"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="183">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F66" s="171"/>
-      <c r="G66" s="166" t="s">
-        <v>184</v>
-      </c>
-      <c r="H66" s="171"/>
-      <c r="I66" s="171"/>
-      <c r="J66" s="171"/>
-      <c r="K66" s="171"/>
-      <c r="L66" s="171"/>
-      <c r="M66" s="171"/>
-      <c r="N66" s="171"/>
-      <c r="O66" s="171"/>
-      <c r="P66" s="172"/>
-      <c r="Q66" s="150"/>
-    </row>
-    <row r="67" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="170"/>
-      <c r="C67" s="171"/>
-      <c r="D67" s="166" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" s="185">
+      <c r="F66" s="169"/>
+      <c r="G66" s="164" t="s">
+        <v>174</v>
+      </c>
+      <c r="H66" s="169"/>
+      <c r="I66" s="169"/>
+      <c r="J66" s="169"/>
+      <c r="K66" s="169"/>
+      <c r="L66" s="169"/>
+      <c r="M66" s="169"/>
+      <c r="N66" s="169"/>
+      <c r="O66" s="169"/>
+      <c r="P66" s="170"/>
+      <c r="Q66" s="148"/>
+    </row>
+    <row r="67" spans="2:17" s="164" customFormat="1">
+      <c r="B67" s="168"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="183">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F67" s="171"/>
-      <c r="G67" s="166" t="s">
-        <v>185</v>
-      </c>
-      <c r="H67" s="171"/>
-      <c r="I67" s="171"/>
-      <c r="J67" s="171"/>
-      <c r="K67" s="171"/>
-      <c r="L67" s="171"/>
-      <c r="M67" s="171"/>
-      <c r="N67" s="171"/>
-      <c r="O67" s="171"/>
-      <c r="P67" s="172"/>
-      <c r="Q67" s="150"/>
-    </row>
-    <row r="68" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="170"/>
-      <c r="C68" s="171"/>
-      <c r="E68" s="171"/>
-      <c r="F68" s="171"/>
-      <c r="G68" s="182" t="s">
-        <v>186</v>
-      </c>
-      <c r="H68" s="171"/>
-      <c r="I68" s="171"/>
-      <c r="J68" s="171"/>
-      <c r="K68" s="171"/>
-      <c r="L68" s="171"/>
-      <c r="M68" s="171"/>
-      <c r="N68" s="171"/>
-      <c r="O68" s="171"/>
-      <c r="P68" s="172"/>
-      <c r="Q68" s="171"/>
-    </row>
-    <row r="69" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="170"/>
-      <c r="C69" s="171"/>
-      <c r="E69" s="171"/>
-      <c r="F69" s="171"/>
-      <c r="G69" s="184" t="s">
-        <v>187</v>
-      </c>
-      <c r="H69" s="171"/>
-      <c r="I69" s="171"/>
-      <c r="J69" s="171"/>
-      <c r="K69" s="171"/>
-      <c r="L69" s="171"/>
-      <c r="M69" s="171"/>
-      <c r="N69" s="171"/>
-      <c r="O69" s="171"/>
-      <c r="P69" s="172"/>
-      <c r="Q69" s="171"/>
-    </row>
-    <row r="70" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="170"/>
-      <c r="C70" s="171"/>
-      <c r="E70" s="171"/>
-      <c r="F70" s="171"/>
-      <c r="G70" s="183" t="s">
-        <v>188</v>
-      </c>
-      <c r="H70" s="171"/>
-      <c r="I70" s="171"/>
-      <c r="J70" s="171"/>
-      <c r="K70" s="171"/>
-      <c r="L70" s="171"/>
-      <c r="M70" s="171"/>
-      <c r="N70" s="171"/>
-      <c r="O70" s="171"/>
-      <c r="P70" s="172"/>
-      <c r="Q70" s="171"/>
-    </row>
-    <row r="71" spans="2:17" s="166" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="170"/>
-      <c r="C71" s="171"/>
-      <c r="E71" s="171"/>
-      <c r="F71" s="171"/>
-      <c r="G71" s="183" t="s">
-        <v>189</v>
-      </c>
-      <c r="H71" s="171"/>
-      <c r="I71" s="171"/>
-      <c r="J71" s="171"/>
-      <c r="K71" s="171"/>
-      <c r="L71" s="171"/>
-      <c r="M71" s="171"/>
-      <c r="N71" s="171"/>
-      <c r="O71" s="171"/>
-      <c r="P71" s="172"/>
-      <c r="Q71" s="171"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="156"/>
-      <c r="C72" s="157"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-      <c r="P72" s="158"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="156"/>
-      <c r="C73" s="159" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="157"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="157"/>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="157"/>
-      <c r="M73" s="157"/>
-      <c r="N73" s="157"/>
-      <c r="O73" s="157"/>
-      <c r="P73" s="158"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B74" s="156"/>
-      <c r="C74" s="159" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="157"/>
-      <c r="I74" s="157"/>
-      <c r="J74" s="157"/>
-      <c r="K74" s="157"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="157"/>
-      <c r="O74" s="157"/>
-      <c r="P74" s="158"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="156"/>
-      <c r="C75" s="157"/>
-      <c r="E75" s="157"/>
-      <c r="F75" s="157"/>
-      <c r="G75" s="157"/>
-      <c r="H75" s="157"/>
-      <c r="I75" s="157"/>
-      <c r="J75" s="157"/>
-      <c r="K75" s="157"/>
-      <c r="L75" s="157"/>
-      <c r="M75" s="157"/>
-      <c r="N75" s="157"/>
-      <c r="O75" s="157"/>
-      <c r="P75" s="158"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="156"/>
-      <c r="C76" s="157"/>
-      <c r="E76" s="157"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="157"/>
-      <c r="I76" s="157"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="157"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
-      <c r="P76" s="158"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="156"/>
-      <c r="C77" s="157"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="157"/>
-      <c r="G77" s="157"/>
-      <c r="H77" s="157"/>
-      <c r="I77" s="157"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="157"/>
-      <c r="L77" s="157"/>
-      <c r="M77" s="157"/>
-      <c r="N77" s="157"/>
-      <c r="O77" s="157"/>
-      <c r="P77" s="158"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B78" s="156"/>
-      <c r="C78" s="157"/>
-      <c r="E78" s="157"/>
-      <c r="F78" s="157"/>
-      <c r="G78" s="157"/>
-      <c r="H78" s="157"/>
-      <c r="I78" s="157"/>
-      <c r="J78" s="157"/>
-      <c r="K78" s="157"/>
-      <c r="L78" s="157"/>
-      <c r="M78" s="157"/>
-      <c r="N78" s="157"/>
-      <c r="O78" s="157"/>
-      <c r="P78" s="158"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B79" s="156"/>
-      <c r="C79" s="157"/>
-      <c r="E79" s="157"/>
-      <c r="F79" s="157"/>
-      <c r="G79" s="157"/>
-      <c r="H79" s="157"/>
-      <c r="I79" s="157"/>
-      <c r="J79" s="157"/>
-      <c r="K79" s="157"/>
-      <c r="L79" s="157"/>
-      <c r="M79" s="157"/>
-      <c r="N79" s="157"/>
-      <c r="O79" s="157"/>
-      <c r="P79" s="158"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B80" s="156"/>
-      <c r="C80" s="157"/>
-      <c r="D80" s="166" t="s">
+      <c r="F67" s="169"/>
+      <c r="G67" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="H67" s="169"/>
+      <c r="I67" s="169"/>
+      <c r="J67" s="169"/>
+      <c r="K67" s="169"/>
+      <c r="L67" s="169"/>
+      <c r="M67" s="169"/>
+      <c r="N67" s="169"/>
+      <c r="O67" s="169"/>
+      <c r="P67" s="170"/>
+      <c r="Q67" s="148"/>
+    </row>
+    <row r="68" spans="2:17" s="164" customFormat="1">
+      <c r="B68" s="168"/>
+      <c r="C68" s="169"/>
+      <c r="E68" s="169"/>
+      <c r="F68" s="169"/>
+      <c r="G68" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="H68" s="169"/>
+      <c r="I68" s="169"/>
+      <c r="J68" s="169"/>
+      <c r="K68" s="169"/>
+      <c r="L68" s="169"/>
+      <c r="M68" s="169"/>
+      <c r="N68" s="169"/>
+      <c r="O68" s="169"/>
+      <c r="P68" s="170"/>
+      <c r="Q68" s="169"/>
+    </row>
+    <row r="69" spans="2:17" s="164" customFormat="1">
+      <c r="B69" s="168"/>
+      <c r="C69" s="169"/>
+      <c r="E69" s="169"/>
+      <c r="F69" s="169"/>
+      <c r="G69" s="182" t="s">
+        <v>177</v>
+      </c>
+      <c r="H69" s="169"/>
+      <c r="I69" s="169"/>
+      <c r="J69" s="169"/>
+      <c r="K69" s="169"/>
+      <c r="L69" s="169"/>
+      <c r="M69" s="169"/>
+      <c r="N69" s="169"/>
+      <c r="O69" s="169"/>
+      <c r="P69" s="170"/>
+      <c r="Q69" s="169"/>
+    </row>
+    <row r="70" spans="2:17" s="164" customFormat="1">
+      <c r="B70" s="168"/>
+      <c r="C70" s="169"/>
+      <c r="E70" s="169"/>
+      <c r="F70" s="169"/>
+      <c r="G70" s="181" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" s="169"/>
+      <c r="I70" s="169"/>
+      <c r="J70" s="169"/>
+      <c r="K70" s="169"/>
+      <c r="L70" s="169"/>
+      <c r="M70" s="169"/>
+      <c r="N70" s="169"/>
+      <c r="O70" s="169"/>
+      <c r="P70" s="170"/>
+      <c r="Q70" s="169"/>
+    </row>
+    <row r="71" spans="2:17" s="164" customFormat="1">
+      <c r="B71" s="168"/>
+      <c r="C71" s="169"/>
+      <c r="E71" s="169"/>
+      <c r="F71" s="169"/>
+      <c r="G71" s="181" t="s">
+        <v>179</v>
+      </c>
+      <c r="H71" s="169"/>
+      <c r="I71" s="169"/>
+      <c r="J71" s="169"/>
+      <c r="K71" s="169"/>
+      <c r="L71" s="169"/>
+      <c r="M71" s="169"/>
+      <c r="N71" s="169"/>
+      <c r="O71" s="169"/>
+      <c r="P71" s="170"/>
+      <c r="Q71" s="169"/>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="154"/>
+      <c r="C72" s="155"/>
+      <c r="E72" s="155"/>
+      <c r="F72" s="155"/>
+      <c r="G72" s="155"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="155"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="155"/>
+      <c r="L72" s="155"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="155"/>
+      <c r="O72" s="155"/>
+      <c r="P72" s="156"/>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="154"/>
+      <c r="C73" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="155"/>
+      <c r="F73" s="155"/>
+      <c r="G73" s="155"/>
+      <c r="H73" s="155"/>
+      <c r="I73" s="155"/>
+      <c r="J73" s="155"/>
+      <c r="K73" s="155"/>
+      <c r="L73" s="155"/>
+      <c r="M73" s="155"/>
+      <c r="N73" s="155"/>
+      <c r="O73" s="155"/>
+      <c r="P73" s="156"/>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74" s="154"/>
+      <c r="C74" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="155"/>
+      <c r="F74" s="155"/>
+      <c r="G74" s="155"/>
+      <c r="H74" s="155"/>
+      <c r="I74" s="155"/>
+      <c r="J74" s="155"/>
+      <c r="K74" s="155"/>
+      <c r="L74" s="155"/>
+      <c r="M74" s="155"/>
+      <c r="N74" s="155"/>
+      <c r="O74" s="155"/>
+      <c r="P74" s="156"/>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="154"/>
+      <c r="C75" s="155"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="155"/>
+      <c r="G75" s="155"/>
+      <c r="H75" s="155"/>
+      <c r="I75" s="155"/>
+      <c r="J75" s="155"/>
+      <c r="K75" s="155"/>
+      <c r="L75" s="155"/>
+      <c r="M75" s="155"/>
+      <c r="N75" s="155"/>
+      <c r="O75" s="155"/>
+      <c r="P75" s="156"/>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76" s="154"/>
+      <c r="C76" s="155"/>
+      <c r="E76" s="155"/>
+      <c r="F76" s="155"/>
+      <c r="G76" s="155"/>
+      <c r="H76" s="155"/>
+      <c r="I76" s="155"/>
+      <c r="J76" s="155"/>
+      <c r="K76" s="155"/>
+      <c r="L76" s="155"/>
+      <c r="M76" s="155"/>
+      <c r="N76" s="155"/>
+      <c r="O76" s="155"/>
+      <c r="P76" s="156"/>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" s="154"/>
+      <c r="C77" s="155"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="155"/>
+      <c r="G77" s="155"/>
+      <c r="H77" s="155"/>
+      <c r="I77" s="155"/>
+      <c r="J77" s="155"/>
+      <c r="K77" s="155"/>
+      <c r="L77" s="155"/>
+      <c r="M77" s="155"/>
+      <c r="N77" s="155"/>
+      <c r="O77" s="155"/>
+      <c r="P77" s="156"/>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" s="154"/>
+      <c r="C78" s="155"/>
+      <c r="E78" s="155"/>
+      <c r="F78" s="155"/>
+      <c r="G78" s="155"/>
+      <c r="H78" s="155"/>
+      <c r="I78" s="155"/>
+      <c r="J78" s="155"/>
+      <c r="K78" s="155"/>
+      <c r="L78" s="155"/>
+      <c r="M78" s="155"/>
+      <c r="N78" s="155"/>
+      <c r="O78" s="155"/>
+      <c r="P78" s="156"/>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79" s="154"/>
+      <c r="C79" s="155"/>
+      <c r="E79" s="155"/>
+      <c r="F79" s="155"/>
+      <c r="G79" s="155"/>
+      <c r="H79" s="155"/>
+      <c r="I79" s="155"/>
+      <c r="J79" s="155"/>
+      <c r="K79" s="155"/>
+      <c r="L79" s="155"/>
+      <c r="M79" s="155"/>
+      <c r="N79" s="155"/>
+      <c r="O79" s="155"/>
+      <c r="P79" s="156"/>
+    </row>
+    <row r="80" spans="2:17">
+      <c r="B80" s="154"/>
+      <c r="C80" s="155"/>
+      <c r="D80" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="157">
+      <c r="E80" s="155">
         <v>24</v>
       </c>
-      <c r="F80" s="159" t="s">
+      <c r="F80" s="157" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="155"/>
+      <c r="H80" s="155"/>
+      <c r="I80" s="155"/>
+      <c r="J80" s="155"/>
+      <c r="K80" s="155"/>
+      <c r="L80" s="155"/>
+      <c r="M80" s="155"/>
+      <c r="N80" s="155"/>
+      <c r="O80" s="155"/>
+      <c r="P80" s="156"/>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="B81" s="154"/>
+      <c r="C81" s="155"/>
+      <c r="E81" s="155">
+        <v>25</v>
+      </c>
+      <c r="F81" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="G81" s="155"/>
+      <c r="H81" s="155"/>
+      <c r="I81" s="155"/>
+      <c r="J81" s="155"/>
+      <c r="K81" s="155"/>
+      <c r="L81" s="155"/>
+      <c r="M81" s="155"/>
+      <c r="N81" s="155"/>
+      <c r="O81" s="155"/>
+      <c r="P81" s="156"/>
+    </row>
+    <row r="82" spans="2:16">
+      <c r="B82" s="154"/>
+      <c r="C82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="155"/>
+      <c r="I82" s="155"/>
+      <c r="J82" s="155"/>
+      <c r="K82" s="155"/>
+      <c r="L82" s="155"/>
+      <c r="M82" s="155"/>
+      <c r="N82" s="155"/>
+      <c r="O82" s="155"/>
+      <c r="P82" s="156"/>
+    </row>
+    <row r="83" spans="2:16">
+      <c r="B83" s="154"/>
+      <c r="C83" s="155"/>
+      <c r="E83" s="155"/>
+      <c r="F83" s="155"/>
+      <c r="G83" s="155"/>
+      <c r="H83" s="155"/>
+      <c r="I83" s="155"/>
+      <c r="J83" s="155"/>
+      <c r="K83" s="155"/>
+      <c r="L83" s="155"/>
+      <c r="M83" s="155"/>
+      <c r="N83" s="155"/>
+      <c r="O83" s="155"/>
+      <c r="P83" s="156"/>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="B84" s="154"/>
+      <c r="C84" s="155"/>
+      <c r="E84" s="155"/>
+      <c r="F84" s="155"/>
+      <c r="G84" s="155"/>
+      <c r="H84" s="155"/>
+      <c r="I84" s="155"/>
+      <c r="J84" s="155"/>
+      <c r="K84" s="155"/>
+      <c r="L84" s="155"/>
+      <c r="M84" s="155"/>
+      <c r="N84" s="155"/>
+      <c r="O84" s="155"/>
+      <c r="P84" s="156"/>
+    </row>
+    <row r="85" spans="2:16">
+      <c r="B85" s="154"/>
+      <c r="C85" s="155"/>
+      <c r="E85" s="155"/>
+      <c r="F85" s="155"/>
+      <c r="G85" s="155"/>
+      <c r="H85" s="155"/>
+      <c r="I85" s="155"/>
+      <c r="J85" s="155"/>
+      <c r="K85" s="155"/>
+      <c r="L85" s="155"/>
+      <c r="M85" s="155"/>
+      <c r="N85" s="155"/>
+      <c r="O85" s="155"/>
+      <c r="P85" s="156"/>
+    </row>
+    <row r="86" spans="2:16">
+      <c r="B86" s="154"/>
+      <c r="C86" s="155"/>
+      <c r="E86" s="155"/>
+      <c r="F86" s="155"/>
+      <c r="G86" s="155"/>
+      <c r="H86" s="155"/>
+      <c r="I86" s="155"/>
+      <c r="J86" s="155"/>
+      <c r="K86" s="155"/>
+      <c r="L86" s="155"/>
+      <c r="M86" s="155"/>
+      <c r="N86" s="155"/>
+      <c r="O86" s="155"/>
+      <c r="P86" s="156"/>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="B87" s="154"/>
+      <c r="C87" s="160" t="s">
+        <v>141</v>
+      </c>
+      <c r="E87" s="155"/>
+      <c r="F87" s="155"/>
+      <c r="G87" s="155"/>
+      <c r="H87" s="155"/>
+      <c r="I87" s="155"/>
+      <c r="J87" s="155"/>
+      <c r="K87" s="155"/>
+      <c r="L87" s="155"/>
+      <c r="M87" s="155"/>
+      <c r="N87" s="155"/>
+      <c r="O87" s="155"/>
+      <c r="P87" s="156"/>
+    </row>
+    <row r="88" spans="2:16">
+      <c r="B88" s="154"/>
+      <c r="C88" s="160" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="155"/>
+      <c r="F88" s="155"/>
+      <c r="G88" s="155"/>
+      <c r="H88" s="155"/>
+      <c r="I88" s="155"/>
+      <c r="J88" s="155"/>
+      <c r="K88" s="155"/>
+      <c r="L88" s="155"/>
+      <c r="M88" s="155"/>
+      <c r="N88" s="155"/>
+      <c r="O88" s="155"/>
+      <c r="P88" s="156"/>
+    </row>
+    <row r="89" spans="2:16">
+      <c r="B89" s="154"/>
+      <c r="C89" s="155"/>
+      <c r="E89" s="155"/>
+      <c r="F89" s="155"/>
+      <c r="G89" s="155"/>
+      <c r="H89" s="155"/>
+      <c r="I89" s="155"/>
+      <c r="J89" s="155"/>
+      <c r="K89" s="155"/>
+      <c r="L89" s="155"/>
+      <c r="M89" s="155"/>
+      <c r="N89" s="155"/>
+      <c r="O89" s="155"/>
+      <c r="P89" s="156"/>
+    </row>
+    <row r="90" spans="2:16">
+      <c r="B90" s="154"/>
+      <c r="C90" s="155"/>
+      <c r="E90" s="155"/>
+      <c r="F90" s="155"/>
+      <c r="G90" s="155"/>
+      <c r="H90" s="155"/>
+      <c r="I90" s="155"/>
+      <c r="J90" s="155"/>
+      <c r="K90" s="155"/>
+      <c r="L90" s="155"/>
+      <c r="M90" s="155"/>
+      <c r="N90" s="155"/>
+      <c r="O90" s="155"/>
+      <c r="P90" s="156"/>
+    </row>
+    <row r="91" spans="2:16">
+      <c r="B91" s="154"/>
+      <c r="C91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155"/>
+      <c r="H91" s="155"/>
+      <c r="I91" s="155"/>
+      <c r="J91" s="155"/>
+      <c r="K91" s="155"/>
+      <c r="L91" s="155"/>
+      <c r="M91" s="155"/>
+      <c r="N91" s="155"/>
+      <c r="O91" s="155"/>
+      <c r="P91" s="156"/>
+    </row>
+    <row r="92" spans="2:16">
+      <c r="B92" s="154"/>
+      <c r="C92" s="155"/>
+      <c r="E92" s="155"/>
+      <c r="F92" s="155"/>
+      <c r="G92" s="155"/>
+      <c r="H92" s="155"/>
+      <c r="I92" s="155"/>
+      <c r="J92" s="155"/>
+      <c r="K92" s="155"/>
+      <c r="L92" s="155"/>
+      <c r="M92" s="155"/>
+      <c r="N92" s="155"/>
+      <c r="O92" s="155"/>
+      <c r="P92" s="156"/>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" s="154"/>
+      <c r="C93" s="155"/>
+      <c r="E93" s="155"/>
+      <c r="F93" s="155"/>
+      <c r="G93" s="155"/>
+      <c r="H93" s="155"/>
+      <c r="I93" s="155"/>
+      <c r="J93" s="155"/>
+      <c r="K93" s="155"/>
+      <c r="L93" s="155"/>
+      <c r="M93" s="155"/>
+      <c r="N93" s="155"/>
+      <c r="O93" s="155"/>
+      <c r="P93" s="156"/>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" s="154"/>
+      <c r="C94" s="155"/>
+      <c r="E94" s="155"/>
+      <c r="F94" s="155"/>
+      <c r="G94" s="155"/>
+      <c r="H94" s="155"/>
+      <c r="I94" s="155"/>
+      <c r="J94" s="155"/>
+      <c r="K94" s="155"/>
+      <c r="L94" s="155"/>
+      <c r="M94" s="155"/>
+      <c r="N94" s="155"/>
+      <c r="O94" s="155"/>
+      <c r="P94" s="156"/>
+    </row>
+    <row r="95" spans="2:16">
+      <c r="B95" s="154"/>
+      <c r="C95" s="155"/>
+      <c r="E95" s="155"/>
+      <c r="F95" s="155"/>
+      <c r="G95" s="155"/>
+      <c r="H95" s="155"/>
+      <c r="I95" s="155"/>
+      <c r="J95" s="155"/>
+      <c r="K95" s="155"/>
+      <c r="L95" s="155"/>
+      <c r="M95" s="155"/>
+      <c r="N95" s="155"/>
+      <c r="O95" s="155"/>
+      <c r="P95" s="156"/>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" s="154"/>
+      <c r="C96" s="155"/>
+      <c r="E96" s="155"/>
+      <c r="F96" s="155"/>
+      <c r="G96" s="155"/>
+      <c r="H96" s="155"/>
+      <c r="I96" s="155"/>
+      <c r="J96" s="155"/>
+      <c r="K96" s="155"/>
+      <c r="L96" s="155"/>
+      <c r="M96" s="155"/>
+      <c r="N96" s="155"/>
+      <c r="O96" s="155"/>
+      <c r="P96" s="156"/>
+    </row>
+    <row r="97" spans="2:16">
+      <c r="B97" s="154"/>
+      <c r="C97" s="155"/>
+      <c r="E97" s="155"/>
+      <c r="F97" s="155"/>
+      <c r="G97" s="155"/>
+      <c r="H97" s="155"/>
+      <c r="I97" s="155"/>
+      <c r="J97" s="155"/>
+      <c r="K97" s="155"/>
+      <c r="L97" s="155"/>
+      <c r="M97" s="155"/>
+      <c r="N97" s="155"/>
+      <c r="O97" s="155"/>
+      <c r="P97" s="156"/>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="154"/>
+      <c r="C98" s="155"/>
+      <c r="E98" s="155"/>
+      <c r="F98" s="155"/>
+      <c r="G98" s="155"/>
+      <c r="H98" s="155"/>
+      <c r="I98" s="155"/>
+      <c r="J98" s="155"/>
+      <c r="K98" s="155"/>
+      <c r="L98" s="155"/>
+      <c r="M98" s="155"/>
+      <c r="N98" s="155"/>
+      <c r="O98" s="155"/>
+      <c r="P98" s="156"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="154"/>
+      <c r="C99" s="155"/>
+      <c r="E99" s="155"/>
+      <c r="F99" s="155"/>
+      <c r="G99" s="155"/>
+      <c r="H99" s="155"/>
+      <c r="I99" s="155"/>
+      <c r="J99" s="155"/>
+      <c r="K99" s="155"/>
+      <c r="L99" s="155"/>
+      <c r="M99" s="155"/>
+      <c r="N99" s="155"/>
+      <c r="O99" s="155"/>
+      <c r="P99" s="156"/>
+    </row>
+    <row r="100" spans="2:16">
+      <c r="B100" s="154"/>
+      <c r="C100" s="155"/>
+      <c r="E100" s="155"/>
+      <c r="F100" s="155"/>
+      <c r="G100" s="155"/>
+      <c r="H100" s="155"/>
+      <c r="I100" s="155"/>
+      <c r="J100" s="155"/>
+      <c r="K100" s="155"/>
+      <c r="L100" s="155"/>
+      <c r="M100" s="155"/>
+      <c r="N100" s="155"/>
+      <c r="O100" s="155"/>
+      <c r="P100" s="156"/>
+    </row>
+    <row r="101" spans="2:16">
+      <c r="B101" s="154"/>
+      <c r="C101" s="155"/>
+      <c r="E101" s="155"/>
+      <c r="F101" s="155"/>
+      <c r="G101" s="155"/>
+      <c r="H101" s="155"/>
+      <c r="I101" s="155"/>
+      <c r="J101" s="155"/>
+      <c r="K101" s="155"/>
+      <c r="L101" s="155"/>
+      <c r="M101" s="155"/>
+      <c r="N101" s="155"/>
+      <c r="O101" s="155"/>
+      <c r="P101" s="156"/>
+    </row>
+    <row r="102" spans="2:16">
+      <c r="B102" s="154"/>
+      <c r="C102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
+      <c r="H102" s="155"/>
+      <c r="I102" s="155"/>
+      <c r="J102" s="155"/>
+      <c r="K102" s="155"/>
+      <c r="L102" s="155"/>
+      <c r="M102" s="155"/>
+      <c r="N102" s="155"/>
+      <c r="O102" s="155"/>
+      <c r="P102" s="156"/>
+    </row>
+    <row r="103" spans="2:16">
+      <c r="B103" s="154"/>
+      <c r="C103" s="155"/>
+      <c r="E103" s="155"/>
+      <c r="F103" s="155"/>
+      <c r="G103" s="155"/>
+      <c r="H103" s="155"/>
+      <c r="I103" s="155"/>
+      <c r="J103" s="155"/>
+      <c r="K103" s="155"/>
+      <c r="L103" s="155"/>
+      <c r="M103" s="155"/>
+      <c r="N103" s="155"/>
+      <c r="O103" s="155"/>
+      <c r="P103" s="156"/>
+    </row>
+    <row r="104" spans="2:16">
+      <c r="B104" s="154"/>
+      <c r="C104" s="155"/>
+      <c r="E104" s="155"/>
+      <c r="F104" s="155"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="155"/>
+      <c r="I104" s="155"/>
+      <c r="J104" s="155"/>
+      <c r="K104" s="155"/>
+      <c r="L104" s="155"/>
+      <c r="M104" s="155"/>
+      <c r="N104" s="155"/>
+      <c r="O104" s="155"/>
+      <c r="P104" s="156"/>
+    </row>
+    <row r="105" spans="2:16">
+      <c r="B105" s="154"/>
+      <c r="C105" s="155"/>
+      <c r="E105" s="155"/>
+      <c r="F105" s="155"/>
+      <c r="G105" s="155"/>
+      <c r="H105" s="155"/>
+      <c r="I105" s="155"/>
+      <c r="J105" s="155"/>
+      <c r="K105" s="155"/>
+      <c r="L105" s="155"/>
+      <c r="M105" s="155"/>
+      <c r="N105" s="155"/>
+      <c r="O105" s="155"/>
+      <c r="P105" s="156"/>
+    </row>
+    <row r="106" spans="2:16">
+      <c r="B106" s="154"/>
+      <c r="C106" s="160" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="155">
+        <v>1000</v>
+      </c>
+      <c r="F106" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="G106" s="160"/>
+      <c r="H106" s="155"/>
+      <c r="I106" s="155"/>
+      <c r="J106" s="155"/>
+      <c r="K106" s="155"/>
+      <c r="L106" s="155"/>
+      <c r="M106" s="155"/>
+      <c r="N106" s="155"/>
+      <c r="O106" s="155"/>
+      <c r="P106" s="156"/>
+    </row>
+    <row r="107" spans="2:16">
+      <c r="B107" s="154"/>
+      <c r="C107" s="160" t="s">
         <v>144</v>
       </c>
-      <c r="G80" s="157"/>
-      <c r="H80" s="157"/>
-      <c r="I80" s="157"/>
-      <c r="J80" s="157"/>
-      <c r="K80" s="157"/>
-      <c r="L80" s="157"/>
-      <c r="M80" s="157"/>
-      <c r="N80" s="157"/>
-      <c r="O80" s="157"/>
-      <c r="P80" s="158"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="156"/>
-      <c r="C81" s="157"/>
-      <c r="E81" s="157">
-        <v>25</v>
-      </c>
-      <c r="F81" s="159" t="s">
-        <v>140</v>
-      </c>
-      <c r="G81" s="157"/>
-      <c r="H81" s="157"/>
-      <c r="I81" s="157"/>
-      <c r="J81" s="157"/>
-      <c r="K81" s="157"/>
-      <c r="L81" s="157"/>
-      <c r="M81" s="157"/>
-      <c r="N81" s="157"/>
-      <c r="O81" s="157"/>
-      <c r="P81" s="158"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B82" s="156"/>
-      <c r="C82" s="157"/>
-      <c r="E82" s="157"/>
-      <c r="F82" s="157"/>
-      <c r="G82" s="157"/>
-      <c r="H82" s="157"/>
-      <c r="I82" s="157"/>
-      <c r="J82" s="157"/>
-      <c r="K82" s="157"/>
-      <c r="L82" s="157"/>
-      <c r="M82" s="157"/>
-      <c r="N82" s="157"/>
-      <c r="O82" s="157"/>
-      <c r="P82" s="158"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B83" s="156"/>
-      <c r="C83" s="157"/>
-      <c r="E83" s="157"/>
-      <c r="F83" s="157"/>
-      <c r="G83" s="157"/>
-      <c r="H83" s="157"/>
-      <c r="I83" s="157"/>
-      <c r="J83" s="157"/>
-      <c r="K83" s="157"/>
-      <c r="L83" s="157"/>
-      <c r="M83" s="157"/>
-      <c r="N83" s="157"/>
-      <c r="O83" s="157"/>
-      <c r="P83" s="158"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="156"/>
-      <c r="C84" s="157"/>
-      <c r="E84" s="157"/>
-      <c r="F84" s="157"/>
-      <c r="G84" s="157"/>
-      <c r="H84" s="157"/>
-      <c r="I84" s="157"/>
-      <c r="J84" s="157"/>
-      <c r="K84" s="157"/>
-      <c r="L84" s="157"/>
-      <c r="M84" s="157"/>
-      <c r="N84" s="157"/>
-      <c r="O84" s="157"/>
-      <c r="P84" s="158"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="156"/>
-      <c r="C85" s="157"/>
-      <c r="E85" s="157"/>
-      <c r="F85" s="157"/>
-      <c r="G85" s="157"/>
-      <c r="H85" s="157"/>
-      <c r="I85" s="157"/>
-      <c r="J85" s="157"/>
-      <c r="K85" s="157"/>
-      <c r="L85" s="157"/>
-      <c r="M85" s="157"/>
-      <c r="N85" s="157"/>
-      <c r="O85" s="157"/>
-      <c r="P85" s="158"/>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B86" s="156"/>
-      <c r="C86" s="157"/>
-      <c r="E86" s="157"/>
-      <c r="F86" s="157"/>
-      <c r="G86" s="157"/>
-      <c r="H86" s="157"/>
-      <c r="I86" s="157"/>
-      <c r="J86" s="157"/>
-      <c r="K86" s="157"/>
-      <c r="L86" s="157"/>
-      <c r="M86" s="157"/>
-      <c r="N86" s="157"/>
-      <c r="O86" s="157"/>
-      <c r="P86" s="158"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="156"/>
-      <c r="C87" s="162" t="s">
-        <v>151</v>
-      </c>
-      <c r="E87" s="157"/>
-      <c r="F87" s="157"/>
-      <c r="G87" s="157"/>
-      <c r="H87" s="157"/>
-      <c r="I87" s="157"/>
-      <c r="J87" s="157"/>
-      <c r="K87" s="157"/>
-      <c r="L87" s="157"/>
-      <c r="M87" s="157"/>
-      <c r="N87" s="157"/>
-      <c r="O87" s="157"/>
-      <c r="P87" s="158"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="156"/>
-      <c r="C88" s="162" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="157"/>
-      <c r="F88" s="157"/>
-      <c r="G88" s="157"/>
-      <c r="H88" s="157"/>
-      <c r="I88" s="157"/>
-      <c r="J88" s="157"/>
-      <c r="K88" s="157"/>
-      <c r="L88" s="157"/>
-      <c r="M88" s="157"/>
-      <c r="N88" s="157"/>
-      <c r="O88" s="157"/>
-      <c r="P88" s="158"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="156"/>
-      <c r="C89" s="157"/>
-      <c r="E89" s="157"/>
-      <c r="F89" s="157"/>
-      <c r="G89" s="157"/>
-      <c r="H89" s="157"/>
-      <c r="I89" s="157"/>
-      <c r="J89" s="157"/>
-      <c r="K89" s="157"/>
-      <c r="L89" s="157"/>
-      <c r="M89" s="157"/>
-      <c r="N89" s="157"/>
-      <c r="O89" s="157"/>
-      <c r="P89" s="158"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="156"/>
-      <c r="C90" s="157"/>
-      <c r="E90" s="157"/>
-      <c r="F90" s="157"/>
-      <c r="G90" s="157"/>
-      <c r="H90" s="157"/>
-      <c r="I90" s="157"/>
-      <c r="J90" s="157"/>
-      <c r="K90" s="157"/>
-      <c r="L90" s="157"/>
-      <c r="M90" s="157"/>
-      <c r="N90" s="157"/>
-      <c r="O90" s="157"/>
-      <c r="P90" s="158"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="156"/>
-      <c r="C91" s="157"/>
-      <c r="E91" s="157"/>
-      <c r="F91" s="157"/>
-      <c r="G91" s="157"/>
-      <c r="H91" s="157"/>
-      <c r="I91" s="157"/>
-      <c r="J91" s="157"/>
-      <c r="K91" s="157"/>
-      <c r="L91" s="157"/>
-      <c r="M91" s="157"/>
-      <c r="N91" s="157"/>
-      <c r="O91" s="157"/>
-      <c r="P91" s="158"/>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="156"/>
-      <c r="C92" s="157"/>
-      <c r="E92" s="157"/>
-      <c r="F92" s="157"/>
-      <c r="G92" s="157"/>
-      <c r="H92" s="157"/>
-      <c r="I92" s="157"/>
-      <c r="J92" s="157"/>
-      <c r="K92" s="157"/>
-      <c r="L92" s="157"/>
-      <c r="M92" s="157"/>
-      <c r="N92" s="157"/>
-      <c r="O92" s="157"/>
-      <c r="P92" s="158"/>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="156"/>
-      <c r="C93" s="157"/>
-      <c r="E93" s="157"/>
-      <c r="F93" s="157"/>
-      <c r="G93" s="157"/>
-      <c r="H93" s="157"/>
-      <c r="I93" s="157"/>
-      <c r="J93" s="157"/>
-      <c r="K93" s="157"/>
-      <c r="L93" s="157"/>
-      <c r="M93" s="157"/>
-      <c r="N93" s="157"/>
-      <c r="O93" s="157"/>
-      <c r="P93" s="158"/>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B94" s="156"/>
-      <c r="C94" s="157"/>
-      <c r="E94" s="157"/>
-      <c r="F94" s="157"/>
-      <c r="G94" s="157"/>
-      <c r="H94" s="157"/>
-      <c r="I94" s="157"/>
-      <c r="J94" s="157"/>
-      <c r="K94" s="157"/>
-      <c r="L94" s="157"/>
-      <c r="M94" s="157"/>
-      <c r="N94" s="157"/>
-      <c r="O94" s="157"/>
-      <c r="P94" s="158"/>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B95" s="156"/>
-      <c r="C95" s="157"/>
-      <c r="E95" s="157"/>
-      <c r="F95" s="157"/>
-      <c r="G95" s="157"/>
-      <c r="H95" s="157"/>
-      <c r="I95" s="157"/>
-      <c r="J95" s="157"/>
-      <c r="K95" s="157"/>
-      <c r="L95" s="157"/>
-      <c r="M95" s="157"/>
-      <c r="N95" s="157"/>
-      <c r="O95" s="157"/>
-      <c r="P95" s="158"/>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B96" s="156"/>
-      <c r="C96" s="157"/>
-      <c r="E96" s="157"/>
-      <c r="F96" s="157"/>
-      <c r="G96" s="157"/>
-      <c r="H96" s="157"/>
-      <c r="I96" s="157"/>
-      <c r="J96" s="157"/>
-      <c r="K96" s="157"/>
-      <c r="L96" s="157"/>
-      <c r="M96" s="157"/>
-      <c r="N96" s="157"/>
-      <c r="O96" s="157"/>
-      <c r="P96" s="158"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B97" s="156"/>
-      <c r="C97" s="157"/>
-      <c r="E97" s="157"/>
-      <c r="F97" s="157"/>
-      <c r="G97" s="157"/>
-      <c r="H97" s="157"/>
-      <c r="I97" s="157"/>
-      <c r="J97" s="157"/>
-      <c r="K97" s="157"/>
-      <c r="L97" s="157"/>
-      <c r="M97" s="157"/>
-      <c r="N97" s="157"/>
-      <c r="O97" s="157"/>
-      <c r="P97" s="158"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B98" s="156"/>
-      <c r="C98" s="157"/>
-      <c r="E98" s="157"/>
-      <c r="F98" s="157"/>
-      <c r="G98" s="157"/>
-      <c r="H98" s="157"/>
-      <c r="I98" s="157"/>
-      <c r="J98" s="157"/>
-      <c r="K98" s="157"/>
-      <c r="L98" s="157"/>
-      <c r="M98" s="157"/>
-      <c r="N98" s="157"/>
-      <c r="O98" s="157"/>
-      <c r="P98" s="158"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B99" s="156"/>
-      <c r="C99" s="157"/>
-      <c r="E99" s="157"/>
-      <c r="F99" s="157"/>
-      <c r="G99" s="157"/>
-      <c r="H99" s="157"/>
-      <c r="I99" s="157"/>
-      <c r="J99" s="157"/>
-      <c r="K99" s="157"/>
-      <c r="L99" s="157"/>
-      <c r="M99" s="157"/>
-      <c r="N99" s="157"/>
-      <c r="O99" s="157"/>
-      <c r="P99" s="158"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B100" s="156"/>
-      <c r="C100" s="157"/>
-      <c r="E100" s="157"/>
-      <c r="F100" s="157"/>
-      <c r="G100" s="157"/>
-      <c r="H100" s="157"/>
-      <c r="I100" s="157"/>
-      <c r="J100" s="157"/>
-      <c r="K100" s="157"/>
-      <c r="L100" s="157"/>
-      <c r="M100" s="157"/>
-      <c r="N100" s="157"/>
-      <c r="O100" s="157"/>
-      <c r="P100" s="158"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B101" s="156"/>
-      <c r="C101" s="157"/>
-      <c r="E101" s="157"/>
-      <c r="F101" s="157"/>
-      <c r="G101" s="157"/>
-      <c r="H101" s="157"/>
-      <c r="I101" s="157"/>
-      <c r="J101" s="157"/>
-      <c r="K101" s="157"/>
-      <c r="L101" s="157"/>
-      <c r="M101" s="157"/>
-      <c r="N101" s="157"/>
-      <c r="O101" s="157"/>
-      <c r="P101" s="158"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B102" s="156"/>
-      <c r="C102" s="157"/>
-      <c r="E102" s="157"/>
-      <c r="F102" s="157"/>
-      <c r="G102" s="157"/>
-      <c r="H102" s="157"/>
-      <c r="I102" s="157"/>
-      <c r="J102" s="157"/>
-      <c r="K102" s="157"/>
-      <c r="L102" s="157"/>
-      <c r="M102" s="157"/>
-      <c r="N102" s="157"/>
-      <c r="O102" s="157"/>
-      <c r="P102" s="158"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B103" s="156"/>
-      <c r="C103" s="157"/>
-      <c r="E103" s="157"/>
-      <c r="F103" s="157"/>
-      <c r="G103" s="157"/>
-      <c r="H103" s="157"/>
-      <c r="I103" s="157"/>
-      <c r="J103" s="157"/>
-      <c r="K103" s="157"/>
-      <c r="L103" s="157"/>
-      <c r="M103" s="157"/>
-      <c r="N103" s="157"/>
-      <c r="O103" s="157"/>
-      <c r="P103" s="158"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B104" s="156"/>
-      <c r="C104" s="157"/>
-      <c r="E104" s="157"/>
-      <c r="F104" s="157"/>
-      <c r="G104" s="157"/>
-      <c r="H104" s="157"/>
-      <c r="I104" s="157"/>
-      <c r="J104" s="157"/>
-      <c r="K104" s="157"/>
-      <c r="L104" s="157"/>
-      <c r="M104" s="157"/>
-      <c r="N104" s="157"/>
-      <c r="O104" s="157"/>
-      <c r="P104" s="158"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="156"/>
-      <c r="C105" s="157"/>
-      <c r="E105" s="157"/>
-      <c r="F105" s="157"/>
-      <c r="G105" s="157"/>
-      <c r="H105" s="157"/>
-      <c r="I105" s="157"/>
-      <c r="J105" s="157"/>
-      <c r="K105" s="157"/>
-      <c r="L105" s="157"/>
-      <c r="M105" s="157"/>
-      <c r="N105" s="157"/>
-      <c r="O105" s="157"/>
-      <c r="P105" s="158"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="156"/>
-      <c r="C106" s="162" t="s">
-        <v>153</v>
-      </c>
-      <c r="E106" s="157">
-        <v>1000</v>
-      </c>
-      <c r="F106" s="162" t="s">
-        <v>133</v>
-      </c>
-      <c r="G106" s="162"/>
-      <c r="H106" s="157"/>
-      <c r="I106" s="157"/>
-      <c r="J106" s="157"/>
-      <c r="K106" s="157"/>
-      <c r="L106" s="157"/>
-      <c r="M106" s="157"/>
-      <c r="N106" s="157"/>
-      <c r="O106" s="157"/>
-      <c r="P106" s="158"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="156"/>
-      <c r="C107" s="162" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="157">
+      <c r="E107" s="155">
         <v>3</v>
       </c>
-      <c r="F107" s="162" t="s">
-        <v>155</v>
-      </c>
-      <c r="G107" s="157"/>
-      <c r="H107" s="157"/>
-      <c r="I107" s="157"/>
-      <c r="J107" s="157"/>
-      <c r="K107" s="157"/>
-      <c r="L107" s="157"/>
-      <c r="M107" s="157"/>
-      <c r="N107" s="157"/>
-      <c r="O107" s="157"/>
-      <c r="P107" s="158"/>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="156"/>
-      <c r="C108" s="157"/>
-      <c r="D108" s="157"/>
-      <c r="E108" s="157"/>
-      <c r="F108" s="157"/>
-      <c r="G108" s="157"/>
-      <c r="H108" s="157"/>
-      <c r="I108" s="157"/>
-      <c r="J108" s="157"/>
-      <c r="K108" s="157"/>
-      <c r="L108" s="157"/>
-      <c r="M108" s="157"/>
-      <c r="N108" s="157"/>
-      <c r="O108" s="157"/>
-      <c r="P108" s="158"/>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="156"/>
-      <c r="C109" s="157"/>
-      <c r="D109" s="157"/>
-      <c r="E109" s="157"/>
-      <c r="F109" s="157"/>
-      <c r="G109" s="157"/>
-      <c r="H109" s="157"/>
-      <c r="I109" s="157"/>
-      <c r="J109" s="157"/>
-      <c r="K109" s="157"/>
-      <c r="L109" s="157"/>
-      <c r="M109" s="157"/>
-      <c r="N109" s="157"/>
-      <c r="O109" s="157"/>
-      <c r="P109" s="158"/>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="156"/>
-      <c r="C110" s="157"/>
-      <c r="D110" s="157"/>
-      <c r="E110" s="157"/>
-      <c r="F110" s="157"/>
-      <c r="G110" s="157"/>
-      <c r="H110" s="157"/>
-      <c r="I110" s="157"/>
-      <c r="J110" s="157"/>
-      <c r="K110" s="157"/>
-      <c r="L110" s="157"/>
-      <c r="M110" s="157"/>
-      <c r="N110" s="157"/>
-      <c r="O110" s="157"/>
-      <c r="P110" s="158"/>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="156"/>
-      <c r="C111" s="157"/>
-      <c r="D111" s="157"/>
-      <c r="E111" s="157"/>
-      <c r="F111" s="157"/>
-      <c r="G111" s="157"/>
-      <c r="H111" s="157"/>
-      <c r="I111" s="157"/>
-      <c r="J111" s="157"/>
-      <c r="K111" s="157"/>
-      <c r="L111" s="157"/>
-      <c r="M111" s="157"/>
-      <c r="N111" s="157"/>
-      <c r="O111" s="157"/>
-      <c r="P111" s="158"/>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B112" s="156"/>
-      <c r="C112" s="157"/>
-      <c r="D112" s="157"/>
-      <c r="E112" s="157"/>
-      <c r="F112" s="157"/>
-      <c r="G112" s="157"/>
-      <c r="H112" s="157"/>
-      <c r="I112" s="157"/>
-      <c r="J112" s="157"/>
-      <c r="K112" s="157"/>
-      <c r="L112" s="157"/>
-      <c r="M112" s="157"/>
-      <c r="N112" s="157"/>
-      <c r="O112" s="157"/>
-      <c r="P112" s="158"/>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B113" s="156"/>
-      <c r="C113" s="157"/>
-      <c r="D113" s="157"/>
-      <c r="E113" s="157"/>
-      <c r="F113" s="157"/>
-      <c r="G113" s="157"/>
-      <c r="H113" s="157"/>
-      <c r="I113" s="157"/>
-      <c r="J113" s="157"/>
-      <c r="K113" s="157"/>
-      <c r="L113" s="157"/>
-      <c r="M113" s="157"/>
-      <c r="N113" s="157"/>
-      <c r="O113" s="157"/>
-      <c r="P113" s="158"/>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B114" s="156"/>
-      <c r="C114" s="157"/>
-      <c r="D114" s="157"/>
-      <c r="E114" s="157"/>
-      <c r="F114" s="157"/>
-      <c r="G114" s="157"/>
-      <c r="H114" s="157"/>
-      <c r="I114" s="157"/>
-      <c r="J114" s="157"/>
-      <c r="K114" s="157"/>
-      <c r="L114" s="157"/>
-      <c r="M114" s="157"/>
-      <c r="N114" s="157"/>
-      <c r="O114" s="157"/>
-      <c r="P114" s="158"/>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B115" s="156"/>
-      <c r="C115" s="157"/>
-      <c r="D115" s="157"/>
-      <c r="E115" s="157"/>
-      <c r="F115" s="157"/>
-      <c r="G115" s="157"/>
-      <c r="H115" s="157"/>
-      <c r="I115" s="157"/>
-      <c r="J115" s="157"/>
-      <c r="K115" s="157"/>
-      <c r="L115" s="157"/>
-      <c r="M115" s="157"/>
-      <c r="N115" s="157"/>
-      <c r="O115" s="157"/>
-      <c r="P115" s="158"/>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B116" s="156"/>
-      <c r="C116" s="157"/>
-      <c r="D116" s="157"/>
-      <c r="E116" s="157"/>
-      <c r="F116" s="157"/>
-      <c r="G116" s="157"/>
-      <c r="H116" s="157"/>
-      <c r="I116" s="157"/>
-      <c r="J116" s="157"/>
-      <c r="K116" s="157"/>
-      <c r="L116" s="157"/>
-      <c r="M116" s="157"/>
-      <c r="N116" s="157"/>
-      <c r="O116" s="157"/>
-      <c r="P116" s="158"/>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B117" s="156"/>
-      <c r="C117" s="157"/>
-      <c r="D117" s="157"/>
-      <c r="E117" s="157"/>
-      <c r="F117" s="157"/>
-      <c r="G117" s="157"/>
-      <c r="H117" s="157"/>
-      <c r="I117" s="157"/>
-      <c r="J117" s="157"/>
-      <c r="K117" s="157"/>
-      <c r="L117" s="157"/>
-      <c r="M117" s="157"/>
-      <c r="N117" s="157"/>
-      <c r="O117" s="157"/>
-      <c r="P117" s="158"/>
+      <c r="F107" s="160" t="s">
+        <v>145</v>
+      </c>
+      <c r="G107" s="155"/>
+      <c r="H107" s="155"/>
+      <c r="I107" s="155"/>
+      <c r="J107" s="155"/>
+      <c r="K107" s="155"/>
+      <c r="L107" s="155"/>
+      <c r="M107" s="155"/>
+      <c r="N107" s="155"/>
+      <c r="O107" s="155"/>
+      <c r="P107" s="156"/>
+    </row>
+    <row r="108" spans="2:16">
+      <c r="B108" s="154"/>
+      <c r="C108" s="155"/>
+      <c r="D108" s="155"/>
+      <c r="E108" s="155"/>
+      <c r="F108" s="155"/>
+      <c r="G108" s="155"/>
+      <c r="H108" s="155"/>
+      <c r="I108" s="155"/>
+      <c r="J108" s="155"/>
+      <c r="K108" s="155"/>
+      <c r="L108" s="155"/>
+      <c r="M108" s="155"/>
+      <c r="N108" s="155"/>
+      <c r="O108" s="155"/>
+      <c r="P108" s="156"/>
+    </row>
+    <row r="109" spans="2:16">
+      <c r="B109" s="154"/>
+      <c r="C109" s="155"/>
+      <c r="D109" s="155"/>
+      <c r="E109" s="155"/>
+      <c r="F109" s="155"/>
+      <c r="G109" s="155"/>
+      <c r="H109" s="155"/>
+      <c r="I109" s="155"/>
+      <c r="J109" s="155"/>
+      <c r="K109" s="155"/>
+      <c r="L109" s="155"/>
+      <c r="M109" s="155"/>
+      <c r="N109" s="155"/>
+      <c r="O109" s="155"/>
+      <c r="P109" s="156"/>
+    </row>
+    <row r="110" spans="2:16">
+      <c r="B110" s="154"/>
+      <c r="C110" s="155"/>
+      <c r="D110" s="155"/>
+      <c r="E110" s="155"/>
+      <c r="F110" s="155"/>
+      <c r="G110" s="155"/>
+      <c r="H110" s="155"/>
+      <c r="I110" s="155"/>
+      <c r="J110" s="155"/>
+      <c r="K110" s="155"/>
+      <c r="L110" s="155"/>
+      <c r="M110" s="155"/>
+      <c r="N110" s="155"/>
+      <c r="O110" s="155"/>
+      <c r="P110" s="156"/>
+    </row>
+    <row r="111" spans="2:16">
+      <c r="B111" s="154"/>
+      <c r="C111" s="155"/>
+      <c r="D111" s="155"/>
+      <c r="E111" s="155"/>
+      <c r="F111" s="155"/>
+      <c r="G111" s="155"/>
+      <c r="H111" s="155"/>
+      <c r="I111" s="155"/>
+      <c r="J111" s="155"/>
+      <c r="K111" s="155"/>
+      <c r="L111" s="155"/>
+      <c r="M111" s="155"/>
+      <c r="N111" s="155"/>
+      <c r="O111" s="155"/>
+      <c r="P111" s="156"/>
+    </row>
+    <row r="112" spans="2:16">
+      <c r="B112" s="154"/>
+      <c r="C112" s="155"/>
+      <c r="D112" s="155"/>
+      <c r="E112" s="155"/>
+      <c r="F112" s="155"/>
+      <c r="G112" s="155"/>
+      <c r="H112" s="155"/>
+      <c r="I112" s="155"/>
+      <c r="J112" s="155"/>
+      <c r="K112" s="155"/>
+      <c r="L112" s="155"/>
+      <c r="M112" s="155"/>
+      <c r="N112" s="155"/>
+      <c r="O112" s="155"/>
+      <c r="P112" s="156"/>
+    </row>
+    <row r="113" spans="2:16">
+      <c r="B113" s="154"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="155"/>
+      <c r="E113" s="155"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
+      <c r="H113" s="155"/>
+      <c r="I113" s="155"/>
+      <c r="J113" s="155"/>
+      <c r="K113" s="155"/>
+      <c r="L113" s="155"/>
+      <c r="M113" s="155"/>
+      <c r="N113" s="155"/>
+      <c r="O113" s="155"/>
+      <c r="P113" s="156"/>
+    </row>
+    <row r="114" spans="2:16">
+      <c r="B114" s="154"/>
+      <c r="C114" s="155"/>
+      <c r="D114" s="155"/>
+      <c r="E114" s="155"/>
+      <c r="F114" s="155"/>
+      <c r="G114" s="155"/>
+      <c r="H114" s="155"/>
+      <c r="I114" s="155"/>
+      <c r="J114" s="155"/>
+      <c r="K114" s="155"/>
+      <c r="L114" s="155"/>
+      <c r="M114" s="155"/>
+      <c r="N114" s="155"/>
+      <c r="O114" s="155"/>
+      <c r="P114" s="156"/>
+    </row>
+    <row r="115" spans="2:16">
+      <c r="B115" s="154"/>
+      <c r="C115" s="155"/>
+      <c r="D115" s="155"/>
+      <c r="E115" s="155"/>
+      <c r="F115" s="155"/>
+      <c r="G115" s="155"/>
+      <c r="H115" s="155"/>
+      <c r="I115" s="155"/>
+      <c r="J115" s="155"/>
+      <c r="K115" s="155"/>
+      <c r="L115" s="155"/>
+      <c r="M115" s="155"/>
+      <c r="N115" s="155"/>
+      <c r="O115" s="155"/>
+      <c r="P115" s="156"/>
+    </row>
+    <row r="116" spans="2:16">
+      <c r="B116" s="154"/>
+      <c r="C116" s="155"/>
+      <c r="D116" s="155"/>
+      <c r="E116" s="155"/>
+      <c r="F116" s="155"/>
+      <c r="G116" s="155"/>
+      <c r="H116" s="155"/>
+      <c r="I116" s="155"/>
+      <c r="J116" s="155"/>
+      <c r="K116" s="155"/>
+      <c r="L116" s="155"/>
+      <c r="M116" s="155"/>
+      <c r="N116" s="155"/>
+      <c r="O116" s="155"/>
+      <c r="P116" s="156"/>
+    </row>
+    <row r="117" spans="2:16">
+      <c r="B117" s="154"/>
+      <c r="C117" s="155"/>
+      <c r="D117" s="155"/>
+      <c r="E117" s="155"/>
+      <c r="F117" s="155"/>
+      <c r="G117" s="155"/>
+      <c r="H117" s="155"/>
+      <c r="I117" s="155"/>
+      <c r="J117" s="155"/>
+      <c r="K117" s="155"/>
+      <c r="L117" s="155"/>
+      <c r="M117" s="155"/>
+      <c r="N117" s="155"/>
+      <c r="O117" s="155"/>
+      <c r="P117" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Git/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE7BD2-2B0E-C746-815A-9F1BAB1923BA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA0A514-9473-1F4A-B91E-0F36B8EFCE64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="187">
   <si>
     <t>Source</t>
   </si>
@@ -577,9 +583,6 @@
   </si>
   <si>
     <t>yr</t>
-  </si>
-  <si>
-    <t>Ennergymatters</t>
   </si>
   <si>
     <t>p.1</t>
@@ -1634,7 +1637,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1984,6 +1987,7 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2875,12 +2879,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2906,7 +2910,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3054,23 +3058,23 @@
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3081,7 +3085,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="190" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="191"/>
       <c r="D2" s="191"/>
@@ -3180,7 +3184,7 @@
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
       <c r="I10" s="188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J10" s="42"/>
     </row>
@@ -3200,7 +3204,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
       <c r="I11" s="188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J11" s="42"/>
     </row>
@@ -3302,7 +3306,7 @@
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J16" s="129"/>
     </row>
@@ -3324,7 +3328,7 @@
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J17" s="129"/>
     </row>
@@ -3455,7 +3459,7 @@
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J24" s="129"/>
     </row>
@@ -3477,7 +3481,7 @@
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J25" s="129"/>
     </row>
@@ -3576,7 +3580,7 @@
       </c>
       <c r="E31" s="44">
         <f>'Research data'!G11</f>
-        <v>0.1</v>
+        <v>0.12968399999999999</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
@@ -3628,7 +3632,7 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J33" s="129"/>
     </row>
@@ -3763,29 +3767,29 @@
   </sheetPr>
   <dimension ref="B1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="73" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="73" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="73" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="73" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="73" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="74" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="74" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="73" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="73" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="73" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="74" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="74" customWidth="1"/>
     <col min="10" max="10" width="3" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="74" customWidth="1"/>
     <col min="12" max="12" width="3" style="74" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="74" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="74" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" style="74" customWidth="1"/>
-    <col min="17" max="17" width="110.5" style="73" customWidth="1"/>
-    <col min="18" max="16384" width="10.6640625" style="73"/>
+    <col min="13" max="13" width="8.7109375" style="74" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="74" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="74" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="74" customWidth="1"/>
+    <col min="17" max="17" width="110.42578125" style="73" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1"/>
@@ -3826,7 +3830,7 @@
       </c>
       <c r="J3" s="67"/>
       <c r="K3" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L3" s="67"/>
       <c r="M3" s="67" t="s">
@@ -3890,7 +3894,7 @@
         <v>69</v>
       </c>
       <c r="G6" s="84">
-        <f>ROUND(100,0)</f>
+        <f>I6</f>
         <v>100</v>
       </c>
       <c r="H6" s="80"/>
@@ -3908,7 +3912,7 @@
     <row r="7" spans="2:17" s="164" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="168"/>
       <c r="C7" s="172" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="173" t="s">
         <v>3</v>
@@ -3934,13 +3938,13 @@
       <c r="O7" s="178"/>
       <c r="P7" s="178"/>
       <c r="Q7" s="179" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="164" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="168"/>
       <c r="C8" s="172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="173" t="s">
         <v>3</v>
@@ -3966,7 +3970,7 @@
       <c r="O8" s="178"/>
       <c r="P8" s="178"/>
       <c r="Q8" s="179" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:17">
@@ -4017,7 +4021,8 @@
         <v>4</v>
       </c>
       <c r="G11" s="93">
-        <v>0.1</v>
+        <f>O11</f>
+        <v>0.12968399999999999</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
@@ -4045,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="93">
-        <f>ROUND(2,0)</f>
+        <f>ROUND(M12,0)</f>
         <v>2</v>
       </c>
       <c r="H12" s="88"/>
@@ -4075,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="96">
-        <f>ROUND(25,0)</f>
+        <f>M13</f>
         <v>25</v>
       </c>
       <c r="H13" s="88"/>
@@ -4191,7 +4196,7 @@
     <row r="18" spans="2:17" ht="17" thickBot="1">
       <c r="B18" s="78"/>
       <c r="C18" s="165" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -4245,7 +4250,7 @@
       <c r="O19" s="94"/>
       <c r="P19" s="87"/>
       <c r="Q19" s="166" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="17" thickBot="1">
@@ -4269,7 +4274,7 @@
       <c r="O20" s="94"/>
       <c r="P20" s="87"/>
       <c r="Q20" s="167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="17" thickBot="1">
@@ -4299,7 +4304,7 @@
       <c r="O21" s="94"/>
       <c r="P21" s="87"/>
       <c r="Q21" s="167" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="17" thickBot="1">
@@ -4326,7 +4331,7 @@
       <c r="O22" s="94"/>
       <c r="P22" s="87"/>
       <c r="Q22" s="167" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
@@ -4384,7 +4389,7 @@
       <c r="O24" s="85"/>
       <c r="P24" s="85"/>
       <c r="Q24" s="167" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="17" thickBot="1">
@@ -4432,18 +4437,18 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="35.1640625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="130.33203125" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="46"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="130.28515625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4507,7 +4512,7 @@
         <v>62</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>16</v>
@@ -4543,10 +4548,10 @@
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -4589,7 +4594,7 @@
       <c r="J10" s="55"/>
       <c r="K10" s="71"/>
     </row>
-    <row r="11" spans="2:11" ht="32">
+    <row r="11" spans="2:11" ht="17">
       <c r="B11" s="51"/>
       <c r="C11" s="59"/>
       <c r="D11" s="64"/>
@@ -4607,7 +4612,7 @@
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="59"/>
     </row>
@@ -4656,7 +4661,7 @@
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>70</v>
@@ -4669,10 +4674,10 @@
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -4821,17 +4826,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Q117"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="148" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="148" customWidth="1"/>
     <col min="2" max="2" width="4" style="148" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="148" customWidth="1"/>
-    <col min="4" max="5" width="13.83203125" style="148" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="148"/>
+    <col min="3" max="3" width="13.42578125" style="148" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" style="148" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="148"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
@@ -4909,8 +4914,8 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="154"/>
-      <c r="C6" s="157" t="s">
-        <v>131</v>
+      <c r="C6" s="199" t="s">
+        <v>113</v>
       </c>
       <c r="D6" s="155"/>
       <c r="E6" s="155"/>
@@ -4929,7 +4934,7 @@
     <row r="7" spans="2:16">
       <c r="B7" s="154"/>
       <c r="C7" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="155"/>
       <c r="E7" s="155"/>
@@ -5125,7 +5130,7 @@
       <c r="B18" s="154"/>
       <c r="C18" s="155"/>
       <c r="D18" s="164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="155">
         <f>E34</f>
@@ -5149,7 +5154,7 @@
       <c r="B19" s="154"/>
       <c r="C19" s="155"/>
       <c r="D19" s="164" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" s="155">
         <f>E35</f>
@@ -5173,13 +5178,13 @@
       <c r="B20" s="154"/>
       <c r="C20" s="155"/>
       <c r="D20" s="164" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="155">
         <v>6000</v>
       </c>
       <c r="F20" s="169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G20" s="155"/>
       <c r="H20" s="155"/>
@@ -5306,7 +5311,7 @@
     <row r="28" spans="2:16" s="164" customFormat="1">
       <c r="B28" s="168"/>
       <c r="C28" s="169" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" s="169"/>
       <c r="F28" s="169"/>
@@ -5324,12 +5329,12 @@
     <row r="29" spans="2:16" s="164" customFormat="1">
       <c r="B29" s="168"/>
       <c r="C29" s="169" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" s="169"/>
       <c r="F29" s="169"/>
       <c r="G29" s="169" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H29" s="169"/>
       <c r="I29" s="169"/>
@@ -5347,7 +5352,7 @@
       <c r="E30" s="169"/>
       <c r="F30" s="169"/>
       <c r="G30" s="169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H30" s="169"/>
       <c r="I30" s="169"/>
@@ -5365,7 +5370,7 @@
       <c r="E31" s="169"/>
       <c r="F31" s="169"/>
       <c r="G31" s="169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" s="169"/>
       <c r="I31" s="169"/>
@@ -5399,7 +5404,7 @@
       <c r="E33" s="169"/>
       <c r="F33" s="169"/>
       <c r="G33" s="169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H33" s="169"/>
       <c r="I33" s="169"/>
@@ -5415,7 +5420,7 @@
       <c r="B34" s="168"/>
       <c r="C34" s="169"/>
       <c r="D34" s="169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34" s="169">
         <v>42</v>
@@ -5424,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="171" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H34" s="169"/>
       <c r="I34" s="169"/>
@@ -5440,7 +5445,7 @@
       <c r="B35" s="168"/>
       <c r="C35" s="169"/>
       <c r="D35" s="169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E35" s="169">
         <v>40</v>
@@ -5449,7 +5454,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="171" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H35" s="169"/>
       <c r="I35" s="169"/>
@@ -5466,7 +5471,7 @@
       <c r="C36" s="169"/>
       <c r="E36" s="169"/>
       <c r="G36" s="171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H36" s="169"/>
       <c r="I36" s="169"/>
@@ -5484,7 +5489,7 @@
       <c r="E37" s="169"/>
       <c r="F37" s="169"/>
       <c r="G37" s="171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H37" s="169"/>
       <c r="I37" s="169"/>
@@ -5579,7 +5584,7 @@
     <row r="43" spans="2:16">
       <c r="B43" s="154"/>
       <c r="C43" s="157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="155"/>
       <c r="F43" s="155"/>
@@ -5733,7 +5738,7 @@
       <c r="B52" s="154"/>
       <c r="C52" s="163"/>
       <c r="D52" s="169" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="184">
         <f>E51*E66</f>
@@ -5757,7 +5762,7 @@
       <c r="B53" s="154"/>
       <c r="C53" s="155"/>
       <c r="D53" s="164" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E53" s="184">
         <f>E51*E67</f>
@@ -5908,7 +5913,7 @@
     <row r="62" spans="2:17" s="164" customFormat="1">
       <c r="B62" s="168"/>
       <c r="C62" s="169" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E62" s="169"/>
       <c r="F62" s="169"/>
@@ -5927,12 +5932,12 @@
     <row r="63" spans="2:17" s="164" customFormat="1">
       <c r="B63" s="168"/>
       <c r="C63" s="169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" s="169"/>
       <c r="F63" s="169"/>
       <c r="G63" s="169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H63" s="169"/>
       <c r="I63" s="169"/>
@@ -5985,7 +5990,7 @@
       <c r="B66" s="168"/>
       <c r="C66" s="169"/>
       <c r="D66" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E66" s="183">
         <f>1/3</f>
@@ -5993,7 +5998,7 @@
       </c>
       <c r="F66" s="169"/>
       <c r="G66" s="164" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H66" s="169"/>
       <c r="I66" s="169"/>
@@ -6010,7 +6015,7 @@
       <c r="B67" s="168"/>
       <c r="C67" s="169"/>
       <c r="D67" s="164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E67" s="183">
         <f>2/3</f>
@@ -6018,7 +6023,7 @@
       </c>
       <c r="F67" s="169"/>
       <c r="G67" s="164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H67" s="169"/>
       <c r="I67" s="169"/>
@@ -6037,7 +6042,7 @@
       <c r="E68" s="169"/>
       <c r="F68" s="169"/>
       <c r="G68" s="180" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H68" s="169"/>
       <c r="I68" s="169"/>
@@ -6056,7 +6061,7 @@
       <c r="E69" s="169"/>
       <c r="F69" s="169"/>
       <c r="G69" s="182" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H69" s="169"/>
       <c r="I69" s="169"/>
@@ -6075,7 +6080,7 @@
       <c r="E70" s="169"/>
       <c r="F70" s="169"/>
       <c r="G70" s="181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H70" s="169"/>
       <c r="I70" s="169"/>
@@ -6094,7 +6099,7 @@
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
       <c r="G71" s="181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H71" s="169"/>
       <c r="I71" s="169"/>
@@ -6249,7 +6254,7 @@
         <v>24</v>
       </c>
       <c r="F80" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G80" s="155"/>
       <c r="H80" s="155"/>
@@ -6365,7 +6370,7 @@
     <row r="87" spans="2:16">
       <c r="B87" s="154"/>
       <c r="C87" s="160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E87" s="155"/>
       <c r="F87" s="155"/>
@@ -6383,7 +6388,7 @@
     <row r="88" spans="2:16">
       <c r="B88" s="154"/>
       <c r="C88" s="160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E88" s="155"/>
       <c r="F88" s="155"/>
@@ -6673,7 +6678,7 @@
     <row r="106" spans="2:16">
       <c r="B106" s="154"/>
       <c r="C106" s="160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E106" s="155">
         <v>1000</v>
@@ -6695,13 +6700,13 @@
     <row r="107" spans="2:16">
       <c r="B107" s="154"/>
       <c r="C107" s="160" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E107" s="155">
         <v>3</v>
       </c>
       <c r="F107" s="160" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G107" s="155"/>
       <c r="H107" s="155"/>

--- a/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Git/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA0A514-9473-1F4A-B91E-0F36B8EFCE64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1426F-BDF0-884E-BFE6-1D9A31EC02D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,16 +37,10 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -56,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
   <si>
     <t>Source</t>
   </si>
@@ -91,6 +85,9 @@
     <t>NL</t>
   </si>
   <si>
+    <t>households_supplied_per_unit</t>
+  </si>
+  <si>
     <t>yes=1, no=0</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
     <t>availability</t>
   </si>
   <si>
+    <t>capacity_credit</t>
+  </si>
+  <si>
     <t>free_co2_factor</t>
   </si>
   <si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t xml:space="preserve">         Technical lifetime</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
   <si>
     <t xml:space="preserve">        Land use</t>
@@ -430,6 +427,31 @@
     <t xml:space="preserve">         Initial investment costs </t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Total f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ixed operational and maintenance costs</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">        Fixed operational and maintenance costs </t>
   </si>
   <si>
@@ -534,122 +556,8 @@
     <t>Energymatters</t>
   </si>
   <si>
-    <t>iea-etsap</t>
-  </si>
-  <si>
-    <t>Investment cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Production Electricity yearly</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>The calculations for fixed and variable operating and maintenance costs are described in detail in:</t>
-  </si>
-  <si>
-    <t>Data from Energymatters report is used for the initial investment costs and total operating and maintenance costs</t>
-  </si>
-  <si>
-    <t>Maria Tsagkaraki</t>
-  </si>
-  <si>
-    <t>Technical</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>euro/KW</t>
-  </si>
-  <si>
-    <t>Kw</t>
-  </si>
-  <si>
-    <t>Total O&amp;M cost</t>
-  </si>
-  <si>
-    <t>euro/yr</t>
-  </si>
-  <si>
-    <t>Subject year</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>p.4</t>
-  </si>
-  <si>
-    <t>yr</t>
-  </si>
-  <si>
-    <t>p.1</t>
-  </si>
-  <si>
-    <t>p.5</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>http://www.iea-etsap.org/web/e-techds/pdf/e04-chp-gs-gct_adfinal.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iea-etsap</t>
-  </si>
-  <si>
-    <t>The fixed O&amp;M cost : 1/3 of the total operational and maintenance costs</t>
-  </si>
-  <si>
-    <t>The variable O&amp;M cost : 2/3 of the total operational and maintenance costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ratio of fixed and variable O&amp;M costs is recommended by an expert from Energymatters. </t>
-  </si>
-  <si>
-    <t>Ecofys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecofys </t>
-  </si>
-  <si>
-    <t>p.17</t>
-  </si>
-  <si>
-    <t>Initisal investment</t>
-  </si>
-  <si>
-    <t>Variable O&amp;M</t>
-  </si>
-  <si>
-    <t>euro/MWh</t>
-  </si>
-  <si>
-    <t>http://www.ecofys.com/files/files/ecofys-eci-2014-flexibility-options-in-electricity-systems.pdf</t>
-  </si>
-  <si>
-    <t>ETM Library URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total operational and maintenace cost  has remained the same as Energymatters report. </t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1942</t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1937</t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1943</t>
-  </si>
-  <si>
-    <t>industry_chp_combined_cycle_gas_power_fuelmix.central_producer.ad</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">        </t>
+      <t xml:space="preserve">        Production Elect</t>
     </r>
     <r>
       <rPr>
@@ -659,7 +567,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Total </t>
+      <t>r</t>
     </r>
     <r>
       <rPr>
@@ -669,145 +577,131 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>operational and maintenance costs</t>
+      <t>icity yearly</t>
     </r>
   </si>
   <si>
-    <t>GitHub Ticket: https://github.com/quintel/etsource/issues/272#issuecomment-17880519</t>
-  </si>
-  <si>
-    <t>Correction on Energymatters data</t>
-  </si>
-  <si>
-    <t>https://github.com/quintel/etdataset/issues/275</t>
-  </si>
-  <si>
-    <t>CHPs with steam cycle should have technical efficiencies instead of 'year-averaged' ones</t>
-  </si>
-  <si>
-    <t>The CHPs mentioned in #233 should just get technical efficiencies. Now that we use IEA statistics we have to let go of the concept of 'machine statistics and specs' and just look at the CHP as a simultaneous producer of power and heat. Any power produced when no heat is produced will come from a proper power plant.</t>
-  </si>
-  <si>
-    <t>The EnergyMatters specs were provided with a 'machine statistics' approach. The CHPs mentioned therefore have the wrong efficiencies.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">New efficiencies are cited in this comment on GitHub: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://github.com/quintel/etdataset/issues/275#issuecomment-27776298</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Corrected </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El. efficiency</t>
-    </r>
-  </si>
-  <si>
-    <t>Agriculture: 20% / 85%</t>
-  </si>
-  <si>
-    <t>Corrected heat efficiency</t>
-  </si>
-  <si>
-    <t>Industry STAG: 42% / 40%</t>
-  </si>
-  <si>
-    <t>Small city heat: 20% / 75%</t>
-  </si>
-  <si>
-    <t>Large city heat STAG: 42% / 43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Output electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Output steam hot water</t>
-  </si>
-  <si>
-    <t>Heat output efficiency</t>
-  </si>
-  <si>
-    <t>Electrical output efficiency</t>
-  </si>
-  <si>
-    <t>GitHub issue: https://github.com/quintel/etdataset/issues/275#issuecomment-27776298</t>
-  </si>
-  <si>
-    <t>https://github.com/quintel/etsource/issues/272</t>
-  </si>
-  <si>
-    <t>EnergyMatters data requires some interpretation. We have settled on following the advice given in this comment from EnergyMatters specialist</t>
-  </si>
-  <si>
-    <t>Correspondence with EnergyMatters got the following reply from Peter Goudswaard:</t>
-  </si>
-  <si>
-    <t>De O&amp;M kosten van gasgestookte WKK zijn voor een groot deel variabel, maar dit verschilt wel per type. Je kunt uitgaan van:</t>
-  </si>
-  <si>
-    <t>Gasmotoren: 100% variabel</t>
-  </si>
-  <si>
-    <t>Gasturbine &amp; STEG:2/3 variabel; 1/3 vast</t>
-  </si>
-  <si>
-    <t>Voor biowkk’s hebben we dit in de tabel al opgesplitst</t>
-  </si>
-  <si>
-    <t>Voor kolencentrales en AVI’s is het grootste deel van de O&amp;M-kosten juist weer vast.</t>
-  </si>
-  <si>
-    <t>O&amp;M split fixed</t>
-  </si>
-  <si>
-    <t>O&amp;M split variable</t>
-  </si>
-  <si>
-    <t>Fixed O&amp;M</t>
-  </si>
-  <si>
-    <t>Var O&amp;M</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>FLH as CHP</t>
-  </si>
-  <si>
-    <t>EnergyMatters</t>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>iea-etsap</t>
+  </si>
+  <si>
+    <t>http://www.iea-etsap.org/web/e-techds/pdf/e02-gas_fired_power-gs-ad-gct.pdf</t>
+  </si>
+  <si>
+    <t>The calculations for fixed and variable operating and maintenance costs are described in detail in:</t>
+  </si>
+  <si>
+    <t>GitHub Ticket</t>
+  </si>
+  <si>
+    <t>Maria Tsagkaraki</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Investment cost</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>p.1</t>
+  </si>
+  <si>
+    <t>p.5</t>
+  </si>
+  <si>
+    <t>euro/KW</t>
+  </si>
+  <si>
+    <t>eur</t>
+  </si>
+  <si>
+    <t>euro/yr</t>
+  </si>
+  <si>
+    <t>The fixed O&amp;M cost : 1/3 of the total operational and maintenance costs</t>
+  </si>
+  <si>
+    <t>The variable O&amp;M cost : 2/3 of the total operational and maintenance costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ratio of fixed and variable O&amp;M costs is recommended by an expert from Energymatters. </t>
+  </si>
+  <si>
+    <t>The total O&amp;M cost is slighty higher than the Energymatters report.</t>
+  </si>
+  <si>
+    <t>Data from Energymatters report is used for the initial investment cost and total operating and maintenance costs</t>
+  </si>
+  <si>
+    <t>Subject year</t>
+  </si>
+  <si>
+    <t>p.4</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iea-etsap</t>
+  </si>
+  <si>
+    <t>Ecofys</t>
+  </si>
+  <si>
+    <t>p.17</t>
+  </si>
+  <si>
+    <t>euro/MWh</t>
+  </si>
+  <si>
+    <t>Investment cost</t>
+  </si>
+  <si>
+    <t>http://www.ecofys.com/files/files/ecofys-eci-2014-flexibility-options-in-electricity-systems.pdf</t>
+  </si>
+  <si>
+    <t>Initial investment</t>
+  </si>
+  <si>
+    <t>Vriable O&amp;M</t>
+  </si>
+  <si>
+    <t>ETM Library URL</t>
+  </si>
+  <si>
+    <t>The ratio of fixed and variable O&amp;M costs is close to 1/3 for fixed and 2/3 for variable O&amp;M cost in order to be consistent with the "energy_power_combined_cycle_gas" plant.</t>
+  </si>
+  <si>
+    <t>It is assumed 3 euro/MWh for variable O&amp;M cost and the rest is allocated for fixed O&amp;M cost.</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1937</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1960</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1943</t>
+  </si>
+  <si>
+    <t>The  variable O&amp;M cost for "energy_chp_combined_cycle_gas" plant are slightly higher than the "energy_power_combined_cycle_gas" plant, the fixed O&amp;M has remaines the same</t>
+  </si>
+  <si>
+    <t>energy_chp_combined_cycle_network_gas.central_producer.ad</t>
   </si>
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
@@ -818,44 +712,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -995,7 +862,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1003,7 +869,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1011,7 +876,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1019,7 +883,6 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,7 +890,6 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1035,20 +897,17 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,14 +921,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Lettertype hoofdtekst"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1378,618 +1230,536 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="254">
+  <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="18" xfId="253" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="254">
+  <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2147,12 +1917,6 @@
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2243,7 +2007,6 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="253" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2262,23 +2025,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>109222</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>169522</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,13 +2051,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="-16" b="15708"/>
+        <a:srcRect l="1997"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5956300" y="7551422"/>
-          <a:ext cx="10274300" cy="4060800"/>
+          <a:off x="3708400" y="654058"/>
+          <a:ext cx="9969500" cy="3740142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2305,23 +2068,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,8 +2100,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4635500" y="965200"/>
-          <a:ext cx="10604500" cy="3898900"/>
+          <a:off x="4432300" y="4394200"/>
+          <a:ext cx="10642600" cy="4991100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2349,23 +2112,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>646684</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,8 +2144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4775200" y="9550400"/>
-          <a:ext cx="9867900" cy="2298700"/>
+          <a:off x="3707384" y="8636000"/>
+          <a:ext cx="8205216" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2393,23 +2156,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>449262</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,13 +2182,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect t="2381"/>
+        <a:srcRect t="2230" b="1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5211762" y="12700000"/>
-          <a:ext cx="8072438" cy="5207000"/>
+          <a:off x="4686300" y="12217400"/>
+          <a:ext cx="8001000" cy="5168900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2879,12 +2642,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2895,7 +2658,7 @@
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
@@ -2907,28 +2670,28 @@
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2944,7 +2707,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="106" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="107"/>
     </row>
@@ -2956,31 +2719,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="108" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="108"/>
       <c r="C12" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="108"/>
       <c r="C13" s="111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="108"/>
       <c r="C14" s="109" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2991,58 +2754,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="108" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="108"/>
       <c r="C17" s="113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="108"/>
       <c r="C18" s="114" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="108"/>
       <c r="C19" s="115" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="116"/>
       <c r="C20" s="117" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="116"/>
       <c r="C21" s="118" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="116"/>
       <c r="C22" s="119" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="116"/>
       <c r="C23" s="120" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3056,25 +2819,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K40"/>
+  <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="60.1640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3083,31 +2846,31 @@
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="190" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+    <row r="2" spans="2:11" ht="16" customHeight="1">
+      <c r="B2" s="163" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="2:11" ht="36" customHeight="1">
-      <c r="B4" s="196"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
@@ -3126,17 +2889,17 @@
     <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B7" s="121"/>
       <c r="C7" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
@@ -3158,7 +2921,7 @@
     <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -3171,59 +2934,57 @@
     <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="141" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="189">
-        <f>'Research data'!G7/100</f>
+      <c r="E10" s="43">
         <v>0.42</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="188" t="s">
-        <v>185</v>
+      <c r="I10" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="185">
-        <f>'Research data'!G8/100</f>
-        <v>0.4</v>
+      <c r="E11" s="43">
+        <v>0.43</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
-      <c r="I11" s="188" t="s">
-        <v>185</v>
+      <c r="I11" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="185">
+      <c r="E12" s="43">
         <v>0.9</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J12" s="129"/>
       <c r="K12" s="32"/>
@@ -3236,14 +2997,14 @@
       <c r="D13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="186">
-        <v>0</v>
+      <c r="E13" s="44">
+        <v>1</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J13" s="129"/>
       <c r="K13" s="32"/>
@@ -3251,19 +3012,19 @@
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="187">
-        <v>0.1</v>
+      <c r="E14" s="44">
+        <v>0</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J14" s="129"/>
       <c r="K14" s="32"/>
@@ -3271,19 +3032,19 @@
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="187">
-        <v>0.7</v>
+      <c r="E15" s="44">
+        <v>1</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15" s="129"/>
       <c r="K15" s="32"/>
@@ -3294,390 +3055,395 @@
         <v>41</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="186">
-        <f>'Research data'!G6</f>
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0.1</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="G16" s="33"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="188" t="s">
-        <v>185</v>
+      <c r="I16" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="J16" s="129"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1">
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="185">
-        <f>E16*E11/E10</f>
-        <v>95.238095238095241</v>
+        <v>5</v>
+      </c>
+      <c r="E17" s="31">
+        <v>0.7</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="G17" s="33"/>
       <c r="H17" s="33"/>
-      <c r="I17" s="188" t="s">
-        <v>185</v>
+      <c r="I17" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="J17" s="129"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="37"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="C18" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="44">
+        <f>'Research data'!G6</f>
+        <v>120</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="J18" s="129"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="37"/>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="C19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="43">
+        <v>117.2093</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="J19" s="129"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1">
+    <row r="20" spans="2:11">
       <c r="B20" s="37"/>
-      <c r="C20" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="44">
-        <f>'Research data'!G16</f>
-        <v>105000000</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="105" t="s">
-        <v>113</v>
-      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="129"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="37"/>
-      <c r="C21" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="44">
-        <v>0</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31" t="s">
-        <v>54</v>
-      </c>
+      <c r="C21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="129"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="44">
-        <v>0</v>
+        <f>'Research data'!G14</f>
+        <v>126000000</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="31" t="s">
-        <v>54</v>
+      <c r="I22" s="105" t="s">
+        <v>115</v>
       </c>
       <c r="J22" s="129"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="44">
         <v>0</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J23" s="129"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="123">
-        <f>'Research data'!G19</f>
-        <v>933333.33333333326</v>
+        <v>34</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H24" s="33"/>
-      <c r="I24" s="188" t="s">
-        <v>185</v>
+      <c r="I24" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="J24" s="129"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="43">
-        <f>'Research data'!G22</f>
-        <v>311.11111111111109</v>
+        <v>130</v>
+      </c>
+      <c r="E25" s="44">
+        <v>0</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="188" t="s">
-        <v>185</v>
+      <c r="I25" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="J25" s="129"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="126">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="123">
+        <f>'Research data'!G17</f>
+        <v>1200000</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33" t="s">
         <v>59</v>
       </c>
       <c r="H26" s="33"/>
-      <c r="I26" s="142" t="s">
-        <v>54</v>
+      <c r="I26" s="105" t="s">
+        <v>114</v>
       </c>
       <c r="J26" s="129"/>
     </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="44">
-        <v>0.1</v>
+        <v>54</v>
+      </c>
+      <c r="E27" s="43">
+        <f>'Research data'!G20</f>
+        <v>360</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31" t="s">
-        <v>54</v>
+      <c r="I27" s="105" t="s">
+        <v>114</v>
       </c>
       <c r="J27" s="129"/>
     </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="44">
+        <v>54</v>
+      </c>
+      <c r="E28" s="126">
+        <v>0</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="129"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
+      <c r="B29" s="37"/>
+      <c r="C29" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="129"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
+      <c r="B30" s="37"/>
+      <c r="C30" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="44">
         <v>1</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="129"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="37"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="129"/>
-    </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1">
-      <c r="B30" s="37"/>
-      <c r="C30" s="14" t="s">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="129"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="37"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="129"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1">
+      <c r="B32" s="37"/>
+      <c r="C32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="129"/>
-    </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1">
-      <c r="B31" s="37"/>
-      <c r="C31" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="44">
-        <f>'Research data'!G11</f>
-        <v>0.12968399999999999</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" s="129"/>
-    </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1">
-      <c r="B32" s="37"/>
-      <c r="C32" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="123">
-        <f>'Research data'!G12</f>
-        <v>2</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="149" t="s">
-        <v>114</v>
-      </c>
+      <c r="D32" s="124"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="129"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="44">
-        <f>'Research data'!G13</f>
-        <v>25</v>
+        <f>'Research data'!G9</f>
+        <v>0.1</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="150" t="s">
-        <v>135</v>
+      <c r="I33" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="J33" s="129"/>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="44">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E34" s="123">
+        <f>'Research data'!G10</f>
+        <v>2.5</v>
       </c>
       <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="33" t="s">
+        <v>27</v>
+      </c>
       <c r="H34" s="33"/>
-      <c r="I34" s="31" t="s">
-        <v>54</v>
+      <c r="I34" s="149" t="s">
+        <v>141</v>
       </c>
       <c r="J34" s="129"/>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
-      <c r="C35" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="19"/>
+      <c r="C35" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="E35" s="44">
-        <v>26820</v>
+        <f>'Research data'!G11</f>
+        <v>30</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="G35" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H35" s="33"/>
-      <c r="I35" s="31" t="s">
-        <v>54</v>
+      <c r="I35" s="150" t="s">
+        <v>141</v>
       </c>
       <c r="J35" s="129"/>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
-      <c r="C36" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="19"/>
+      <c r="C36" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="E36" s="44">
         <v>0</v>
       </c>
@@ -3685,75 +3451,109 @@
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J36" s="129"/>
     </row>
     <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="44">
-        <v>193680</v>
+        <v>442800</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J37" s="129"/>
     </row>
     <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="44">
-        <v>32040</v>
+        <v>0</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J38" s="129"/>
     </row>
     <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="44">
-        <v>21600</v>
+        <v>2835000</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J39" s="129"/>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
+      <c r="B40" s="37"/>
+      <c r="C40" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="44">
+        <v>534600</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="129"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
+      <c r="B41" s="37"/>
+      <c r="C41" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="44">
+        <v>354600</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="129"/>
+    </row>
+    <row r="42" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3767,92 +3567,92 @@
   </sheetPr>
   <dimension ref="B1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="73" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="73" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="73" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="73" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="73" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="74" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="74" customWidth="1"/>
-    <col min="10" max="10" width="3" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="74" customWidth="1"/>
-    <col min="12" max="12" width="3" style="74" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="74" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" style="74" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="74" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="74" customWidth="1"/>
-    <col min="17" max="17" width="110.42578125" style="73" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="73"/>
+    <col min="1" max="2" width="3.5" style="71" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="71" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="71" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="71" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="9" style="72" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="72" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="72" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="72" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="72" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="72" customWidth="1"/>
+    <col min="17" max="17" width="114" style="71" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1"/>
     <row r="2" spans="2:17">
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="74"/>
     </row>
     <row r="3" spans="2:17" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="138" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="138" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="H3" s="138"/>
+      <c r="I3" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="66"/>
       <c r="Q3" s="138" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="134"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="134"/>
       <c r="J4" s="134"/>
       <c r="K4" s="134"/>
@@ -3864,9 +3664,9 @@
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="17" thickBot="1">
-      <c r="B5" s="78"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3881,367 +3681,350 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="72"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="2:17" ht="17" thickBot="1">
-      <c r="B6" s="78"/>
-      <c r="C6" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="84">
-        <f>I6</f>
-        <v>100</v>
-      </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="84">
-        <f>Notes!E16/1000</f>
-        <v>100</v>
-      </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="Q6" s="72"/>
-    </row>
-    <row r="7" spans="2:17" s="164" customFormat="1" ht="17" thickBot="1">
-      <c r="B7" s="168"/>
-      <c r="C7" s="172" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="173" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="174" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="175">
-        <f>I7</f>
-        <v>42</v>
-      </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="175">
-        <f>Notes!E18</f>
-        <v>42</v>
-      </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="179" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="164" customFormat="1" ht="17" thickBot="1">
-      <c r="B8" s="168"/>
-      <c r="C8" s="172" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="173" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="174" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="175">
-        <f>I8</f>
-        <v>40</v>
-      </c>
-      <c r="H8" s="176"/>
-      <c r="I8" s="175">
-        <f>Notes!E19</f>
-        <v>40</v>
-      </c>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="179" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="78"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="83">
+        <f>ROUND(120,0)</f>
+        <v>120</v>
+      </c>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83">
+        <f>Notes!$D$20/1000</f>
+        <v>120</v>
+      </c>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="Q6" s="69"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="76"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="84"/>
+      <c r="Q7" s="139"/>
+    </row>
+    <row r="8" spans="2:17" ht="17" thickBot="1">
+      <c r="B8" s="76"/>
+      <c r="C8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="2:17" ht="17" thickBot="1">
+      <c r="B9" s="76"/>
+      <c r="C9" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="93">
+        <f>ROUND(0.1,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="86"/>
       <c r="I9" s="87"/>
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
       <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="87"/>
-      <c r="O9" s="85"/>
-      <c r="Q9" s="139"/>
-    </row>
-    <row r="10" spans="2:17" ht="17" thickBot="1">
-      <c r="B10" s="78"/>
-      <c r="C10" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="30"/>
-    </row>
-    <row r="11" spans="2:17" ht="17" thickBot="1">
-      <c r="B11" s="78"/>
-      <c r="C11" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="93">
-        <f>O11</f>
-        <v>0.12968399999999999</v>
-      </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="89">
+      <c r="O9" s="89">
         <f>428*303/1000000</f>
         <v>0.12968399999999999</v>
       </c>
-      <c r="Q11" s="137" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="17" thickBot="1">
-      <c r="B12" s="78"/>
-      <c r="C12" s="92" t="s">
+      <c r="Q9" s="137" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="17" thickBot="1">
+      <c r="B10" s="76"/>
+      <c r="C10" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="82" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="93">
-        <f>ROUND(M12,0)</f>
+      <c r="G10" s="93">
+        <f>ROUND(2.5,1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="81">
+        <f>Notes!D54/12</f>
+        <v>2.5</v>
+      </c>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="17" thickBot="1">
+      <c r="B11" s="76"/>
+      <c r="C11" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="88"/>
+      <c r="G11" s="96">
+        <f>ROUND(30,0)</f>
+        <v>30</v>
+      </c>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="83">
+        <f>Notes!D55</f>
+        <v>30</v>
+      </c>
+      <c r="N11" s="88"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="69"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="76"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="88"/>
       <c r="J12" s="88"/>
       <c r="K12" s="88"/>
       <c r="L12" s="88"/>
-      <c r="M12" s="83">
-        <f>Notes!E80/12</f>
-        <v>2</v>
-      </c>
+      <c r="M12" s="88"/>
       <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="69"/>
     </row>
     <row r="13" spans="2:17" ht="17" thickBot="1">
-      <c r="B13" s="78"/>
-      <c r="C13" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="96">
-        <f>M13</f>
-        <v>25</v>
-      </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="84">
-        <f>Notes!E81</f>
-        <v>25</v>
-      </c>
-      <c r="N13" s="88"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="144"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="78"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="72"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="69"/>
+    </row>
+    <row r="14" spans="2:17" ht="17" thickBot="1">
+      <c r="B14" s="76"/>
+      <c r="C14" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="93">
+        <f>ROUND(G15*G6*1000,2)</f>
+        <v>126000000</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="69"/>
     </row>
     <row r="15" spans="2:17" ht="17" thickBot="1">
-      <c r="B15" s="78"/>
-      <c r="C15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="72"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="93">
+        <v>1050</v>
+      </c>
+      <c r="H15" s="87"/>
+      <c r="I15" s="101">
+        <f>Notes!$D$21</f>
+        <v>1050</v>
+      </c>
+      <c r="J15" s="87"/>
+      <c r="K15" s="101">
+        <f>Notes!D79</f>
+        <v>1000</v>
+      </c>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="70" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="16" spans="2:17" ht="17" thickBot="1">
-      <c r="B16" s="78"/>
-      <c r="C16" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="93">
-        <f>ROUND(G17*G6*1000,2)</f>
-        <v>105000000</v>
-      </c>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="104">
+        <f>G17+G19</f>
+        <v>2820000</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="101">
+        <f>Notes!$D$41</f>
+        <v>2520000</v>
+      </c>
       <c r="J16" s="87"/>
       <c r="K16" s="87"/>
       <c r="L16" s="87"/>
       <c r="M16" s="87"/>
       <c r="N16" s="87"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="147" t="s">
-        <v>119</v>
-      </c>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="70"/>
     </row>
     <row r="17" spans="2:17" ht="17" thickBot="1">
-      <c r="B17" s="78"/>
-      <c r="C17" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="93">
-        <f>I17</f>
-        <v>1050</v>
-      </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="101">
-        <f>Notes!E17</f>
-        <v>1050</v>
-      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="98">
+        <f>ROUND(G18*G6*1000,2)</f>
+        <v>1200000</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="87"/>
       <c r="J17" s="87"/>
-      <c r="K17" s="161">
-        <f>Notes!E106</f>
-        <v>1000</v>
-      </c>
+      <c r="K17" s="87"/>
       <c r="L17" s="87"/>
       <c r="M17" s="87"/>
       <c r="N17" s="87"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="146"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="70" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="2:17" ht="17" thickBot="1">
-      <c r="B18" s="78"/>
-      <c r="C18" s="165" t="s">
-        <v>152</v>
+      <c r="B18" s="76"/>
+      <c r="C18" s="130" t="s">
+        <v>105</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="104">
-        <f>G19+G21</f>
-        <v>2800000</v>
-      </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="101">
-        <f>Notes!E51</f>
-        <v>2800000</v>
-      </c>
+      <c r="F18" s="132" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="148">
+        <v>10</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="87"/>
       <c r="J18" s="87"/>
       <c r="K18" s="87"/>
       <c r="L18" s="87"/>
       <c r="M18" s="87"/>
       <c r="N18" s="87"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="147" t="s">
-        <v>118</v>
+      <c r="O18" s="94"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="30" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="17" thickBot="1">
-      <c r="B19" s="78"/>
-      <c r="C19" s="143" t="s">
-        <v>102</v>
+      <c r="B19" s="76"/>
+      <c r="C19" s="130" t="s">
+        <v>106</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" s="98">
-        <f>I19</f>
-        <v>933333.33333333326</v>
-      </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="101">
-        <f>Notes!E52</f>
-        <v>933333.33333333326</v>
-      </c>
+        <f>G20*G22</f>
+        <v>1620000</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="87"/>
       <c r="J19" s="87"/>
       <c r="K19" s="87"/>
       <c r="L19" s="87"/>
@@ -4249,21 +4032,24 @@
       <c r="N19" s="87"/>
       <c r="O19" s="94"/>
       <c r="P19" s="87"/>
-      <c r="Q19" s="166" t="s">
-        <v>153</v>
+      <c r="Q19" s="146" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="17" thickBot="1">
-      <c r="B20" s="78"/>
-      <c r="C20" s="130" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="132" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="159"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="93">
+        <f>ROUND(G21*G23/G22,2)</f>
+        <v>360</v>
+      </c>
       <c r="H20" s="87"/>
       <c r="I20" s="87"/>
       <c r="J20" s="87"/>
@@ -4273,153 +4059,139 @@
       <c r="N20" s="87"/>
       <c r="O20" s="94"/>
       <c r="P20" s="87"/>
-      <c r="Q20" s="167" t="s">
-        <v>136</v>
+      <c r="Q20" s="146" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="17" thickBot="1">
-      <c r="B21" s="78"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="98">
-        <f>I21</f>
-        <v>1866666.6666666665</v>
+        <v>106</v>
+      </c>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="101">
+        <v>3</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="101">
-        <f>Notes!E53</f>
-        <v>1866666.6666666665</v>
+        <f>Notes!D42</f>
+        <v>3.5</v>
       </c>
       <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
+      <c r="K21" s="101">
+        <f>Notes!D80</f>
+        <v>3</v>
+      </c>
       <c r="L21" s="87"/>
       <c r="M21" s="87"/>
       <c r="N21" s="87"/>
-      <c r="O21" s="94"/>
+      <c r="O21" s="87"/>
       <c r="P21" s="87"/>
-      <c r="Q21" s="167" t="s">
-        <v>137</v>
+      <c r="Q21" s="146" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="17" thickBot="1">
-      <c r="B22" s="78"/>
-      <c r="C22" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="93">
-        <f>G21/G24</f>
-        <v>311.11111111111109</v>
-      </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="167" t="s">
-        <v>138</v>
+      <c r="B22" s="76"/>
+      <c r="C22" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="102">
+        <v>4500</v>
+      </c>
+      <c r="H22" s="91"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="162" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="78"/>
-      <c r="C23" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="101">
-        <f>G22/G6</f>
-        <v>3.1111111111111107</v>
-      </c>
-      <c r="H23" s="87"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="101">
-        <f>Notes!E107</f>
-        <v>3</v>
-      </c>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="162"/>
-    </row>
-    <row r="24" spans="2:17" ht="17" thickBot="1">
-      <c r="B24" s="78"/>
-      <c r="C24" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="102">
-        <f>I24</f>
-        <v>6000</v>
-      </c>
-      <c r="H24" s="85"/>
-      <c r="I24" s="102">
-        <f>Notes!E20</f>
-        <v>6000</v>
-      </c>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="167" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="17" thickBot="1">
-      <c r="B25" s="78"/>
-      <c r="C25" s="145" t="s">
+      <c r="B23" s="76"/>
+      <c r="C23" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="136" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="102">
-        <f>G24*G6</f>
-        <v>600000</v>
-      </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="139"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="102">
+        <f>G22*G6</f>
+        <v>540000</v>
+      </c>
+      <c r="H23" s="91"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="147" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="76"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="76"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="160" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q12" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="Q10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="Q18" r:id="rId2" location="issuecomment-17880519" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4434,21 +4206,21 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="130.28515625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="46"/>
+    <col min="1" max="1" width="3.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="32" style="47" customWidth="1"/>
+    <col min="11" max="11" width="130.33203125" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4467,7 +4239,7 @@
     <row r="3" spans="2:11">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -4493,29 +4265,29 @@
     <row r="5" spans="2:11">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="57"/>
       <c r="E5" s="57" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K5" s="57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -4530,119 +4302,119 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" ht="32">
       <c r="B7" s="51"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>134</v>
-      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="51"/>
-      <c r="C8" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="71"/>
+      <c r="C8" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="51"/>
       <c r="C9" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="71"/>
+        <v>78</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="71"/>
-    </row>
-    <row r="11" spans="2:11" ht="17">
+      <c r="D10" s="64"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="51"/>
       <c r="C11" s="59"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" s="59"/>
+        <v>118</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="67">
+        <v>2010</v>
+      </c>
+      <c r="H11" s="67">
+        <v>2009</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="63" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="51"/>
-      <c r="C12" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="64"/>
+      <c r="C12" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="59"/>
       <c r="E12" s="59"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="59"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="51"/>
       <c r="C13" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="64"/>
+        <v>76</v>
+      </c>
+      <c r="D13" s="59"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="59"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="51"/>
@@ -4650,8 +4422,8 @@
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
       <c r="F14" s="54"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="54"/>
       <c r="J14" s="55"/>
       <c r="K14" s="63"/>
@@ -4661,35 +4433,35 @@
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="68">
+        <v>72</v>
+      </c>
+      <c r="G15" s="67">
         <v>2014</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="67">
         <v>2014</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="55" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K15" s="63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="51"/>
       <c r="C16" s="64" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="54"/>
       <c r="J16" s="55"/>
       <c r="K16" s="63"/>
@@ -4697,13 +4469,13 @@
     <row r="17" spans="2:11">
       <c r="B17" s="51"/>
       <c r="C17" s="64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
       <c r="F17" s="54"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="54"/>
       <c r="J17" s="55"/>
       <c r="K17" s="63"/>
@@ -4713,10 +4485,10 @@
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="F18" s="59"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="59"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="65"/>
       <c r="K18" s="63"/>
     </row>
     <row r="19" spans="2:11">
@@ -4724,90 +4496,91 @@
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="G19" s="69">
+      <c r="G19" s="68">
         <v>2013</v>
       </c>
-      <c r="H19" s="69"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="59"/>
-      <c r="J19" s="66"/>
+      <c r="J19" s="65"/>
       <c r="K19" s="63" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="51"/>
       <c r="C20" s="59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20" s="59"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="59"/>
-      <c r="J20" s="66"/>
+      <c r="J20" s="65"/>
       <c r="K20" s="63"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="51"/>
       <c r="C21" s="64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="59"/>
       <c r="F21" s="59"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="59"/>
-      <c r="J21" s="66"/>
+      <c r="J21" s="65"/>
       <c r="K21" s="63"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="51"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="59"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="63"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="59"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="51"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
       <c r="E23" s="54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="65"/>
+      <c r="K23" s="63" t="s">
         <v>73</v>
-      </c>
-      <c r="J23" s="66"/>
-      <c r="K23" s="63" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="51"/>
       <c r="C24" s="59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" s="59"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="59"/>
-      <c r="J24" s="66"/>
+      <c r="J24" s="65"/>
       <c r="K24" s="59"/>
     </row>
   </sheetData>
@@ -4817,30 +4590,29 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="G7:H7 G11:H11" numberStoredAsText="1"/>
+    <ignoredError sqref="G7:H7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:Q117"/>
+  <dimension ref="B1:O92"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="148" customWidth="1"/>
-    <col min="2" max="2" width="4" style="148" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="148" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" style="148" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="148"/>
+    <col min="1" max="1" width="4.83203125" style="145" customWidth="1"/>
+    <col min="2" max="2" width="4" style="145" customWidth="1"/>
+    <col min="3" max="3" width="17" style="145" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1"/>
-    <row r="2" spans="2:16">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="151"/>
       <c r="C2" s="152"/>
       <c r="D2" s="152"/>
@@ -4854,16 +4626,15 @@
       <c r="L2" s="152"/>
       <c r="M2" s="152"/>
       <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-    </row>
-    <row r="3" spans="2:16" s="21" customFormat="1">
+      <c r="O2" s="153"/>
+    </row>
+    <row r="3" spans="2:15" s="21" customFormat="1">
       <c r="B3" s="121"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4875,10 +4646,9 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="158"/>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="O3" s="157"/>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" s="154"/>
       <c r="C4" s="155"/>
       <c r="D4" s="155"/>
@@ -4892,12 +4662,13 @@
       <c r="L4" s="155"/>
       <c r="M4" s="155"/>
       <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="156"/>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="O4" s="156"/>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="154"/>
-      <c r="C5" s="155"/>
+      <c r="C5" s="155" t="s">
+        <v>115</v>
+      </c>
       <c r="D5" s="155"/>
       <c r="E5" s="155"/>
       <c r="F5" s="155"/>
@@ -4909,13 +4680,12 @@
       <c r="L5" s="155"/>
       <c r="M5" s="155"/>
       <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="156"/>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="O5" s="156"/>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="154"/>
-      <c r="C6" s="199" t="s">
-        <v>113</v>
+      <c r="C6" s="155" t="s">
+        <v>127</v>
       </c>
       <c r="D6" s="155"/>
       <c r="E6" s="155"/>
@@ -4928,14 +4698,11 @@
       <c r="L6" s="155"/>
       <c r="M6" s="155"/>
       <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="156"/>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="O6" s="156"/>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="154"/>
-      <c r="C7" s="157" t="s">
-        <v>131</v>
-      </c>
+      <c r="C7" s="155"/>
       <c r="D7" s="155"/>
       <c r="E7" s="155"/>
       <c r="F7" s="155"/>
@@ -4947,10 +4714,9 @@
       <c r="L7" s="155"/>
       <c r="M7" s="155"/>
       <c r="N7" s="155"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="156"/>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="O7" s="156"/>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="154"/>
       <c r="C8" s="155"/>
       <c r="D8" s="155"/>
@@ -4964,10 +4730,9 @@
       <c r="L8" s="155"/>
       <c r="M8" s="155"/>
       <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="156"/>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="O8" s="156"/>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="154"/>
       <c r="C9" s="155"/>
       <c r="D9" s="155"/>
@@ -4981,10 +4746,9 @@
       <c r="L9" s="155"/>
       <c r="M9" s="155"/>
       <c r="N9" s="155"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="156"/>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="O9" s="156"/>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="154"/>
       <c r="C10" s="155"/>
       <c r="D10" s="155"/>
@@ -4998,10 +4762,9 @@
       <c r="L10" s="155"/>
       <c r="M10" s="155"/>
       <c r="N10" s="155"/>
-      <c r="O10" s="155"/>
-      <c r="P10" s="156"/>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="O10" s="156"/>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="154"/>
       <c r="C11" s="155"/>
       <c r="D11" s="155"/>
@@ -5015,10 +4778,9 @@
       <c r="L11" s="155"/>
       <c r="M11" s="155"/>
       <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="156"/>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="O11" s="156"/>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="154"/>
       <c r="C12" s="155"/>
       <c r="D12" s="155"/>
@@ -5032,10 +4794,9 @@
       <c r="L12" s="155"/>
       <c r="M12" s="155"/>
       <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="156"/>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="O12" s="156"/>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="154"/>
       <c r="C13" s="155"/>
       <c r="D13" s="155"/>
@@ -5049,10 +4810,9 @@
       <c r="L13" s="155"/>
       <c r="M13" s="155"/>
       <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="156"/>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="O13" s="156"/>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="154"/>
       <c r="C14" s="155"/>
       <c r="D14" s="155"/>
@@ -5066,10 +4826,9 @@
       <c r="L14" s="155"/>
       <c r="M14" s="155"/>
       <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="156"/>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="O14" s="156"/>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="154"/>
       <c r="C15" s="155"/>
       <c r="D15" s="155"/>
@@ -5083,18 +4842,14 @@
       <c r="L15" s="155"/>
       <c r="M15" s="155"/>
       <c r="N15" s="155"/>
-      <c r="O15" s="155"/>
-      <c r="P15" s="156"/>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="O15" s="156"/>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="154"/>
       <c r="C16" s="155"/>
-      <c r="E16" s="155">
-        <v>100000</v>
-      </c>
-      <c r="F16" s="155" t="s">
-        <v>124</v>
-      </c>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
       <c r="G16" s="155"/>
       <c r="H16" s="155"/>
       <c r="I16" s="155"/>
@@ -5103,18 +4858,14 @@
       <c r="L16" s="155"/>
       <c r="M16" s="155"/>
       <c r="N16" s="155"/>
-      <c r="O16" s="155"/>
-      <c r="P16" s="156"/>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="O16" s="156"/>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" s="154"/>
       <c r="C17" s="155"/>
-      <c r="E17" s="155">
-        <v>1050</v>
-      </c>
-      <c r="F17" s="155" t="s">
-        <v>123</v>
-      </c>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
       <c r="G17" s="155"/>
       <c r="H17" s="155"/>
       <c r="I17" s="155"/>
@@ -5123,22 +4874,14 @@
       <c r="L17" s="155"/>
       <c r="M17" s="155"/>
       <c r="N17" s="155"/>
-      <c r="O17" s="155"/>
-      <c r="P17" s="156"/>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="O17" s="156"/>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="154"/>
       <c r="C18" s="155"/>
-      <c r="D18" s="164" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="155">
-        <f>E34</f>
-        <v>42</v>
-      </c>
-      <c r="F18" s="155" t="s">
-        <v>3</v>
-      </c>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
       <c r="G18" s="155"/>
       <c r="H18" s="155"/>
       <c r="I18" s="155"/>
@@ -5147,22 +4890,14 @@
       <c r="L18" s="155"/>
       <c r="M18" s="155"/>
       <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="156"/>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="O18" s="156"/>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="154"/>
       <c r="C19" s="155"/>
-      <c r="D19" s="164" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="155">
-        <f>E35</f>
-        <v>40</v>
-      </c>
-      <c r="F19" s="169" t="s">
-        <v>3</v>
-      </c>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
       <c r="G19" s="155"/>
       <c r="H19" s="155"/>
       <c r="I19" s="155"/>
@@ -5171,21 +4906,18 @@
       <c r="L19" s="155"/>
       <c r="M19" s="155"/>
       <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="156"/>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="O19" s="156"/>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="154"/>
       <c r="C20" s="155"/>
-      <c r="D20" s="164" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="155">
-        <v>6000</v>
-      </c>
-      <c r="F20" s="169" t="s">
-        <v>183</v>
-      </c>
+      <c r="D20" s="155">
+        <v>120000</v>
+      </c>
+      <c r="E20" s="155" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="155"/>
       <c r="G20" s="155"/>
       <c r="H20" s="155"/>
       <c r="I20" s="155"/>
@@ -5194,13 +4926,17 @@
       <c r="L20" s="155"/>
       <c r="M20" s="155"/>
       <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="156"/>
-    </row>
-    <row r="21" spans="2:16">
+      <c r="O20" s="156"/>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" s="154"/>
       <c r="C21" s="155"/>
-      <c r="E21" s="155"/>
+      <c r="D21" s="155">
+        <v>1050</v>
+      </c>
+      <c r="E21" s="155" t="s">
+        <v>129</v>
+      </c>
       <c r="F21" s="155"/>
       <c r="G21" s="155"/>
       <c r="H21" s="155"/>
@@ -5210,12 +4946,12 @@
       <c r="L21" s="155"/>
       <c r="M21" s="155"/>
       <c r="N21" s="155"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="156"/>
-    </row>
-    <row r="22" spans="2:16">
+      <c r="O21" s="156"/>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" s="154"/>
       <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
       <c r="E22" s="155"/>
       <c r="F22" s="155"/>
       <c r="G22" s="155"/>
@@ -5226,12 +4962,12 @@
       <c r="L22" s="155"/>
       <c r="M22" s="155"/>
       <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="156"/>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="O22" s="156"/>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23" s="154"/>
       <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
       <c r="E23" s="155"/>
       <c r="F23" s="155"/>
       <c r="G23" s="155"/>
@@ -5242,12 +4978,12 @@
       <c r="L23" s="155"/>
       <c r="M23" s="155"/>
       <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="156"/>
-    </row>
-    <row r="24" spans="2:16">
+      <c r="O23" s="156"/>
+    </row>
+    <row r="24" spans="2:15">
       <c r="B24" s="154"/>
       <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
       <c r="E24" s="155"/>
       <c r="F24" s="155"/>
       <c r="G24" s="155"/>
@@ -5258,12 +4994,14 @@
       <c r="L24" s="155"/>
       <c r="M24" s="155"/>
       <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="156"/>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="O24" s="156"/>
+    </row>
+    <row r="25" spans="2:15">
       <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
+      <c r="C25" s="155" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="155"/>
       <c r="E25" s="155"/>
       <c r="F25" s="155"/>
       <c r="G25" s="155"/>
@@ -5274,12 +5012,12 @@
       <c r="L25" s="155"/>
       <c r="M25" s="155"/>
       <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="156"/>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="O25" s="156"/>
+    </row>
+    <row r="26" spans="2:15">
       <c r="B26" s="154"/>
       <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
       <c r="E26" s="155"/>
       <c r="F26" s="155"/>
       <c r="G26" s="155"/>
@@ -5290,252 +5028,220 @@
       <c r="L26" s="155"/>
       <c r="M26" s="155"/>
       <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="156"/>
-    </row>
-    <row r="27" spans="2:16" s="164" customFormat="1">
-      <c r="B27" s="168"/>
-      <c r="C27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="170"/>
-    </row>
-    <row r="28" spans="2:16" s="164" customFormat="1">
-      <c r="B28" s="168"/>
-      <c r="C28" s="169" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="170"/>
-    </row>
-    <row r="29" spans="2:16" s="164" customFormat="1">
-      <c r="B29" s="168"/>
-      <c r="C29" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="169"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="169"/>
-      <c r="P29" s="170"/>
-    </row>
-    <row r="30" spans="2:16" s="164" customFormat="1">
-      <c r="B30" s="168"/>
-      <c r="C30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="170"/>
-    </row>
-    <row r="31" spans="2:16" s="164" customFormat="1">
-      <c r="B31" s="168"/>
-      <c r="C31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="170"/>
-    </row>
-    <row r="32" spans="2:16" s="164" customFormat="1">
-      <c r="B32" s="168"/>
-      <c r="C32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="170"/>
-    </row>
-    <row r="33" spans="2:16" s="164" customFormat="1">
-      <c r="B33" s="168"/>
-      <c r="C33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="170"/>
-    </row>
-    <row r="34" spans="2:16" s="164" customFormat="1">
-      <c r="B34" s="168"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="169">
-        <v>42</v>
-      </c>
-      <c r="F34" s="169" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="171" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="169"/>
-      <c r="N34" s="169"/>
-      <c r="O34" s="169"/>
-      <c r="P34" s="170"/>
-    </row>
-    <row r="35" spans="2:16" s="164" customFormat="1">
-      <c r="B35" s="168"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="169">
-        <v>40</v>
-      </c>
-      <c r="F35" s="169" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="171" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="169"/>
-      <c r="M35" s="169"/>
-      <c r="N35" s="169"/>
-      <c r="O35" s="169"/>
-      <c r="P35" s="170"/>
-    </row>
-    <row r="36" spans="2:16" s="164" customFormat="1">
-      <c r="B36" s="168"/>
-      <c r="C36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="G36" s="171" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="169"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="169"/>
-      <c r="M36" s="169"/>
-      <c r="N36" s="169"/>
-      <c r="O36" s="169"/>
-      <c r="P36" s="170"/>
-    </row>
-    <row r="37" spans="2:16" s="164" customFormat="1">
-      <c r="B37" s="168"/>
-      <c r="C37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="171" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="169"/>
-      <c r="O37" s="169"/>
-      <c r="P37" s="170"/>
-    </row>
-    <row r="38" spans="2:16" s="164" customFormat="1">
-      <c r="B38" s="168"/>
-      <c r="C38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="169"/>
-      <c r="N38" s="169"/>
-      <c r="O38" s="169"/>
-      <c r="P38" s="170"/>
-    </row>
-    <row r="39" spans="2:16" s="164" customFormat="1">
-      <c r="B39" s="168"/>
-      <c r="C39" s="169"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="169"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="169"/>
-      <c r="N39" s="169"/>
-      <c r="O39" s="169"/>
-      <c r="P39" s="170"/>
-    </row>
-    <row r="40" spans="2:16">
+      <c r="O26" s="156"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="156"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="156"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="156"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="156"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="156"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="156"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="156"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="156"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="154"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="156"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="154"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="156"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="154"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="156"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="156"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="154"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="156"/>
+    </row>
+    <row r="40" spans="2:15">
       <c r="B40" s="154"/>
       <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
       <c r="E40" s="155"/>
       <c r="F40" s="155"/>
       <c r="G40" s="155"/>
@@ -5546,13 +5252,17 @@
       <c r="L40" s="155"/>
       <c r="M40" s="155"/>
       <c r="N40" s="155"/>
-      <c r="O40" s="155"/>
-      <c r="P40" s="156"/>
-    </row>
-    <row r="41" spans="2:16">
+      <c r="O40" s="156"/>
+    </row>
+    <row r="41" spans="2:15">
       <c r="B41" s="154"/>
       <c r="C41" s="155"/>
-      <c r="E41" s="155"/>
+      <c r="D41" s="155">
+        <v>2520000</v>
+      </c>
+      <c r="E41" s="155" t="s">
+        <v>131</v>
+      </c>
       <c r="F41" s="155"/>
       <c r="G41" s="155"/>
       <c r="H41" s="155"/>
@@ -5562,13 +5272,19 @@
       <c r="L41" s="155"/>
       <c r="M41" s="155"/>
       <c r="N41" s="155"/>
-      <c r="O41" s="155"/>
-      <c r="P41" s="156"/>
-    </row>
-    <row r="42" spans="2:16">
+      <c r="O41" s="156"/>
+    </row>
+    <row r="42" spans="2:15">
       <c r="B42" s="154"/>
-      <c r="C42" s="155"/>
-      <c r="E42" s="155"/>
+      <c r="C42" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="155">
+        <v>3.5</v>
+      </c>
+      <c r="E42" s="161" t="s">
+        <v>144</v>
+      </c>
       <c r="F42" s="155"/>
       <c r="G42" s="155"/>
       <c r="H42" s="155"/>
@@ -5578,14 +5294,12 @@
       <c r="L42" s="155"/>
       <c r="M42" s="155"/>
       <c r="N42" s="155"/>
-      <c r="O42" s="155"/>
-      <c r="P42" s="156"/>
-    </row>
-    <row r="43" spans="2:16">
+      <c r="O42" s="156"/>
+    </row>
+    <row r="43" spans="2:15">
       <c r="B43" s="154"/>
-      <c r="C43" s="157" t="s">
-        <v>132</v>
-      </c>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
       <c r="E43" s="155"/>
       <c r="F43" s="155"/>
       <c r="G43" s="155"/>
@@ -5596,12 +5310,12 @@
       <c r="L43" s="155"/>
       <c r="M43" s="155"/>
       <c r="N43" s="155"/>
-      <c r="O43" s="155"/>
-      <c r="P43" s="156"/>
-    </row>
-    <row r="44" spans="2:16">
+      <c r="O43" s="156"/>
+    </row>
+    <row r="44" spans="2:15">
       <c r="B44" s="154"/>
       <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
       <c r="E44" s="155"/>
       <c r="F44" s="155"/>
       <c r="G44" s="155"/>
@@ -5612,12 +5326,12 @@
       <c r="L44" s="155"/>
       <c r="M44" s="155"/>
       <c r="N44" s="155"/>
-      <c r="O44" s="155"/>
-      <c r="P44" s="156"/>
-    </row>
-    <row r="45" spans="2:16">
+      <c r="O44" s="156"/>
+    </row>
+    <row r="45" spans="2:15">
       <c r="B45" s="154"/>
       <c r="C45" s="155"/>
+      <c r="D45" s="155"/>
       <c r="E45" s="155"/>
       <c r="F45" s="155"/>
       <c r="G45" s="155"/>
@@ -5628,12 +5342,12 @@
       <c r="L45" s="155"/>
       <c r="M45" s="155"/>
       <c r="N45" s="155"/>
-      <c r="O45" s="155"/>
-      <c r="P45" s="156"/>
-    </row>
-    <row r="46" spans="2:16">
+      <c r="O45" s="156"/>
+    </row>
+    <row r="46" spans="2:15">
       <c r="B46" s="154"/>
       <c r="C46" s="155"/>
+      <c r="D46" s="155"/>
       <c r="E46" s="155"/>
       <c r="F46" s="155"/>
       <c r="G46" s="155"/>
@@ -5644,12 +5358,14 @@
       <c r="L46" s="155"/>
       <c r="M46" s="155"/>
       <c r="N46" s="155"/>
-      <c r="O46" s="155"/>
-      <c r="P46" s="156"/>
-    </row>
-    <row r="47" spans="2:16">
+      <c r="O46" s="156"/>
+    </row>
+    <row r="47" spans="2:15">
       <c r="B47" s="154"/>
-      <c r="C47" s="155"/>
+      <c r="C47" s="155" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="155"/>
       <c r="E47" s="155"/>
       <c r="F47" s="155"/>
       <c r="G47" s="155"/>
@@ -5660,12 +5376,14 @@
       <c r="L47" s="155"/>
       <c r="M47" s="155"/>
       <c r="N47" s="155"/>
-      <c r="O47" s="155"/>
-      <c r="P47" s="156"/>
-    </row>
-    <row r="48" spans="2:16">
+      <c r="O47" s="156"/>
+    </row>
+    <row r="48" spans="2:15">
       <c r="B48" s="154"/>
-      <c r="C48" s="155"/>
+      <c r="C48" s="155" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="155"/>
       <c r="E48" s="155"/>
       <c r="F48" s="155"/>
       <c r="G48" s="155"/>
@@ -5676,12 +5394,12 @@
       <c r="L48" s="155"/>
       <c r="M48" s="155"/>
       <c r="N48" s="155"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="156"/>
-    </row>
-    <row r="49" spans="2:17">
+      <c r="O48" s="156"/>
+    </row>
+    <row r="49" spans="2:15">
       <c r="B49" s="154"/>
       <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
       <c r="E49" s="155"/>
       <c r="F49" s="155"/>
       <c r="G49" s="155"/>
@@ -5692,12 +5410,12 @@
       <c r="L49" s="155"/>
       <c r="M49" s="155"/>
       <c r="N49" s="155"/>
-      <c r="O49" s="155"/>
-      <c r="P49" s="156"/>
-    </row>
-    <row r="50" spans="2:17">
+      <c r="O49" s="156"/>
+    </row>
+    <row r="50" spans="2:15">
       <c r="B50" s="154"/>
       <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
       <c r="E50" s="155"/>
       <c r="F50" s="155"/>
       <c r="G50" s="155"/>
@@ -5708,21 +5426,14 @@
       <c r="L50" s="155"/>
       <c r="M50" s="155"/>
       <c r="N50" s="155"/>
-      <c r="O50" s="155"/>
-      <c r="P50" s="156"/>
-    </row>
-    <row r="51" spans="2:17">
+      <c r="O50" s="156"/>
+    </row>
+    <row r="51" spans="2:15">
       <c r="B51" s="154"/>
       <c r="C51" s="155"/>
-      <c r="D51" s="155" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="155">
-        <v>2800000</v>
-      </c>
-      <c r="F51" s="155" t="s">
-        <v>126</v>
-      </c>
+      <c r="D51" s="155"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
       <c r="G51" s="155"/>
       <c r="H51" s="155"/>
       <c r="I51" s="155"/>
@@ -5731,22 +5442,14 @@
       <c r="L51" s="155"/>
       <c r="M51" s="155"/>
       <c r="N51" s="155"/>
-      <c r="O51" s="155"/>
-      <c r="P51" s="156"/>
-    </row>
-    <row r="52" spans="2:17">
+      <c r="O51" s="156"/>
+    </row>
+    <row r="52" spans="2:15">
       <c r="B52" s="154"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="169" t="s">
-        <v>181</v>
-      </c>
-      <c r="E52" s="184">
-        <f>E51*E66</f>
-        <v>933333.33333333326</v>
-      </c>
-      <c r="F52" s="155" t="s">
-        <v>126</v>
-      </c>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
       <c r="G52" s="155"/>
       <c r="H52" s="155"/>
       <c r="I52" s="155"/>
@@ -5755,22 +5458,14 @@
       <c r="L52" s="155"/>
       <c r="M52" s="155"/>
       <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="156"/>
-    </row>
-    <row r="53" spans="2:17">
+      <c r="O52" s="156"/>
+    </row>
+    <row r="53" spans="2:15">
       <c r="B53" s="154"/>
       <c r="C53" s="155"/>
-      <c r="D53" s="164" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="184">
-        <f>E51*E67</f>
-        <v>1866666.6666666665</v>
-      </c>
-      <c r="F53" s="155" t="s">
-        <v>126</v>
-      </c>
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
       <c r="G53" s="155"/>
       <c r="H53" s="155"/>
       <c r="I53" s="155"/>
@@ -5779,13 +5474,17 @@
       <c r="L53" s="155"/>
       <c r="M53" s="155"/>
       <c r="N53" s="155"/>
-      <c r="O53" s="155"/>
-      <c r="P53" s="156"/>
-    </row>
-    <row r="54" spans="2:17">
+      <c r="O53" s="156"/>
+    </row>
+    <row r="54" spans="2:15">
       <c r="B54" s="154"/>
       <c r="C54" s="155"/>
-      <c r="E54" s="155"/>
+      <c r="D54" s="155">
+        <v>30</v>
+      </c>
+      <c r="E54" s="155" t="s">
+        <v>140</v>
+      </c>
       <c r="F54" s="155"/>
       <c r="G54" s="155"/>
       <c r="H54" s="155"/>
@@ -5795,13 +5494,17 @@
       <c r="L54" s="155"/>
       <c r="M54" s="155"/>
       <c r="N54" s="155"/>
-      <c r="O54" s="155"/>
-      <c r="P54" s="156"/>
-    </row>
-    <row r="55" spans="2:17">
+      <c r="O54" s="156"/>
+    </row>
+    <row r="55" spans="2:15">
       <c r="B55" s="154"/>
       <c r="C55" s="155"/>
-      <c r="E55" s="155"/>
+      <c r="D55" s="155">
+        <v>30</v>
+      </c>
+      <c r="E55" s="155" t="s">
+        <v>139</v>
+      </c>
       <c r="F55" s="155"/>
       <c r="G55" s="155"/>
       <c r="H55" s="155"/>
@@ -5811,12 +5514,12 @@
       <c r="L55" s="155"/>
       <c r="M55" s="155"/>
       <c r="N55" s="155"/>
-      <c r="O55" s="155"/>
-      <c r="P55" s="156"/>
-    </row>
-    <row r="56" spans="2:17">
+      <c r="O55" s="156"/>
+    </row>
+    <row r="56" spans="2:15">
       <c r="B56" s="154"/>
       <c r="C56" s="155"/>
+      <c r="D56" s="155"/>
       <c r="E56" s="155"/>
       <c r="F56" s="155"/>
       <c r="G56" s="155"/>
@@ -5827,12 +5530,12 @@
       <c r="L56" s="155"/>
       <c r="M56" s="155"/>
       <c r="N56" s="155"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="156"/>
-    </row>
-    <row r="57" spans="2:17">
+      <c r="O56" s="156"/>
+    </row>
+    <row r="57" spans="2:15">
       <c r="B57" s="154"/>
       <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
       <c r="E57" s="155"/>
       <c r="F57" s="155"/>
       <c r="G57" s="155"/>
@@ -5843,12 +5546,12 @@
       <c r="L57" s="155"/>
       <c r="M57" s="155"/>
       <c r="N57" s="155"/>
-      <c r="O57" s="155"/>
-      <c r="P57" s="156"/>
-    </row>
-    <row r="58" spans="2:17">
+      <c r="O57" s="156"/>
+    </row>
+    <row r="58" spans="2:15">
       <c r="B58" s="154"/>
       <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
       <c r="E58" s="155"/>
       <c r="F58" s="155"/>
       <c r="G58" s="155"/>
@@ -5859,12 +5562,12 @@
       <c r="L58" s="155"/>
       <c r="M58" s="155"/>
       <c r="N58" s="155"/>
-      <c r="O58" s="155"/>
-      <c r="P58" s="156"/>
-    </row>
-    <row r="59" spans="2:17">
+      <c r="O58" s="156"/>
+    </row>
+    <row r="59" spans="2:15">
       <c r="B59" s="154"/>
       <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
       <c r="E59" s="155"/>
       <c r="F59" s="155"/>
       <c r="G59" s="155"/>
@@ -5875,12 +5578,12 @@
       <c r="L59" s="155"/>
       <c r="M59" s="155"/>
       <c r="N59" s="155"/>
-      <c r="O59" s="155"/>
-      <c r="P59" s="156"/>
-    </row>
-    <row r="60" spans="2:17">
+      <c r="O59" s="156"/>
+    </row>
+    <row r="60" spans="2:15">
       <c r="B60" s="154"/>
       <c r="C60" s="155"/>
+      <c r="D60" s="155"/>
       <c r="E60" s="155"/>
       <c r="F60" s="155"/>
       <c r="G60" s="155"/>
@@ -5891,12 +5594,12 @@
       <c r="L60" s="155"/>
       <c r="M60" s="155"/>
       <c r="N60" s="155"/>
-      <c r="O60" s="155"/>
-      <c r="P60" s="156"/>
-    </row>
-    <row r="61" spans="2:17">
+      <c r="O60" s="156"/>
+    </row>
+    <row r="61" spans="2:15">
       <c r="B61" s="154"/>
       <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
       <c r="E61" s="155"/>
       <c r="F61" s="155"/>
       <c r="G61" s="155"/>
@@ -5907,214 +5610,176 @@
       <c r="L61" s="155"/>
       <c r="M61" s="155"/>
       <c r="N61" s="155"/>
-      <c r="O61" s="155"/>
-      <c r="P61" s="156"/>
-    </row>
-    <row r="62" spans="2:17" s="164" customFormat="1">
-      <c r="B62" s="168"/>
-      <c r="C62" s="169" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169"/>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169"/>
-      <c r="O62" s="169"/>
-      <c r="P62" s="170"/>
-      <c r="Q62" s="148"/>
-    </row>
-    <row r="63" spans="2:17" s="164" customFormat="1">
-      <c r="B63" s="168"/>
-      <c r="C63" s="169" t="s">
-        <v>171</v>
-      </c>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="169"/>
-      <c r="K63" s="169"/>
-      <c r="L63" s="169"/>
-      <c r="M63" s="169"/>
-      <c r="N63" s="169"/>
-      <c r="O63" s="169"/>
-      <c r="P63" s="170"/>
-      <c r="Q63" s="148"/>
-    </row>
-    <row r="64" spans="2:17" s="164" customFormat="1">
-      <c r="B64" s="168"/>
-      <c r="C64" s="169"/>
-      <c r="E64" s="169"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="169" t="s">
-        <v>112</v>
-      </c>
-      <c r="H64" s="169"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
-      <c r="K64" s="169"/>
-      <c r="L64" s="169"/>
-      <c r="M64" s="169"/>
-      <c r="N64" s="169"/>
-      <c r="O64" s="169"/>
-      <c r="P64" s="170"/>
-      <c r="Q64" s="148"/>
-    </row>
-    <row r="65" spans="2:17" s="164" customFormat="1">
-      <c r="B65" s="168"/>
-      <c r="C65" s="169"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="169"/>
-      <c r="G65" s="169"/>
-      <c r="H65" s="169"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="169"/>
-      <c r="K65" s="169"/>
-      <c r="L65" s="169"/>
-      <c r="M65" s="169"/>
-      <c r="N65" s="169"/>
-      <c r="O65" s="169"/>
-      <c r="P65" s="170"/>
-      <c r="Q65" s="148"/>
-    </row>
-    <row r="66" spans="2:17" s="164" customFormat="1">
-      <c r="B66" s="168"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" s="183">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F66" s="169"/>
-      <c r="G66" s="164" t="s">
-        <v>173</v>
-      </c>
-      <c r="H66" s="169"/>
-      <c r="I66" s="169"/>
-      <c r="J66" s="169"/>
-      <c r="K66" s="169"/>
-      <c r="L66" s="169"/>
-      <c r="M66" s="169"/>
-      <c r="N66" s="169"/>
-      <c r="O66" s="169"/>
-      <c r="P66" s="170"/>
-      <c r="Q66" s="148"/>
-    </row>
-    <row r="67" spans="2:17" s="164" customFormat="1">
-      <c r="B67" s="168"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="164" t="s">
-        <v>180</v>
-      </c>
-      <c r="E67" s="183">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F67" s="169"/>
-      <c r="G67" s="164" t="s">
-        <v>174</v>
-      </c>
-      <c r="H67" s="169"/>
-      <c r="I67" s="169"/>
-      <c r="J67" s="169"/>
-      <c r="K67" s="169"/>
-      <c r="L67" s="169"/>
-      <c r="M67" s="169"/>
-      <c r="N67" s="169"/>
-      <c r="O67" s="169"/>
-      <c r="P67" s="170"/>
-      <c r="Q67" s="148"/>
-    </row>
-    <row r="68" spans="2:17" s="164" customFormat="1">
-      <c r="B68" s="168"/>
-      <c r="C68" s="169"/>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="G68" s="180" t="s">
-        <v>175</v>
-      </c>
-      <c r="H68" s="169"/>
-      <c r="I68" s="169"/>
-      <c r="J68" s="169"/>
-      <c r="K68" s="169"/>
-      <c r="L68" s="169"/>
-      <c r="M68" s="169"/>
-      <c r="N68" s="169"/>
-      <c r="O68" s="169"/>
-      <c r="P68" s="170"/>
-      <c r="Q68" s="169"/>
-    </row>
-    <row r="69" spans="2:17" s="164" customFormat="1">
-      <c r="B69" s="168"/>
-      <c r="C69" s="169"/>
-      <c r="E69" s="169"/>
-      <c r="F69" s="169"/>
-      <c r="G69" s="182" t="s">
-        <v>176</v>
-      </c>
-      <c r="H69" s="169"/>
-      <c r="I69" s="169"/>
-      <c r="J69" s="169"/>
-      <c r="K69" s="169"/>
-      <c r="L69" s="169"/>
-      <c r="M69" s="169"/>
-      <c r="N69" s="169"/>
-      <c r="O69" s="169"/>
-      <c r="P69" s="170"/>
-      <c r="Q69" s="169"/>
-    </row>
-    <row r="70" spans="2:17" s="164" customFormat="1">
-      <c r="B70" s="168"/>
-      <c r="C70" s="169"/>
-      <c r="E70" s="169"/>
-      <c r="F70" s="169"/>
-      <c r="G70" s="181" t="s">
-        <v>177</v>
-      </c>
-      <c r="H70" s="169"/>
-      <c r="I70" s="169"/>
-      <c r="J70" s="169"/>
-      <c r="K70" s="169"/>
-      <c r="L70" s="169"/>
-      <c r="M70" s="169"/>
-      <c r="N70" s="169"/>
-      <c r="O70" s="169"/>
-      <c r="P70" s="170"/>
-      <c r="Q70" s="169"/>
-    </row>
-    <row r="71" spans="2:17" s="164" customFormat="1">
-      <c r="B71" s="168"/>
-      <c r="C71" s="169"/>
-      <c r="E71" s="169"/>
-      <c r="F71" s="169"/>
-      <c r="G71" s="181" t="s">
-        <v>178</v>
-      </c>
-      <c r="H71" s="169"/>
-      <c r="I71" s="169"/>
-      <c r="J71" s="169"/>
-      <c r="K71" s="169"/>
-      <c r="L71" s="169"/>
-      <c r="M71" s="169"/>
-      <c r="N71" s="169"/>
-      <c r="O71" s="169"/>
-      <c r="P71" s="170"/>
-      <c r="Q71" s="169"/>
-    </row>
-    <row r="72" spans="2:17">
+      <c r="O61" s="156"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="154"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+      <c r="N62" s="155"/>
+      <c r="O62" s="156"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="154"/>
+      <c r="C63" s="159" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="155"/>
+      <c r="I63" s="155"/>
+      <c r="J63" s="155"/>
+      <c r="K63" s="155"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
+      <c r="N63" s="155"/>
+      <c r="O63" s="156"/>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="154"/>
+      <c r="C64" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="155"/>
+      <c r="N64" s="155"/>
+      <c r="O64" s="156"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="154"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="155"/>
+      <c r="H65" s="155"/>
+      <c r="I65" s="155"/>
+      <c r="J65" s="155"/>
+      <c r="K65" s="155"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
+      <c r="N65" s="155"/>
+      <c r="O65" s="156"/>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="154"/>
+      <c r="C66" s="155"/>
+      <c r="D66" s="155"/>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+      <c r="G66" s="155"/>
+      <c r="H66" s="155"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="155"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
+      <c r="N66" s="155"/>
+      <c r="O66" s="156"/>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="154"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="155"/>
+      <c r="E67" s="155"/>
+      <c r="F67" s="155"/>
+      <c r="G67" s="155"/>
+      <c r="H67" s="155"/>
+      <c r="I67" s="155"/>
+      <c r="J67" s="155"/>
+      <c r="K67" s="155"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
+      <c r="N67" s="155"/>
+      <c r="O67" s="156"/>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="154"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="155"/>
+      <c r="E68" s="155"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="155"/>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="155"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
+      <c r="N68" s="155"/>
+      <c r="O68" s="156"/>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="154"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
+      <c r="H69" s="155"/>
+      <c r="I69" s="155"/>
+      <c r="J69" s="155"/>
+      <c r="K69" s="155"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
+      <c r="N69" s="155"/>
+      <c r="O69" s="156"/>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="154"/>
+      <c r="C70" s="155"/>
+      <c r="D70" s="155"/>
+      <c r="E70" s="155"/>
+      <c r="F70" s="155"/>
+      <c r="G70" s="155"/>
+      <c r="H70" s="155"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
+      <c r="N70" s="155"/>
+      <c r="O70" s="156"/>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="154"/>
+      <c r="C71" s="155"/>
+      <c r="D71" s="155"/>
+      <c r="E71" s="155"/>
+      <c r="F71" s="155"/>
+      <c r="G71" s="155"/>
+      <c r="H71" s="155"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="155"/>
+      <c r="K71" s="155"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
+      <c r="N71" s="155"/>
+      <c r="O71" s="156"/>
+    </row>
+    <row r="72" spans="2:15">
       <c r="B72" s="154"/>
       <c r="C72" s="155"/>
+      <c r="D72" s="155"/>
       <c r="E72" s="155"/>
       <c r="F72" s="155"/>
       <c r="G72" s="155"/>
@@ -6125,14 +5790,12 @@
       <c r="L72" s="155"/>
       <c r="M72" s="155"/>
       <c r="N72" s="155"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="156"/>
-    </row>
-    <row r="73" spans="2:17">
+      <c r="O72" s="156"/>
+    </row>
+    <row r="73" spans="2:15">
       <c r="B73" s="154"/>
-      <c r="C73" s="157" t="s">
-        <v>114</v>
-      </c>
+      <c r="C73" s="155"/>
+      <c r="D73" s="155"/>
       <c r="E73" s="155"/>
       <c r="F73" s="155"/>
       <c r="G73" s="155"/>
@@ -6143,14 +5806,12 @@
       <c r="L73" s="155"/>
       <c r="M73" s="155"/>
       <c r="N73" s="155"/>
-      <c r="O73" s="155"/>
-      <c r="P73" s="156"/>
-    </row>
-    <row r="74" spans="2:17">
+      <c r="O73" s="156"/>
+    </row>
+    <row r="74" spans="2:15">
       <c r="B74" s="154"/>
-      <c r="C74" s="157" t="s">
-        <v>129</v>
-      </c>
+      <c r="C74" s="155"/>
+      <c r="D74" s="155"/>
       <c r="E74" s="155"/>
       <c r="F74" s="155"/>
       <c r="G74" s="155"/>
@@ -6161,12 +5822,12 @@
       <c r="L74" s="155"/>
       <c r="M74" s="155"/>
       <c r="N74" s="155"/>
-      <c r="O74" s="155"/>
-      <c r="P74" s="156"/>
-    </row>
-    <row r="75" spans="2:17">
+      <c r="O74" s="156"/>
+    </row>
+    <row r="75" spans="2:15">
       <c r="B75" s="154"/>
       <c r="C75" s="155"/>
+      <c r="D75" s="155"/>
       <c r="E75" s="155"/>
       <c r="F75" s="155"/>
       <c r="G75" s="155"/>
@@ -6177,12 +5838,12 @@
       <c r="L75" s="155"/>
       <c r="M75" s="155"/>
       <c r="N75" s="155"/>
-      <c r="O75" s="155"/>
-      <c r="P75" s="156"/>
-    </row>
-    <row r="76" spans="2:17">
+      <c r="O75" s="156"/>
+    </row>
+    <row r="76" spans="2:15">
       <c r="B76" s="154"/>
       <c r="C76" s="155"/>
+      <c r="D76" s="155"/>
       <c r="E76" s="155"/>
       <c r="F76" s="155"/>
       <c r="G76" s="155"/>
@@ -6193,12 +5854,12 @@
       <c r="L76" s="155"/>
       <c r="M76" s="155"/>
       <c r="N76" s="155"/>
-      <c r="O76" s="155"/>
-      <c r="P76" s="156"/>
-    </row>
-    <row r="77" spans="2:17">
+      <c r="O76" s="156"/>
+    </row>
+    <row r="77" spans="2:15">
       <c r="B77" s="154"/>
       <c r="C77" s="155"/>
+      <c r="D77" s="155"/>
       <c r="E77" s="155"/>
       <c r="F77" s="155"/>
       <c r="G77" s="155"/>
@@ -6209,12 +5870,12 @@
       <c r="L77" s="155"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
-      <c r="O77" s="155"/>
-      <c r="P77" s="156"/>
-    </row>
-    <row r="78" spans="2:17">
+      <c r="O77" s="156"/>
+    </row>
+    <row r="78" spans="2:15">
       <c r="B78" s="154"/>
       <c r="C78" s="155"/>
+      <c r="D78" s="155"/>
       <c r="E78" s="155"/>
       <c r="F78" s="155"/>
       <c r="G78" s="155"/>
@@ -6225,13 +5886,19 @@
       <c r="L78" s="155"/>
       <c r="M78" s="155"/>
       <c r="N78" s="155"/>
-      <c r="O78" s="155"/>
-      <c r="P78" s="156"/>
-    </row>
-    <row r="79" spans="2:17">
+      <c r="O78" s="156"/>
+    </row>
+    <row r="79" spans="2:15">
       <c r="B79" s="154"/>
-      <c r="C79" s="155"/>
-      <c r="E79" s="155"/>
+      <c r="C79" s="159" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="155">
+        <v>1000</v>
+      </c>
+      <c r="E79" s="159" t="s">
+        <v>129</v>
+      </c>
       <c r="F79" s="155"/>
       <c r="G79" s="155"/>
       <c r="H79" s="155"/>
@@ -6241,21 +5908,20 @@
       <c r="L79" s="155"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
-      <c r="O79" s="155"/>
-      <c r="P79" s="156"/>
-    </row>
-    <row r="80" spans="2:17">
+      <c r="O79" s="156"/>
+    </row>
+    <row r="80" spans="2:15">
       <c r="B80" s="154"/>
-      <c r="C80" s="155"/>
-      <c r="D80" s="164" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="155">
-        <v>24</v>
-      </c>
-      <c r="F80" s="157" t="s">
-        <v>133</v>
-      </c>
+      <c r="C80" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="159">
+        <v>3</v>
+      </c>
+      <c r="E80" s="159" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="155"/>
       <c r="G80" s="155"/>
       <c r="H80" s="155"/>
       <c r="I80" s="155"/>
@@ -6264,18 +5930,14 @@
       <c r="L80" s="155"/>
       <c r="M80" s="155"/>
       <c r="N80" s="155"/>
-      <c r="O80" s="155"/>
-      <c r="P80" s="156"/>
-    </row>
-    <row r="81" spans="2:16">
+      <c r="O80" s="156"/>
+    </row>
+    <row r="81" spans="2:15">
       <c r="B81" s="154"/>
       <c r="C81" s="155"/>
-      <c r="E81" s="155">
-        <v>25</v>
-      </c>
-      <c r="F81" s="157" t="s">
-        <v>130</v>
-      </c>
+      <c r="D81" s="155"/>
+      <c r="E81" s="155"/>
+      <c r="F81" s="155"/>
       <c r="G81" s="155"/>
       <c r="H81" s="155"/>
       <c r="I81" s="155"/>
@@ -6284,12 +5946,12 @@
       <c r="L81" s="155"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
-      <c r="O81" s="155"/>
-      <c r="P81" s="156"/>
-    </row>
-    <row r="82" spans="2:16">
+      <c r="O81" s="156"/>
+    </row>
+    <row r="82" spans="2:15">
       <c r="B82" s="154"/>
       <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
       <c r="E82" s="155"/>
       <c r="F82" s="155"/>
       <c r="G82" s="155"/>
@@ -6300,12 +5962,12 @@
       <c r="L82" s="155"/>
       <c r="M82" s="155"/>
       <c r="N82" s="155"/>
-      <c r="O82" s="155"/>
-      <c r="P82" s="156"/>
-    </row>
-    <row r="83" spans="2:16">
+      <c r="O82" s="156"/>
+    </row>
+    <row r="83" spans="2:15">
       <c r="B83" s="154"/>
       <c r="C83" s="155"/>
+      <c r="D83" s="155"/>
       <c r="E83" s="155"/>
       <c r="F83" s="155"/>
       <c r="G83" s="155"/>
@@ -6316,12 +5978,12 @@
       <c r="L83" s="155"/>
       <c r="M83" s="155"/>
       <c r="N83" s="155"/>
-      <c r="O83" s="155"/>
-      <c r="P83" s="156"/>
-    </row>
-    <row r="84" spans="2:16">
+      <c r="O83" s="156"/>
+    </row>
+    <row r="84" spans="2:15">
       <c r="B84" s="154"/>
       <c r="C84" s="155"/>
+      <c r="D84" s="155"/>
       <c r="E84" s="155"/>
       <c r="F84" s="155"/>
       <c r="G84" s="155"/>
@@ -6332,12 +5994,12 @@
       <c r="L84" s="155"/>
       <c r="M84" s="155"/>
       <c r="N84" s="155"/>
-      <c r="O84" s="155"/>
-      <c r="P84" s="156"/>
-    </row>
-    <row r="85" spans="2:16">
+      <c r="O84" s="156"/>
+    </row>
+    <row r="85" spans="2:15">
       <c r="B85" s="154"/>
       <c r="C85" s="155"/>
+      <c r="D85" s="155"/>
       <c r="E85" s="155"/>
       <c r="F85" s="155"/>
       <c r="G85" s="155"/>
@@ -6348,12 +6010,12 @@
       <c r="L85" s="155"/>
       <c r="M85" s="155"/>
       <c r="N85" s="155"/>
-      <c r="O85" s="155"/>
-      <c r="P85" s="156"/>
-    </row>
-    <row r="86" spans="2:16">
+      <c r="O85" s="156"/>
+    </row>
+    <row r="86" spans="2:15">
       <c r="B86" s="154"/>
       <c r="C86" s="155"/>
+      <c r="D86" s="155"/>
       <c r="E86" s="155"/>
       <c r="F86" s="155"/>
       <c r="G86" s="155"/>
@@ -6364,14 +6026,12 @@
       <c r="L86" s="155"/>
       <c r="M86" s="155"/>
       <c r="N86" s="155"/>
-      <c r="O86" s="155"/>
-      <c r="P86" s="156"/>
-    </row>
-    <row r="87" spans="2:16">
+      <c r="O86" s="156"/>
+    </row>
+    <row r="87" spans="2:15">
       <c r="B87" s="154"/>
-      <c r="C87" s="160" t="s">
-        <v>140</v>
-      </c>
+      <c r="C87" s="155"/>
+      <c r="D87" s="155"/>
       <c r="E87" s="155"/>
       <c r="F87" s="155"/>
       <c r="G87" s="155"/>
@@ -6382,14 +6042,12 @@
       <c r="L87" s="155"/>
       <c r="M87" s="155"/>
       <c r="N87" s="155"/>
-      <c r="O87" s="155"/>
-      <c r="P87" s="156"/>
-    </row>
-    <row r="88" spans="2:16">
+      <c r="O87" s="156"/>
+    </row>
+    <row r="88" spans="2:15">
       <c r="B88" s="154"/>
-      <c r="C88" s="160" t="s">
-        <v>141</v>
-      </c>
+      <c r="C88" s="155"/>
+      <c r="D88" s="155"/>
       <c r="E88" s="155"/>
       <c r="F88" s="155"/>
       <c r="G88" s="155"/>
@@ -6400,12 +6058,12 @@
       <c r="L88" s="155"/>
       <c r="M88" s="155"/>
       <c r="N88" s="155"/>
-      <c r="O88" s="155"/>
-      <c r="P88" s="156"/>
-    </row>
-    <row r="89" spans="2:16">
+      <c r="O88" s="156"/>
+    </row>
+    <row r="89" spans="2:15">
       <c r="B89" s="154"/>
       <c r="C89" s="155"/>
+      <c r="D89" s="155"/>
       <c r="E89" s="155"/>
       <c r="F89" s="155"/>
       <c r="G89" s="155"/>
@@ -6416,12 +6074,12 @@
       <c r="L89" s="155"/>
       <c r="M89" s="155"/>
       <c r="N89" s="155"/>
-      <c r="O89" s="155"/>
-      <c r="P89" s="156"/>
-    </row>
-    <row r="90" spans="2:16">
+      <c r="O89" s="156"/>
+    </row>
+    <row r="90" spans="2:15">
       <c r="B90" s="154"/>
       <c r="C90" s="155"/>
+      <c r="D90" s="155"/>
       <c r="E90" s="155"/>
       <c r="F90" s="155"/>
       <c r="G90" s="155"/>
@@ -6432,12 +6090,12 @@
       <c r="L90" s="155"/>
       <c r="M90" s="155"/>
       <c r="N90" s="155"/>
-      <c r="O90" s="155"/>
-      <c r="P90" s="156"/>
-    </row>
-    <row r="91" spans="2:16">
+      <c r="O90" s="156"/>
+    </row>
+    <row r="91" spans="2:15">
       <c r="B91" s="154"/>
       <c r="C91" s="155"/>
+      <c r="D91" s="155"/>
       <c r="E91" s="155"/>
       <c r="F91" s="155"/>
       <c r="G91" s="155"/>
@@ -6448,12 +6106,12 @@
       <c r="L91" s="155"/>
       <c r="M91" s="155"/>
       <c r="N91" s="155"/>
-      <c r="O91" s="155"/>
-      <c r="P91" s="156"/>
-    </row>
-    <row r="92" spans="2:16">
+      <c r="O91" s="156"/>
+    </row>
+    <row r="92" spans="2:15">
       <c r="B92" s="154"/>
       <c r="C92" s="155"/>
+      <c r="D92" s="155"/>
       <c r="E92" s="155"/>
       <c r="F92" s="155"/>
       <c r="G92" s="155"/>
@@ -6464,430 +6122,7 @@
       <c r="L92" s="155"/>
       <c r="M92" s="155"/>
       <c r="N92" s="155"/>
-      <c r="O92" s="155"/>
-      <c r="P92" s="156"/>
-    </row>
-    <row r="93" spans="2:16">
-      <c r="B93" s="154"/>
-      <c r="C93" s="155"/>
-      <c r="E93" s="155"/>
-      <c r="F93" s="155"/>
-      <c r="G93" s="155"/>
-      <c r="H93" s="155"/>
-      <c r="I93" s="155"/>
-      <c r="J93" s="155"/>
-      <c r="K93" s="155"/>
-      <c r="L93" s="155"/>
-      <c r="M93" s="155"/>
-      <c r="N93" s="155"/>
-      <c r="O93" s="155"/>
-      <c r="P93" s="156"/>
-    </row>
-    <row r="94" spans="2:16">
-      <c r="B94" s="154"/>
-      <c r="C94" s="155"/>
-      <c r="E94" s="155"/>
-      <c r="F94" s="155"/>
-      <c r="G94" s="155"/>
-      <c r="H94" s="155"/>
-      <c r="I94" s="155"/>
-      <c r="J94" s="155"/>
-      <c r="K94" s="155"/>
-      <c r="L94" s="155"/>
-      <c r="M94" s="155"/>
-      <c r="N94" s="155"/>
-      <c r="O94" s="155"/>
-      <c r="P94" s="156"/>
-    </row>
-    <row r="95" spans="2:16">
-      <c r="B95" s="154"/>
-      <c r="C95" s="155"/>
-      <c r="E95" s="155"/>
-      <c r="F95" s="155"/>
-      <c r="G95" s="155"/>
-      <c r="H95" s="155"/>
-      <c r="I95" s="155"/>
-      <c r="J95" s="155"/>
-      <c r="K95" s="155"/>
-      <c r="L95" s="155"/>
-      <c r="M95" s="155"/>
-      <c r="N95" s="155"/>
-      <c r="O95" s="155"/>
-      <c r="P95" s="156"/>
-    </row>
-    <row r="96" spans="2:16">
-      <c r="B96" s="154"/>
-      <c r="C96" s="155"/>
-      <c r="E96" s="155"/>
-      <c r="F96" s="155"/>
-      <c r="G96" s="155"/>
-      <c r="H96" s="155"/>
-      <c r="I96" s="155"/>
-      <c r="J96" s="155"/>
-      <c r="K96" s="155"/>
-      <c r="L96" s="155"/>
-      <c r="M96" s="155"/>
-      <c r="N96" s="155"/>
-      <c r="O96" s="155"/>
-      <c r="P96" s="156"/>
-    </row>
-    <row r="97" spans="2:16">
-      <c r="B97" s="154"/>
-      <c r="C97" s="155"/>
-      <c r="E97" s="155"/>
-      <c r="F97" s="155"/>
-      <c r="G97" s="155"/>
-      <c r="H97" s="155"/>
-      <c r="I97" s="155"/>
-      <c r="J97" s="155"/>
-      <c r="K97" s="155"/>
-      <c r="L97" s="155"/>
-      <c r="M97" s="155"/>
-      <c r="N97" s="155"/>
-      <c r="O97" s="155"/>
-      <c r="P97" s="156"/>
-    </row>
-    <row r="98" spans="2:16">
-      <c r="B98" s="154"/>
-      <c r="C98" s="155"/>
-      <c r="E98" s="155"/>
-      <c r="F98" s="155"/>
-      <c r="G98" s="155"/>
-      <c r="H98" s="155"/>
-      <c r="I98" s="155"/>
-      <c r="J98" s="155"/>
-      <c r="K98" s="155"/>
-      <c r="L98" s="155"/>
-      <c r="M98" s="155"/>
-      <c r="N98" s="155"/>
-      <c r="O98" s="155"/>
-      <c r="P98" s="156"/>
-    </row>
-    <row r="99" spans="2:16">
-      <c r="B99" s="154"/>
-      <c r="C99" s="155"/>
-      <c r="E99" s="155"/>
-      <c r="F99" s="155"/>
-      <c r="G99" s="155"/>
-      <c r="H99" s="155"/>
-      <c r="I99" s="155"/>
-      <c r="J99" s="155"/>
-      <c r="K99" s="155"/>
-      <c r="L99" s="155"/>
-      <c r="M99" s="155"/>
-      <c r="N99" s="155"/>
-      <c r="O99" s="155"/>
-      <c r="P99" s="156"/>
-    </row>
-    <row r="100" spans="2:16">
-      <c r="B100" s="154"/>
-      <c r="C100" s="155"/>
-      <c r="E100" s="155"/>
-      <c r="F100" s="155"/>
-      <c r="G100" s="155"/>
-      <c r="H100" s="155"/>
-      <c r="I100" s="155"/>
-      <c r="J100" s="155"/>
-      <c r="K100" s="155"/>
-      <c r="L100" s="155"/>
-      <c r="M100" s="155"/>
-      <c r="N100" s="155"/>
-      <c r="O100" s="155"/>
-      <c r="P100" s="156"/>
-    </row>
-    <row r="101" spans="2:16">
-      <c r="B101" s="154"/>
-      <c r="C101" s="155"/>
-      <c r="E101" s="155"/>
-      <c r="F101" s="155"/>
-      <c r="G101" s="155"/>
-      <c r="H101" s="155"/>
-      <c r="I101" s="155"/>
-      <c r="J101" s="155"/>
-      <c r="K101" s="155"/>
-      <c r="L101" s="155"/>
-      <c r="M101" s="155"/>
-      <c r="N101" s="155"/>
-      <c r="O101" s="155"/>
-      <c r="P101" s="156"/>
-    </row>
-    <row r="102" spans="2:16">
-      <c r="B102" s="154"/>
-      <c r="C102" s="155"/>
-      <c r="E102" s="155"/>
-      <c r="F102" s="155"/>
-      <c r="G102" s="155"/>
-      <c r="H102" s="155"/>
-      <c r="I102" s="155"/>
-      <c r="J102" s="155"/>
-      <c r="K102" s="155"/>
-      <c r="L102" s="155"/>
-      <c r="M102" s="155"/>
-      <c r="N102" s="155"/>
-      <c r="O102" s="155"/>
-      <c r="P102" s="156"/>
-    </row>
-    <row r="103" spans="2:16">
-      <c r="B103" s="154"/>
-      <c r="C103" s="155"/>
-      <c r="E103" s="155"/>
-      <c r="F103" s="155"/>
-      <c r="G103" s="155"/>
-      <c r="H103" s="155"/>
-      <c r="I103" s="155"/>
-      <c r="J103" s="155"/>
-      <c r="K103" s="155"/>
-      <c r="L103" s="155"/>
-      <c r="M103" s="155"/>
-      <c r="N103" s="155"/>
-      <c r="O103" s="155"/>
-      <c r="P103" s="156"/>
-    </row>
-    <row r="104" spans="2:16">
-      <c r="B104" s="154"/>
-      <c r="C104" s="155"/>
-      <c r="E104" s="155"/>
-      <c r="F104" s="155"/>
-      <c r="G104" s="155"/>
-      <c r="H104" s="155"/>
-      <c r="I104" s="155"/>
-      <c r="J104" s="155"/>
-      <c r="K104" s="155"/>
-      <c r="L104" s="155"/>
-      <c r="M104" s="155"/>
-      <c r="N104" s="155"/>
-      <c r="O104" s="155"/>
-      <c r="P104" s="156"/>
-    </row>
-    <row r="105" spans="2:16">
-      <c r="B105" s="154"/>
-      <c r="C105" s="155"/>
-      <c r="E105" s="155"/>
-      <c r="F105" s="155"/>
-      <c r="G105" s="155"/>
-      <c r="H105" s="155"/>
-      <c r="I105" s="155"/>
-      <c r="J105" s="155"/>
-      <c r="K105" s="155"/>
-      <c r="L105" s="155"/>
-      <c r="M105" s="155"/>
-      <c r="N105" s="155"/>
-      <c r="O105" s="155"/>
-      <c r="P105" s="156"/>
-    </row>
-    <row r="106" spans="2:16">
-      <c r="B106" s="154"/>
-      <c r="C106" s="160" t="s">
-        <v>142</v>
-      </c>
-      <c r="E106" s="155">
-        <v>1000</v>
-      </c>
-      <c r="F106" s="160" t="s">
-        <v>123</v>
-      </c>
-      <c r="G106" s="160"/>
-      <c r="H106" s="155"/>
-      <c r="I106" s="155"/>
-      <c r="J106" s="155"/>
-      <c r="K106" s="155"/>
-      <c r="L106" s="155"/>
-      <c r="M106" s="155"/>
-      <c r="N106" s="155"/>
-      <c r="O106" s="155"/>
-      <c r="P106" s="156"/>
-    </row>
-    <row r="107" spans="2:16">
-      <c r="B107" s="154"/>
-      <c r="C107" s="160" t="s">
-        <v>143</v>
-      </c>
-      <c r="E107" s="155">
-        <v>3</v>
-      </c>
-      <c r="F107" s="160" t="s">
-        <v>144</v>
-      </c>
-      <c r="G107" s="155"/>
-      <c r="H107" s="155"/>
-      <c r="I107" s="155"/>
-      <c r="J107" s="155"/>
-      <c r="K107" s="155"/>
-      <c r="L107" s="155"/>
-      <c r="M107" s="155"/>
-      <c r="N107" s="155"/>
-      <c r="O107" s="155"/>
-      <c r="P107" s="156"/>
-    </row>
-    <row r="108" spans="2:16">
-      <c r="B108" s="154"/>
-      <c r="C108" s="155"/>
-      <c r="D108" s="155"/>
-      <c r="E108" s="155"/>
-      <c r="F108" s="155"/>
-      <c r="G108" s="155"/>
-      <c r="H108" s="155"/>
-      <c r="I108" s="155"/>
-      <c r="J108" s="155"/>
-      <c r="K108" s="155"/>
-      <c r="L108" s="155"/>
-      <c r="M108" s="155"/>
-      <c r="N108" s="155"/>
-      <c r="O108" s="155"/>
-      <c r="P108" s="156"/>
-    </row>
-    <row r="109" spans="2:16">
-      <c r="B109" s="154"/>
-      <c r="C109" s="155"/>
-      <c r="D109" s="155"/>
-      <c r="E109" s="155"/>
-      <c r="F109" s="155"/>
-      <c r="G109" s="155"/>
-      <c r="H109" s="155"/>
-      <c r="I109" s="155"/>
-      <c r="J109" s="155"/>
-      <c r="K109" s="155"/>
-      <c r="L109" s="155"/>
-      <c r="M109" s="155"/>
-      <c r="N109" s="155"/>
-      <c r="O109" s="155"/>
-      <c r="P109" s="156"/>
-    </row>
-    <row r="110" spans="2:16">
-      <c r="B110" s="154"/>
-      <c r="C110" s="155"/>
-      <c r="D110" s="155"/>
-      <c r="E110" s="155"/>
-      <c r="F110" s="155"/>
-      <c r="G110" s="155"/>
-      <c r="H110" s="155"/>
-      <c r="I110" s="155"/>
-      <c r="J110" s="155"/>
-      <c r="K110" s="155"/>
-      <c r="L110" s="155"/>
-      <c r="M110" s="155"/>
-      <c r="N110" s="155"/>
-      <c r="O110" s="155"/>
-      <c r="P110" s="156"/>
-    </row>
-    <row r="111" spans="2:16">
-      <c r="B111" s="154"/>
-      <c r="C111" s="155"/>
-      <c r="D111" s="155"/>
-      <c r="E111" s="155"/>
-      <c r="F111" s="155"/>
-      <c r="G111" s="155"/>
-      <c r="H111" s="155"/>
-      <c r="I111" s="155"/>
-      <c r="J111" s="155"/>
-      <c r="K111" s="155"/>
-      <c r="L111" s="155"/>
-      <c r="M111" s="155"/>
-      <c r="N111" s="155"/>
-      <c r="O111" s="155"/>
-      <c r="P111" s="156"/>
-    </row>
-    <row r="112" spans="2:16">
-      <c r="B112" s="154"/>
-      <c r="C112" s="155"/>
-      <c r="D112" s="155"/>
-      <c r="E112" s="155"/>
-      <c r="F112" s="155"/>
-      <c r="G112" s="155"/>
-      <c r="H112" s="155"/>
-      <c r="I112" s="155"/>
-      <c r="J112" s="155"/>
-      <c r="K112" s="155"/>
-      <c r="L112" s="155"/>
-      <c r="M112" s="155"/>
-      <c r="N112" s="155"/>
-      <c r="O112" s="155"/>
-      <c r="P112" s="156"/>
-    </row>
-    <row r="113" spans="2:16">
-      <c r="B113" s="154"/>
-      <c r="C113" s="155"/>
-      <c r="D113" s="155"/>
-      <c r="E113" s="155"/>
-      <c r="F113" s="155"/>
-      <c r="G113" s="155"/>
-      <c r="H113" s="155"/>
-      <c r="I113" s="155"/>
-      <c r="J113" s="155"/>
-      <c r="K113" s="155"/>
-      <c r="L113" s="155"/>
-      <c r="M113" s="155"/>
-      <c r="N113" s="155"/>
-      <c r="O113" s="155"/>
-      <c r="P113" s="156"/>
-    </row>
-    <row r="114" spans="2:16">
-      <c r="B114" s="154"/>
-      <c r="C114" s="155"/>
-      <c r="D114" s="155"/>
-      <c r="E114" s="155"/>
-      <c r="F114" s="155"/>
-      <c r="G114" s="155"/>
-      <c r="H114" s="155"/>
-      <c r="I114" s="155"/>
-      <c r="J114" s="155"/>
-      <c r="K114" s="155"/>
-      <c r="L114" s="155"/>
-      <c r="M114" s="155"/>
-      <c r="N114" s="155"/>
-      <c r="O114" s="155"/>
-      <c r="P114" s="156"/>
-    </row>
-    <row r="115" spans="2:16">
-      <c r="B115" s="154"/>
-      <c r="C115" s="155"/>
-      <c r="D115" s="155"/>
-      <c r="E115" s="155"/>
-      <c r="F115" s="155"/>
-      <c r="G115" s="155"/>
-      <c r="H115" s="155"/>
-      <c r="I115" s="155"/>
-      <c r="J115" s="155"/>
-      <c r="K115" s="155"/>
-      <c r="L115" s="155"/>
-      <c r="M115" s="155"/>
-      <c r="N115" s="155"/>
-      <c r="O115" s="155"/>
-      <c r="P115" s="156"/>
-    </row>
-    <row r="116" spans="2:16">
-      <c r="B116" s="154"/>
-      <c r="C116" s="155"/>
-      <c r="D116" s="155"/>
-      <c r="E116" s="155"/>
-      <c r="F116" s="155"/>
-      <c r="G116" s="155"/>
-      <c r="H116" s="155"/>
-      <c r="I116" s="155"/>
-      <c r="J116" s="155"/>
-      <c r="K116" s="155"/>
-      <c r="L116" s="155"/>
-      <c r="M116" s="155"/>
-      <c r="N116" s="155"/>
-      <c r="O116" s="155"/>
-      <c r="P116" s="156"/>
-    </row>
-    <row r="117" spans="2:16">
-      <c r="B117" s="154"/>
-      <c r="C117" s="155"/>
-      <c r="D117" s="155"/>
-      <c r="E117" s="155"/>
-      <c r="F117" s="155"/>
-      <c r="G117" s="155"/>
-      <c r="H117" s="155"/>
-      <c r="I117" s="155"/>
-      <c r="J117" s="155"/>
-      <c r="K117" s="155"/>
-      <c r="L117" s="155"/>
-      <c r="M117" s="155"/>
-      <c r="N117" s="155"/>
-      <c r="O117" s="155"/>
-      <c r="P117" s="156"/>
+      <c r="O92" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_combined_cycle_gas_power_fuelmix.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1426F-BDF0-884E-BFE6-1D9A31EC02D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13FF179-9D9E-8544-81C6-3B773F0893D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="160">
   <si>
     <t>Source</t>
   </si>
@@ -707,6 +713,9 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -717,7 +726,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -862,6 +871,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -869,6 +879,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,6 +887,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,6 +895,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,6 +903,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,17 +911,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,7 +938,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1482,7 +1506,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1758,6 +1782,7 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2642,12 +2667,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2821,23 +2846,23 @@
   </sheetPr>
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="60.1640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="60.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3315,15 +3340,15 @@
         <v>3</v>
       </c>
       <c r="E29" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="33"/>
-      <c r="I29" s="31" t="s">
-        <v>56</v>
+      <c r="I29" s="165" t="s">
+        <v>159</v>
       </c>
       <c r="J29" s="129"/>
     </row>
@@ -3571,25 +3596,25 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="71" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="71" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="72" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="72" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="71" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="72" customWidth="1"/>
     <col min="11" max="11" width="9" style="72" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" style="72" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="72" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="72" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="72" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" style="72" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="72" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="72" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="72" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="72" customWidth="1"/>
     <col min="17" max="17" width="114" style="71" customWidth="1"/>
-    <col min="18" max="16384" width="10.6640625" style="71"/>
+    <col min="18" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1"/>
@@ -4209,18 +4234,18 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
     <col min="10" max="10" width="32" style="47" customWidth="1"/>
-    <col min="11" max="11" width="130.33203125" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="46"/>
+    <col min="11" max="11" width="130.28515625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4302,7 +4327,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" ht="32">
+    <row r="7" spans="2:11" ht="34">
       <c r="B7" s="51"/>
       <c r="C7" s="59"/>
       <c r="D7" s="64"/>
@@ -4603,12 +4628,12 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="145" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="145" customWidth="1"/>
     <col min="2" max="2" width="4" style="145" customWidth="1"/>
     <col min="3" max="3" width="17" style="145" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="145"/>
+    <col min="4" max="16384" width="10.7109375" style="145"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
